--- a/New Dataset/Nemenyi-Cross-Sectional.xlsx
+++ b/New Dataset/Nemenyi-Cross-Sectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/New Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{63ADE94E-410A-4C0D-8F01-08D87F8CF346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6B904F-2C58-438C-80BD-5E03DC6C007E}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{63ADE94E-410A-4C0D-8F01-08D87F8CF346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C530BA8-1742-401E-B0A8-6787D1A666B8}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EEDB9E72-6745-43F5-85AB-BC96E2F495CA}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EEDB9E72-6745-43F5-85AB-BC96E2F495CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD089331-65FA-4BE0-B0F3-2D07DA26ECA7}">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X93"/>
     </sheetView>
   </sheetViews>
@@ -562,76 +566,76 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1.0529146853095399</v>
+        <v>1.04892403687178</v>
       </c>
       <c r="B2">
-        <v>1.1126431789537501</v>
+        <v>1.1152615773294301</v>
       </c>
       <c r="C2">
-        <v>1.0529146853095399</v>
+        <v>1.04892403687178</v>
       </c>
       <c r="D2">
-        <v>1.0774554908060701</v>
+        <v>1.0684330626287899</v>
       </c>
       <c r="E2">
-        <v>1.06120838833572</v>
+        <v>1.0563615338113499</v>
       </c>
       <c r="F2">
-        <v>1.06875449148778</v>
+        <v>1.0601426396051601</v>
       </c>
       <c r="G2">
-        <v>1.12865429827013</v>
+        <v>1.1306702753893401</v>
       </c>
       <c r="H2">
-        <v>1.2533013380389599</v>
+        <v>1.2668283404753999</v>
       </c>
       <c r="I2">
-        <v>1.12865429827013</v>
+        <v>1.1306702753893401</v>
       </c>
       <c r="J2">
-        <v>1.2034217759076999</v>
+        <v>1.21054160236551</v>
       </c>
       <c r="K2">
-        <v>1.1495067436564199</v>
+        <v>1.1563258780029699</v>
       </c>
       <c r="L2">
-        <v>1.1562694844597601</v>
+        <v>1.16696066426045</v>
       </c>
       <c r="M2">
-        <v>0.98401721670407905</v>
+        <v>0.98747621503726102</v>
       </c>
       <c r="N2">
-        <v>1.00443646678599</v>
+        <v>1.0103879488538401</v>
       </c>
       <c r="O2">
-        <v>0.98401721670407905</v>
+        <v>0.98747621503726102</v>
       </c>
       <c r="P2">
-        <v>0.99114656743317298</v>
+        <v>0.99144851067018802</v>
       </c>
       <c r="Q2">
-        <v>0.98576182632716502</v>
+        <v>0.98872973405559605</v>
       </c>
       <c r="R2">
-        <v>0.98856034195769005</v>
+        <v>0.98946973712173303</v>
       </c>
       <c r="S2">
-        <v>1.03460276787483</v>
+        <v>1.0307085050587901</v>
       </c>
       <c r="T2">
-        <v>1.09741153879316</v>
+        <v>1.1057528251155</v>
       </c>
       <c r="U2">
-        <v>1.03460276787483</v>
+        <v>1.0307085050587901</v>
       </c>
       <c r="V2">
-        <v>1.0777828989306599</v>
+        <v>1.0862550722167701</v>
       </c>
       <c r="W2">
-        <v>1.0397832557976201</v>
+        <v>1.04133892830837</v>
       </c>
       <c r="X2">
-        <v>1.047389619</v>
+        <v>1.0514067920000001</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -642,34 +646,34 @@
         <v>1.1546855394194999</v>
       </c>
       <c r="C3">
-        <v>1.08527838913437</v>
+        <v>1.0870228015382599</v>
       </c>
       <c r="D3">
         <v>1.10605987972597</v>
       </c>
       <c r="E3">
-        <v>1.09671923172149</v>
+        <v>1.0971370655039301</v>
       </c>
       <c r="F3">
-        <v>1.1059704978951801</v>
+        <v>1.10653310988549</v>
       </c>
       <c r="G3">
-        <v>1.28059396021028</v>
+        <v>1.28296843609059</v>
       </c>
       <c r="H3">
-        <v>1.3465995033129601</v>
+        <v>1.3461974164943999</v>
       </c>
       <c r="I3">
-        <v>1.20121921096797</v>
+        <v>1.20686505866645</v>
       </c>
       <c r="J3">
-        <v>1.28059396021028</v>
+        <v>1.28296843609059</v>
       </c>
       <c r="K3">
-        <v>1.24222286261027</v>
+        <v>1.24897835325754</v>
       </c>
       <c r="L3">
-        <v>1.2354602843860001</v>
+        <v>1.2382048750783401</v>
       </c>
       <c r="M3">
         <v>0.98795821897290503</v>
@@ -678,108 +682,108 @@
         <v>1.00203788629491</v>
       </c>
       <c r="O3">
-        <v>0.98560581212081499</v>
+        <v>0.98608430566029703</v>
       </c>
       <c r="P3">
         <v>0.98795821897290503</v>
       </c>
       <c r="Q3">
-        <v>0.98676391261345098</v>
+        <v>0.98706783912957996</v>
       </c>
       <c r="R3">
-        <v>0.98819500234075397</v>
+        <v>0.98759053044261202</v>
       </c>
       <c r="S3">
-        <v>1.0913205784322599</v>
+        <v>1.09332785220205</v>
       </c>
       <c r="T3">
-        <v>1.10885754761749</v>
+        <v>1.1069815326924899</v>
       </c>
       <c r="U3">
-        <v>1.0460622390971399</v>
+        <v>1.0370996862294399</v>
       </c>
       <c r="V3">
-        <v>1.0913205784322599</v>
+        <v>1.09332785220205</v>
       </c>
       <c r="W3">
-        <v>1.0645406040141201</v>
+        <v>1.06327526147427</v>
       </c>
       <c r="X3">
-        <v>1.0632241389999999</v>
+        <v>1.0594587209999999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1.05847569526477</v>
+        <v>1.0237344486058</v>
       </c>
       <c r="B4">
-        <v>1.05847569526477</v>
+        <v>1.04970283656654</v>
       </c>
       <c r="C4">
-        <v>1.03395996085315</v>
+        <v>1.0091831441878101</v>
       </c>
       <c r="D4">
-        <v>1.05847569526477</v>
+        <v>1.0237344486058</v>
       </c>
       <c r="E4">
-        <v>1.0356579800155901</v>
+        <v>1.0092510726658199</v>
       </c>
       <c r="F4">
-        <v>1.04095150019445</v>
+        <v>1.00932643334701</v>
       </c>
       <c r="G4">
-        <v>1.05844940978408</v>
+        <v>1.0316398473561399</v>
       </c>
       <c r="H4">
-        <v>1.0586208047057399</v>
+        <v>1.0379533888855199</v>
       </c>
       <c r="I4">
-        <v>1.0645947918991501</v>
+        <v>1.0496323694897101</v>
       </c>
       <c r="J4">
-        <v>1.05844940978408</v>
+        <v>1.0316398473561399</v>
       </c>
       <c r="K4">
-        <v>1.07727056457475</v>
+        <v>1.0673037410559201</v>
       </c>
       <c r="L4">
-        <v>1.04764280026638</v>
+        <v>1.02227661376764</v>
       </c>
       <c r="M4">
-        <v>0.98042474136133695</v>
+        <v>0.97402725714886296</v>
       </c>
       <c r="N4">
-        <v>0.98042474136133595</v>
+        <v>0.98561665956452604</v>
       </c>
       <c r="O4">
-        <v>0.96861008072863697</v>
+        <v>0.96822000434692601</v>
       </c>
       <c r="P4">
-        <v>0.98042474136133695</v>
+        <v>0.97402725714886296</v>
       </c>
       <c r="Q4">
-        <v>0.97028165628991203</v>
+        <v>0.96879519083479604</v>
       </c>
       <c r="R4">
-        <v>0.973647833133369</v>
+        <v>0.969004519747241</v>
       </c>
       <c r="S4">
-        <v>0.98974573728952298</v>
+        <v>0.98245514231382503</v>
       </c>
       <c r="T4">
-        <v>0.98949119501496796</v>
+        <v>0.98592859212347295</v>
       </c>
       <c r="U4">
-        <v>1.0058563907839899</v>
+        <v>1.0057102509262501</v>
       </c>
       <c r="V4">
-        <v>0.98974573728952298</v>
+        <v>0.98245514231382503</v>
       </c>
       <c r="W4">
-        <v>1.0065600897470599</v>
+        <v>1.00864780193921</v>
       </c>
       <c r="X4">
-        <v>0.98664860300000001</v>
+        <v>0.97762358800000004</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -790,34 +794,34 @@
         <v>1.15595189185256</v>
       </c>
       <c r="C5">
-        <v>1.0874863016504299</v>
+        <v>1.08765641549217</v>
       </c>
       <c r="D5">
         <v>1.1056765554627099</v>
       </c>
       <c r="E5">
-        <v>1.10196172964387</v>
+        <v>1.10152360136445</v>
       </c>
       <c r="F5">
-        <v>1.11485835912287</v>
+        <v>1.1150129647449001</v>
       </c>
       <c r="G5">
-        <v>1.3983216374220699</v>
+        <v>1.3929383016841499</v>
       </c>
       <c r="H5">
-        <v>1.3983216374220699</v>
+        <v>1.3929383016841499</v>
       </c>
       <c r="I5">
-        <v>1.2700819366178699</v>
+        <v>1.27288334162592</v>
       </c>
       <c r="J5">
-        <v>1.34316157484294</v>
+        <v>1.33870897882745</v>
       </c>
       <c r="K5">
-        <v>1.3098978115206299</v>
+        <v>1.3111503985425701</v>
       </c>
       <c r="L5">
-        <v>1.3023401581865099</v>
+        <v>1.3061860114066699</v>
       </c>
       <c r="M5">
         <v>0.99268754503299195</v>
@@ -826,34 +830,34 @@
         <v>0.99268754503299195</v>
       </c>
       <c r="O5">
-        <v>0.97817819158574204</v>
+        <v>0.97870623415563696</v>
       </c>
       <c r="P5">
         <v>0.98029370390953297</v>
       </c>
       <c r="Q5">
-        <v>0.98019539766638697</v>
+        <v>0.980272695316457</v>
       </c>
       <c r="R5">
-        <v>0.98191390234590403</v>
+        <v>0.98171601559841104</v>
       </c>
       <c r="S5">
-        <v>1.1213665850091901</v>
+        <v>1.1185560252789299</v>
       </c>
       <c r="T5">
-        <v>1.1213665850091901</v>
+        <v>1.1185560252789299</v>
       </c>
       <c r="U5">
-        <v>1.0713534929863699</v>
+        <v>1.06458396385289</v>
       </c>
       <c r="V5">
-        <v>1.10958322064113</v>
+        <v>1.1104765374213299</v>
       </c>
       <c r="W5">
-        <v>1.0889616031603899</v>
+        <v>1.0872264260581099</v>
       </c>
       <c r="X5">
-        <v>1.0883596170000001</v>
+        <v>1.0858424</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -864,34 +868,34 @@
         <v>1.10298220375928</v>
       </c>
       <c r="C6">
-        <v>1.04595664149653</v>
+        <v>1.0473825101399099</v>
       </c>
       <c r="D6">
         <v>1.0631157006352501</v>
       </c>
       <c r="E6">
-        <v>1.05719456257653</v>
+        <v>1.0574668243087999</v>
       </c>
       <c r="F6">
-        <v>1.0691536780147199</v>
+        <v>1.06954235063903</v>
       </c>
       <c r="G6">
-        <v>1.25945574891673</v>
+        <v>1.25798072922197</v>
       </c>
       <c r="H6">
-        <v>1.25945574891673</v>
+        <v>1.25798072922197</v>
       </c>
       <c r="I6">
-        <v>1.1444353048340099</v>
+        <v>1.1480665678472199</v>
       </c>
       <c r="J6">
-        <v>1.2084642183854899</v>
+        <v>1.20711352864934</v>
       </c>
       <c r="K6">
-        <v>1.18000807780221</v>
+        <v>1.1819328571660199</v>
       </c>
       <c r="L6">
-        <v>1.1751770022031101</v>
+        <v>1.17756060348402</v>
       </c>
       <c r="M6">
         <v>0.97681274403700802</v>
@@ -900,34 +904,34 @@
         <v>0.97681274403700802</v>
       </c>
       <c r="O6">
-        <v>0.963244366973113</v>
+        <v>0.96371893253707397</v>
       </c>
       <c r="P6">
         <v>0.96583420724526803</v>
       </c>
       <c r="Q6">
-        <v>0.965024466086841</v>
+        <v>0.965381250091632</v>
       </c>
       <c r="R6">
-        <v>0.96707259068465401</v>
+        <v>0.96700961270352404</v>
       </c>
       <c r="S6">
-        <v>1.0355116164137701</v>
+        <v>1.03364342618594</v>
       </c>
       <c r="T6">
-        <v>1.0355116164137701</v>
+        <v>1.03364342618594</v>
       </c>
       <c r="U6">
-        <v>0.99408036013092804</v>
+        <v>0.99106772433020796</v>
       </c>
       <c r="V6">
-        <v>1.0230191971734099</v>
+        <v>1.0221204303392699</v>
       </c>
       <c r="W6">
-        <v>1.00612159757131</v>
+        <v>1.00511114349773</v>
       </c>
       <c r="X6">
-        <v>1.0047919860000001</v>
+        <v>1.0036364390000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -938,34 +942,34 @@
         <v>1.1310468046245701</v>
       </c>
       <c r="C7">
-        <v>1.06363153630047</v>
+        <v>1.06298464642882</v>
       </c>
       <c r="D7">
         <v>1.0796445795006899</v>
       </c>
       <c r="E7">
-        <v>1.07680445325041</v>
+        <v>1.0764267564360801</v>
       </c>
       <c r="F7">
-        <v>1.0830518553887001</v>
+        <v>1.08433352016721</v>
       </c>
       <c r="G7">
-        <v>1.3256934445636599</v>
+        <v>1.3231418223401401</v>
       </c>
       <c r="H7">
-        <v>1.3256934445636599</v>
+        <v>1.3231418223401401</v>
       </c>
       <c r="I7">
-        <v>1.19597825549667</v>
+        <v>1.19600292934949</v>
       </c>
       <c r="J7">
-        <v>1.2680955327468599</v>
+        <v>1.2700737471533201</v>
       </c>
       <c r="K7">
-        <v>1.24326242273521</v>
+        <v>1.24773854969495</v>
       </c>
       <c r="L7">
-        <v>1.2414738780852801</v>
+        <v>1.2408884795077499</v>
       </c>
       <c r="M7">
         <v>0.98885069341476295</v>
@@ -974,34 +978,34 @@
         <v>0.98885069341476295</v>
       </c>
       <c r="O7">
-        <v>0.97348937576667804</v>
+        <v>0.97316896699824895</v>
       </c>
       <c r="P7">
         <v>0.97381979767411597</v>
       </c>
       <c r="Q7">
-        <v>0.97496821257794197</v>
+        <v>0.97499751586096395</v>
       </c>
       <c r="R7">
-        <v>0.97586190621521296</v>
+        <v>0.97507352695412497</v>
       </c>
       <c r="S7">
-        <v>1.1432139267966901</v>
+        <v>1.1395787473391501</v>
       </c>
       <c r="T7">
-        <v>1.1432139267966901</v>
+        <v>1.1395787473391501</v>
       </c>
       <c r="U7">
-        <v>1.0683451451628401</v>
+        <v>1.0543751670316499</v>
       </c>
       <c r="V7">
-        <v>1.12212999331388</v>
+        <v>1.1210904413671801</v>
       </c>
       <c r="W7">
-        <v>1.1014860570107901</v>
+        <v>1.09744552521128</v>
       </c>
       <c r="X7">
-        <v>1.1004435349999999</v>
+        <v>1.093872961</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -1012,34 +1016,34 @@
         <v>1.1102528079577401</v>
       </c>
       <c r="C8">
-        <v>1.04957659445075</v>
+        <v>1.0500259326299299</v>
       </c>
       <c r="D8">
         <v>1.0665516560003101</v>
       </c>
       <c r="E8">
-        <v>1.0601296138990499</v>
+        <v>1.06003184867389</v>
       </c>
       <c r="F8">
-        <v>1.07024280260071</v>
+        <v>1.07149601655447</v>
       </c>
       <c r="G8">
-        <v>1.4032368416363701</v>
+        <v>1.4088014289564099</v>
       </c>
       <c r="H8">
-        <v>1.4032368416363701</v>
+        <v>1.4088014289564099</v>
       </c>
       <c r="I8">
-        <v>1.2548972459939001</v>
+        <v>1.2623633387272</v>
       </c>
       <c r="J8">
-        <v>1.34320475042385</v>
+        <v>1.3515510853109101</v>
       </c>
       <c r="K8">
-        <v>1.3146299206301499</v>
+        <v>1.3255052423374001</v>
       </c>
       <c r="L8">
-        <v>1.2874822372264501</v>
+        <v>1.29654415269353</v>
       </c>
       <c r="M8">
         <v>0.98439367204170403</v>
@@ -1048,34 +1052,34 @@
         <v>0.98439367204170403</v>
       </c>
       <c r="O8">
-        <v>0.969384071697452</v>
+        <v>0.96972688448367494</v>
       </c>
       <c r="P8">
         <v>0.97117995962221104</v>
       </c>
       <c r="Q8">
-        <v>0.97020929957341895</v>
+        <v>0.97028140487246395</v>
       </c>
       <c r="R8">
-        <v>0.97176720447766496</v>
+        <v>0.97085641166889403</v>
       </c>
       <c r="S8">
-        <v>1.19224906246327</v>
+        <v>1.19990768860436</v>
       </c>
       <c r="T8">
-        <v>1.19224906246327</v>
+        <v>1.19990768860436</v>
       </c>
       <c r="U8">
-        <v>1.0982211396211099</v>
+        <v>1.0945739527993701</v>
       </c>
       <c r="V8">
-        <v>1.1772326006429401</v>
+        <v>1.18979305152687</v>
       </c>
       <c r="W8">
-        <v>1.1458026687954901</v>
+        <v>1.15372144365282</v>
       </c>
       <c r="X8">
-        <v>1.1303255999999999</v>
+        <v>1.1365495699999999</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -1086,34 +1090,34 @@
         <v>1.12748615056197</v>
       </c>
       <c r="C9">
-        <v>1.0659176175724201</v>
+        <v>1.0671119849602799</v>
       </c>
       <c r="D9">
         <v>1.0831409508829799</v>
       </c>
       <c r="E9">
-        <v>1.07525844051231</v>
+        <v>1.0755254670901599</v>
       </c>
       <c r="F9">
-        <v>1.0858531796464099</v>
+        <v>1.08696904427184</v>
       </c>
       <c r="G9">
-        <v>1.37925698765224</v>
+        <v>1.3786114427723799</v>
       </c>
       <c r="H9">
-        <v>1.37925698765224</v>
+        <v>1.3786114427723799</v>
       </c>
       <c r="I9">
-        <v>1.2314049199441299</v>
+        <v>1.23525662879083</v>
       </c>
       <c r="J9">
-        <v>1.3159207497871199</v>
+        <v>1.31605442833937</v>
       </c>
       <c r="K9">
-        <v>1.2868418881274399</v>
+        <v>1.29091610607869</v>
       </c>
       <c r="L9">
-        <v>1.26608610745223</v>
+        <v>1.26906902933386</v>
       </c>
       <c r="M9">
         <v>0.98503880178444003</v>
@@ -1122,34 +1126,34 @@
         <v>0.98503880178444003</v>
       </c>
       <c r="O9">
-        <v>0.97149196844582597</v>
+        <v>0.97182514293754296</v>
       </c>
       <c r="P9">
         <v>0.97356034049586904</v>
       </c>
       <c r="Q9">
-        <v>0.97273862290699697</v>
+        <v>0.97286841518869804</v>
       </c>
       <c r="R9">
-        <v>0.97408978890725995</v>
+        <v>0.97380491176887296</v>
       </c>
       <c r="S9">
-        <v>1.13126901501471</v>
+        <v>1.1328462263632599</v>
       </c>
       <c r="T9">
-        <v>1.13126901501471</v>
+        <v>1.1328462263632599</v>
       </c>
       <c r="U9">
-        <v>1.0546895310470601</v>
+        <v>1.0466568506382701</v>
       </c>
       <c r="V9">
-        <v>1.1130623120508401</v>
+        <v>1.11858218624263</v>
       </c>
       <c r="W9">
-        <v>1.0881821401499301</v>
+        <v>1.08928823830111</v>
       </c>
       <c r="X9">
-        <v>1.079638259</v>
+        <v>1.0776305319999999</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -1160,34 +1164,34 @@
         <v>1.1068320055591401</v>
       </c>
       <c r="C10">
-        <v>1.0534352032883201</v>
+        <v>1.0537334472890001</v>
       </c>
       <c r="D10">
         <v>1.0679874965070499</v>
       </c>
       <c r="E10">
-        <v>1.0582506853253799</v>
+        <v>1.0580144012802399</v>
       </c>
       <c r="F10">
-        <v>1.06357188320672</v>
+        <v>1.0644060392499599</v>
       </c>
       <c r="G10">
-        <v>1.2108232161250401</v>
+        <v>1.2137241051243199</v>
       </c>
       <c r="H10">
-        <v>1.2108232161250401</v>
+        <v>1.2137241051243199</v>
       </c>
       <c r="I10">
-        <v>1.1131817494279299</v>
+        <v>1.11865264416803</v>
       </c>
       <c r="J10">
-        <v>1.16026899519306</v>
+        <v>1.1647661178247199</v>
       </c>
       <c r="K10">
-        <v>1.1267730625615799</v>
+        <v>1.1336150212687399</v>
       </c>
       <c r="L10">
-        <v>1.1256508691386999</v>
+        <v>1.12804172764094</v>
       </c>
       <c r="M10">
         <v>0.97731767650213097</v>
@@ -1196,34 +1200,34 @@
         <v>0.97731767650213097</v>
       </c>
       <c r="O10">
-        <v>0.964391686590789</v>
+        <v>0.96407888381998796</v>
       </c>
       <c r="P10">
         <v>0.96572367882042898</v>
       </c>
       <c r="Q10">
-        <v>0.96509913654287505</v>
+        <v>0.96501795929183498</v>
       </c>
       <c r="R10">
-        <v>0.96554479941816196</v>
+        <v>0.96563215543182801</v>
       </c>
       <c r="S10">
-        <v>1.0181047654692199</v>
+        <v>1.02164289228511</v>
       </c>
       <c r="T10">
-        <v>1.0181047654692199</v>
+        <v>1.02164289228511</v>
       </c>
       <c r="U10">
-        <v>0.99138006691977598</v>
+        <v>0.98959203278734698</v>
       </c>
       <c r="V10">
-        <v>1.0020978388894199</v>
+        <v>1.0073317305277301</v>
       </c>
       <c r="W10">
-        <v>0.99252582935635603</v>
+        <v>0.995462020497769</v>
       </c>
       <c r="X10">
-        <v>0.99477850800000001</v>
+        <v>0.99609525399999999</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -1234,34 +1238,34 @@
         <v>1.13982772589753</v>
       </c>
       <c r="C11">
-        <v>1.07907788960073</v>
+        <v>1.08061668728555</v>
       </c>
       <c r="D11">
         <v>1.0970641719170899</v>
       </c>
       <c r="E11">
-        <v>1.0901775440097501</v>
+        <v>1.0906725096111101</v>
       </c>
       <c r="F11">
-        <v>1.0958237921418801</v>
+        <v>1.09713840795412</v>
       </c>
       <c r="G11">
-        <v>1.2098367279015401</v>
+        <v>1.2054088883854399</v>
       </c>
       <c r="H11">
-        <v>1.2098367279015401</v>
+        <v>1.2054088883854399</v>
       </c>
       <c r="I11">
-        <v>1.12813962661927</v>
+        <v>1.1208899387317699</v>
       </c>
       <c r="J11">
-        <v>1.1670787373890401</v>
+        <v>1.1653059905301899</v>
       </c>
       <c r="K11">
-        <v>1.14064066848903</v>
+        <v>1.13723945375791</v>
       </c>
       <c r="L11">
-        <v>1.1473621652266299</v>
+        <v>1.1422825492444999</v>
       </c>
       <c r="M11">
         <v>0.99349330537375402</v>
@@ -1270,34 +1274,34 @@
         <v>0.99349330537375402</v>
       </c>
       <c r="O11">
-        <v>0.977649371610955</v>
+        <v>0.97875282029078903</v>
       </c>
       <c r="P11">
         <v>0.98074649774144795</v>
       </c>
       <c r="Q11">
-        <v>0.97903924315912105</v>
+        <v>0.97955448787091104</v>
       </c>
       <c r="R11">
-        <v>0.98028458266806395</v>
+        <v>0.97970392387107297</v>
       </c>
       <c r="S11">
-        <v>1.02370121019611</v>
+        <v>1.0218676039418999</v>
       </c>
       <c r="T11">
-        <v>1.02370121019611</v>
+        <v>1.0218676039418999</v>
       </c>
       <c r="U11">
-        <v>1.0018713764424501</v>
+        <v>0.99556067398581105</v>
       </c>
       <c r="V11">
-        <v>1.0113962631836599</v>
+        <v>1.0111326377256999</v>
       </c>
       <c r="W11">
-        <v>1.0000306216473001</v>
+        <v>0.99828566795810303</v>
       </c>
       <c r="X11">
-        <v>1.0031345410000001</v>
+        <v>1.00049229</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -1308,34 +1312,34 @@
         <v>1.1064089949856</v>
       </c>
       <c r="C12">
-        <v>1.0529585079195001</v>
+        <v>1.05356878352843</v>
       </c>
       <c r="D12">
         <v>1.0681911619219899</v>
       </c>
       <c r="E12">
-        <v>1.0577894213163901</v>
+        <v>1.05775762223862</v>
       </c>
       <c r="F12">
-        <v>1.06047979475976</v>
+        <v>1.0609323013274801</v>
       </c>
       <c r="G12">
-        <v>1.2708107095533501</v>
+        <v>1.2671759028215901</v>
       </c>
       <c r="H12">
-        <v>1.2708107095533501</v>
+        <v>1.2671759028215901</v>
       </c>
       <c r="I12">
-        <v>1.1593673217412701</v>
+        <v>1.15586054855858</v>
       </c>
       <c r="J12">
-        <v>1.2167253611514199</v>
+        <v>1.21490108612697</v>
       </c>
       <c r="K12">
-        <v>1.1871906905809799</v>
+        <v>1.18708156773433</v>
       </c>
       <c r="L12">
-        <v>1.1838353220853799</v>
+        <v>1.18090872386478</v>
       </c>
       <c r="M12">
         <v>0.96620489095360396</v>
@@ -1344,34 +1348,34 @@
         <v>0.96620489095360396</v>
       </c>
       <c r="O12">
-        <v>0.95500576433425099</v>
+        <v>0.95555017535944797</v>
       </c>
       <c r="P12">
         <v>0.95739200308178296</v>
       </c>
       <c r="Q12">
-        <v>0.95456010560150495</v>
+        <v>0.95478385389105502</v>
       </c>
       <c r="R12">
-        <v>0.95513536335955995</v>
+        <v>0.954960784086198</v>
       </c>
       <c r="S12">
-        <v>1.0346928229774099</v>
+        <v>1.03227383262925</v>
       </c>
       <c r="T12">
-        <v>1.0346928229774099</v>
+        <v>1.03227383262925</v>
       </c>
       <c r="U12">
-        <v>0.99434827867188003</v>
+        <v>0.98742633180950601</v>
       </c>
       <c r="V12">
-        <v>1.01872039084254</v>
+        <v>1.0186127629289601</v>
       </c>
       <c r="W12">
-        <v>1.00521201645275</v>
+        <v>1.0028843789534601</v>
       </c>
       <c r="X12">
-        <v>1.0056521549999999</v>
+        <v>1.001026282</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -1382,34 +1386,34 @@
         <v>1.09798591235919</v>
       </c>
       <c r="C13">
-        <v>1.04973254130834</v>
+        <v>1.0511633517572301</v>
       </c>
       <c r="D13">
         <v>1.0656863665107901</v>
       </c>
       <c r="E13">
-        <v>1.0543858003562301</v>
+        <v>1.0552685593033799</v>
       </c>
       <c r="F13">
-        <v>1.0641293859409</v>
+        <v>1.0639423332681901</v>
       </c>
       <c r="G13">
-        <v>1.24988705509263</v>
+        <v>1.2474852838319099</v>
       </c>
       <c r="H13">
-        <v>1.24988705509263</v>
+        <v>1.2474852838319099</v>
       </c>
       <c r="I13">
-        <v>1.14874010374587</v>
+        <v>1.1508484154356999</v>
       </c>
       <c r="J13">
-        <v>1.20417388718593</v>
+        <v>1.20380751766622</v>
       </c>
       <c r="K13">
-        <v>1.1693667633487099</v>
+        <v>1.1729486386008401</v>
       </c>
       <c r="L13">
-        <v>1.1632299627370299</v>
+        <v>1.16382277973642</v>
       </c>
       <c r="M13">
         <v>0.96604397612305104</v>
@@ -1418,34 +1422,34 @@
         <v>0.96604397612305104</v>
       </c>
       <c r="O13">
-        <v>0.95994142017776496</v>
+        <v>0.96031962090707002</v>
       </c>
       <c r="P13">
         <v>0.96201300837937398</v>
       </c>
       <c r="Q13">
-        <v>0.96065678441465097</v>
+        <v>0.960934942003555</v>
       </c>
       <c r="R13">
-        <v>0.96163050471932499</v>
+        <v>0.96113670670988105</v>
       </c>
       <c r="S13">
-        <v>1.02855296224445</v>
+        <v>1.02560299852718</v>
       </c>
       <c r="T13">
-        <v>1.02855296224445</v>
+        <v>1.02560299852718</v>
       </c>
       <c r="U13">
-        <v>1.00012128059165</v>
+        <v>0.99415367476927696</v>
       </c>
       <c r="V13">
-        <v>1.0213197167447201</v>
+        <v>1.02020950828251</v>
       </c>
       <c r="W13">
-        <v>1.0080752708223399</v>
+        <v>1.00619458555068</v>
       </c>
       <c r="X13">
-        <v>1.0061733909999999</v>
+        <v>1.0028236669999999</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -1456,34 +1460,34 @@
         <v>1.1085312199275901</v>
       </c>
       <c r="C14">
-        <v>1.04961290363684</v>
+        <v>1.0501865426691599</v>
       </c>
       <c r="D14">
         <v>1.06565710126502</v>
       </c>
       <c r="E14">
-        <v>1.0581914091478799</v>
+        <v>1.0581314998364699</v>
       </c>
       <c r="F14">
-        <v>1.06595380571326</v>
+        <v>1.06717869161321</v>
       </c>
       <c r="G14">
-        <v>1.1900308648160201</v>
+        <v>1.18670504519843</v>
       </c>
       <c r="H14">
-        <v>1.1900308648160201</v>
+        <v>1.18670504519843</v>
       </c>
       <c r="I14">
-        <v>1.1004669642745799</v>
+        <v>1.10020232774719</v>
       </c>
       <c r="J14">
-        <v>1.1496944039635799</v>
+        <v>1.1479088125244199</v>
       </c>
       <c r="K14">
-        <v>1.11755339000869</v>
+        <v>1.1179300592617001</v>
       </c>
       <c r="L14">
-        <v>1.1223815335654399</v>
+        <v>1.12102192379145</v>
       </c>
       <c r="M14">
         <v>0.96538001113851202</v>
@@ -1492,34 +1496,34 @@
         <v>0.96538001113851202</v>
       </c>
       <c r="O14">
-        <v>0.95399354896438804</v>
+        <v>0.95440808055837101</v>
       </c>
       <c r="P14">
         <v>0.95597318428112199</v>
       </c>
       <c r="Q14">
-        <v>0.95496345158850104</v>
+        <v>0.95512609110997004</v>
       </c>
       <c r="R14">
-        <v>0.956183179274262</v>
+        <v>0.95542125036627101</v>
       </c>
       <c r="S14">
-        <v>1.0116103640426</v>
+        <v>1.0071491589147501</v>
       </c>
       <c r="T14">
-        <v>1.0116103640426</v>
+        <v>1.0071491589147501</v>
       </c>
       <c r="U14">
-        <v>0.98720833084337101</v>
+        <v>0.97992240890706395</v>
       </c>
       <c r="V14">
-        <v>1.00641055415238</v>
+        <v>1.0052131100152699</v>
       </c>
       <c r="W14">
-        <v>0.99175772379415095</v>
+        <v>0.98884752288840705</v>
       </c>
       <c r="X14">
-        <v>0.99335336200000002</v>
+        <v>0.98923227300000005</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -1530,34 +1534,34 @@
         <v>1.1250715783159799</v>
       </c>
       <c r="C15">
-        <v>1.06351948040075</v>
+        <v>1.0649531530009699</v>
       </c>
       <c r="D15">
         <v>1.08115256944739</v>
       </c>
       <c r="E15">
-        <v>1.0759966040026701</v>
+        <v>1.07643934187441</v>
       </c>
       <c r="F15">
-        <v>1.0860869286027499</v>
+        <v>1.08711372071482</v>
       </c>
       <c r="G15">
-        <v>1.29071071230482</v>
+        <v>1.2889551713030201</v>
       </c>
       <c r="H15">
-        <v>1.29071071230482</v>
+        <v>1.2889551713030201</v>
       </c>
       <c r="I15">
-        <v>1.1771631647503</v>
+        <v>1.17876929539577</v>
       </c>
       <c r="J15">
-        <v>1.24234979323147</v>
+        <v>1.2437337150611401</v>
       </c>
       <c r="K15">
-        <v>1.21282102402234</v>
+        <v>1.21563582675926</v>
       </c>
       <c r="L15">
-        <v>1.2074473427449599</v>
+        <v>1.2102464639405499</v>
       </c>
       <c r="M15">
         <v>0.98846448890295402</v>
@@ -1566,34 +1570,34 @@
         <v>0.98846448890295402</v>
       </c>
       <c r="O15">
-        <v>0.97569052503172304</v>
+        <v>0.97700308039363104</v>
       </c>
       <c r="P15">
         <v>0.97722255773037703</v>
       </c>
       <c r="Q15">
-        <v>0.97639251324533505</v>
+        <v>0.97687251820059595</v>
       </c>
       <c r="R15">
-        <v>0.977815784446734</v>
+        <v>0.97740555438599097</v>
       </c>
       <c r="S15">
-        <v>1.0652720908700699</v>
+        <v>1.0649366835531999</v>
       </c>
       <c r="T15">
-        <v>1.0652720908700699</v>
+        <v>1.0649366835531999</v>
       </c>
       <c r="U15">
-        <v>1.0216465998164099</v>
+        <v>1.0188319177985701</v>
       </c>
       <c r="V15">
-        <v>1.0578938295957101</v>
+        <v>1.0613531709497701</v>
       </c>
       <c r="W15">
-        <v>1.0355221370400201</v>
+        <v>1.03680792312058</v>
       </c>
       <c r="X15">
-        <v>1.0338552009999999</v>
+        <v>1.034928667</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -1604,34 +1608,34 @@
         <v>1.1246355915435799</v>
       </c>
       <c r="C16">
-        <v>1.06555012949454</v>
+        <v>1.0676924015496101</v>
       </c>
       <c r="D16">
         <v>1.0853834570535099</v>
       </c>
       <c r="E16">
-        <v>1.0776941403779701</v>
+        <v>1.07821717304986</v>
       </c>
       <c r="F16">
-        <v>1.08328726113524</v>
+        <v>1.0846849696363501</v>
       </c>
       <c r="G16">
-        <v>1.2750744668854399</v>
+        <v>1.27383798565832</v>
       </c>
       <c r="H16">
-        <v>1.2750744668854399</v>
+        <v>1.27383798565832</v>
       </c>
       <c r="I16">
-        <v>1.1635746107157701</v>
+        <v>1.16525641766302</v>
       </c>
       <c r="J16">
-        <v>1.2276919364761301</v>
+        <v>1.22894429883269</v>
       </c>
       <c r="K16">
-        <v>1.19917007523041</v>
+        <v>1.2023931479586201</v>
       </c>
       <c r="L16">
-        <v>1.2009590192724899</v>
+        <v>1.2033182168957699</v>
       </c>
       <c r="M16">
         <v>0.97073015780035898</v>
@@ -1640,34 +1644,34 @@
         <v>0.97073015780035898</v>
       </c>
       <c r="O16">
-        <v>0.96174103604308003</v>
+        <v>0.96379168559205097</v>
       </c>
       <c r="P16">
         <v>0.96566624911804</v>
       </c>
       <c r="Q16">
-        <v>0.96250051665005198</v>
+        <v>0.963064604778747</v>
       </c>
       <c r="R16">
-        <v>0.963995805340226</v>
+        <v>0.96357671607516704</v>
       </c>
       <c r="S16">
-        <v>1.04727094841256</v>
+        <v>1.0449670073711499</v>
       </c>
       <c r="T16">
-        <v>1.04727094841256</v>
+        <v>1.0449670073711499</v>
       </c>
       <c r="U16">
-        <v>1.0092256236553601</v>
+        <v>1.00009883136795</v>
       </c>
       <c r="V16">
-        <v>1.0349112713789801</v>
+        <v>1.03649976138024</v>
       </c>
       <c r="W16">
-        <v>1.0190563036520299</v>
+        <v>1.01695668168714</v>
       </c>
       <c r="X16">
-        <v>1.02132128</v>
+        <v>1.017856887</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -1678,34 +1682,34 @@
         <v>1.1747040255922101</v>
       </c>
       <c r="C17">
-        <v>1.1206611144944201</v>
+        <v>1.1204187036414299</v>
       </c>
       <c r="D17">
         <v>1.1370051598926101</v>
       </c>
       <c r="E17">
-        <v>1.12361968860981</v>
+        <v>1.1234675945380199</v>
       </c>
       <c r="F17">
-        <v>1.1303750624101001</v>
+        <v>1.1308822683990301</v>
       </c>
       <c r="G17">
-        <v>1.41991947130622</v>
+        <v>1.41371078616885</v>
       </c>
       <c r="H17">
-        <v>1.41991947130622</v>
+        <v>1.41371078616885</v>
       </c>
       <c r="I17">
-        <v>1.2760878222810701</v>
+        <v>1.28174463468516</v>
       </c>
       <c r="J17">
-        <v>1.3724236674036401</v>
+        <v>1.3722937375789299</v>
       </c>
       <c r="K17">
-        <v>1.32368286259465</v>
+        <v>1.3261140421109801</v>
       </c>
       <c r="L17">
-        <v>1.2885579299665599</v>
+        <v>1.29133221708677</v>
       </c>
       <c r="M17">
         <v>0.96917801516702295</v>
@@ -1714,34 +1718,34 @@
         <v>0.96917801516702295</v>
       </c>
       <c r="O17">
-        <v>0.96411821932061204</v>
+        <v>0.96520914358045495</v>
       </c>
       <c r="P17">
         <v>0.96636820438278004</v>
       </c>
       <c r="Q17">
-        <v>0.96192280682696896</v>
+        <v>0.96226862073365205</v>
       </c>
       <c r="R17">
-        <v>0.96372542756716195</v>
+        <v>0.96313690426097398</v>
       </c>
       <c r="S17">
-        <v>1.0850373167026901</v>
+        <v>1.0810746885962601</v>
       </c>
       <c r="T17">
-        <v>1.0850373167026901</v>
+        <v>1.0810746885962601</v>
       </c>
       <c r="U17">
-        <v>1.02530281440197</v>
+        <v>1.0196035707179101</v>
       </c>
       <c r="V17">
-        <v>1.0725262808371301</v>
+        <v>1.0737691862336001</v>
       </c>
       <c r="W17">
-        <v>1.04542191532019</v>
+        <v>1.04422054329004</v>
       </c>
       <c r="X17">
-        <v>1.037867313</v>
+        <v>1.0329119280000001</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -1752,34 +1756,34 @@
         <v>1.1096856996119899</v>
       </c>
       <c r="C18">
-        <v>1.0481056496177501</v>
+        <v>1.0484429101092601</v>
       </c>
       <c r="D18">
         <v>1.06516710249362</v>
       </c>
       <c r="E18">
-        <v>1.0598713247929401</v>
+        <v>1.05972038846431</v>
       </c>
       <c r="F18">
-        <v>1.06434754356865</v>
+        <v>1.0655927348784799</v>
       </c>
       <c r="G18">
-        <v>1.34152232039103</v>
+        <v>1.34471364179568</v>
       </c>
       <c r="H18">
-        <v>1.34152232039103</v>
+        <v>1.34471364179568</v>
       </c>
       <c r="I18">
-        <v>1.2043245418213899</v>
+        <v>1.2064206688882899</v>
       </c>
       <c r="J18">
-        <v>1.2793532856824399</v>
+        <v>1.28426970958138</v>
       </c>
       <c r="K18">
-        <v>1.25395148527105</v>
+        <v>1.26135992419802</v>
       </c>
       <c r="L18">
-        <v>1.24063949878386</v>
+        <v>1.24143442367316</v>
       </c>
       <c r="M18">
         <v>0.96893137381467698</v>
@@ -1788,34 +1792,34 @@
         <v>0.96893137381467698</v>
       </c>
       <c r="O18">
-        <v>0.95811582858752897</v>
+        <v>0.957955076057174</v>
       </c>
       <c r="P18">
         <v>0.95911687172236604</v>
       </c>
       <c r="Q18">
-        <v>0.95851982574354799</v>
+        <v>0.95841937853482695</v>
       </c>
       <c r="R18">
-        <v>0.95888536738275298</v>
+        <v>0.95795254694231402</v>
       </c>
       <c r="S18">
-        <v>1.1258433722572301</v>
+        <v>1.1243745026284</v>
       </c>
       <c r="T18">
-        <v>1.1258433722572301</v>
+        <v>1.1243745026284</v>
       </c>
       <c r="U18">
-        <v>1.0568967371803699</v>
+        <v>1.04298147522607</v>
       </c>
       <c r="V18">
-        <v>1.1116716900624799</v>
+        <v>1.1138903938957201</v>
       </c>
       <c r="W18">
-        <v>1.08828846226604</v>
+        <v>1.08559607679652</v>
       </c>
       <c r="X18">
-        <v>1.0855931750000001</v>
+        <v>1.076662292</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -1826,34 +1830,34 @@
         <v>1.05847569526477</v>
       </c>
       <c r="C19">
-        <v>1.03395996085315</v>
+        <v>1.02454275432421</v>
       </c>
       <c r="D19">
-        <v>1.05847569526477</v>
+        <v>1.03842371449485</v>
       </c>
       <c r="E19">
-        <v>1.0356579800155901</v>
+        <v>1.02683257947967</v>
       </c>
       <c r="F19">
-        <v>1.04095150019445</v>
+        <v>1.0268710903567599</v>
       </c>
       <c r="G19">
-        <v>1.0586208047057399</v>
+        <v>1.0559900760171901</v>
       </c>
       <c r="H19">
-        <v>1.0586208047057399</v>
+        <v>1.0559900760171901</v>
       </c>
       <c r="I19">
-        <v>1.0645947918991501</v>
+        <v>1.06794418582008</v>
       </c>
       <c r="J19">
-        <v>1.05844940978408</v>
+        <v>1.0548009871063999</v>
       </c>
       <c r="K19">
-        <v>1.07727056457475</v>
+        <v>1.0878345657680899</v>
       </c>
       <c r="L19">
-        <v>1.04764280026638</v>
+        <v>1.0471935274149899</v>
       </c>
       <c r="M19">
         <v>0.98042474136133595</v>
@@ -1862,478 +1866,478 @@
         <v>0.98042474136133595</v>
       </c>
       <c r="O19">
-        <v>0.96861008072863697</v>
+        <v>0.96822704659435399</v>
       </c>
       <c r="P19">
-        <v>0.98042474136133695</v>
+        <v>0.97271006107232505</v>
       </c>
       <c r="Q19">
-        <v>0.97028165628991203</v>
+        <v>0.96893842467300695</v>
       </c>
       <c r="R19">
-        <v>0.973647833133369</v>
+        <v>0.96966843210869402</v>
       </c>
       <c r="S19">
-        <v>0.98949119501496796</v>
+        <v>0.98784091870039903</v>
       </c>
       <c r="T19">
-        <v>0.98949119501496796</v>
+        <v>0.98784091870039903</v>
       </c>
       <c r="U19">
-        <v>1.0058563907839899</v>
+        <v>1.00864416797191</v>
       </c>
       <c r="V19">
-        <v>0.98974573728952298</v>
+        <v>0.98836729907846299</v>
       </c>
       <c r="W19">
-        <v>1.0065600897470599</v>
+        <v>1.01143708927161</v>
       </c>
       <c r="X19">
-        <v>0.98664860300000001</v>
+        <v>0.98499073100000001</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1.05847569526477</v>
+        <v>1.036494622944</v>
       </c>
       <c r="B20">
-        <v>1.05847569526477</v>
+        <v>1.036494622944</v>
       </c>
       <c r="C20">
-        <v>1.03395996085315</v>
+        <v>0.99861219709316995</v>
       </c>
       <c r="D20">
-        <v>1.05847569526477</v>
+        <v>1.0132408971748399</v>
       </c>
       <c r="E20">
-        <v>1.0356579800155901</v>
+        <v>1.00462889210801</v>
       </c>
       <c r="F20">
-        <v>1.04095150019445</v>
+        <v>1.00299934234933</v>
       </c>
       <c r="G20">
-        <v>1.0586208047057399</v>
+        <v>1.0349304275117901</v>
       </c>
       <c r="H20">
-        <v>1.0586208047057399</v>
+        <v>1.0349304275117901</v>
       </c>
       <c r="I20">
-        <v>1.0645947918991501</v>
+        <v>1.0566470618602699</v>
       </c>
       <c r="J20">
-        <v>1.05844940978408</v>
+        <v>1.0346796269015099</v>
       </c>
       <c r="K20">
-        <v>1.07727056457475</v>
+        <v>1.0661979515720399</v>
       </c>
       <c r="L20">
-        <v>1.04764280026638</v>
+        <v>1.0267343514343401</v>
       </c>
       <c r="M20">
-        <v>0.98042474136133595</v>
+        <v>0.964761153072763</v>
       </c>
       <c r="N20">
-        <v>0.98042474136133595</v>
+        <v>0.964761153072763</v>
       </c>
       <c r="O20">
-        <v>0.96861008072863697</v>
+        <v>0.95298780909650405</v>
       </c>
       <c r="P20">
-        <v>0.98042474136133695</v>
+        <v>0.95726629690238396</v>
       </c>
       <c r="Q20">
-        <v>0.97028165628991203</v>
+        <v>0.955402695010374</v>
       </c>
       <c r="R20">
-        <v>0.973647833133369</v>
+        <v>0.95511731053193205</v>
       </c>
       <c r="S20">
-        <v>0.98949119501496796</v>
+        <v>0.979765269632078</v>
       </c>
       <c r="T20">
-        <v>0.98949119501496796</v>
+        <v>0.979765269632078</v>
       </c>
       <c r="U20">
-        <v>1.0058563907839899</v>
+        <v>1.0122135631837501</v>
       </c>
       <c r="V20">
-        <v>0.98974573728952298</v>
+        <v>0.98568613670637695</v>
       </c>
       <c r="W20">
-        <v>1.0065600897470599</v>
+        <v>1.0041894714016899</v>
       </c>
       <c r="X20">
-        <v>0.98664860300000001</v>
+        <v>0.97745962600000003</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1.05847569526477</v>
+        <v>1.0243179818314001</v>
       </c>
       <c r="B21">
-        <v>1.05847569526477</v>
+        <v>1.0243179818314001</v>
       </c>
       <c r="C21">
-        <v>1.03395996085315</v>
+        <v>0.99585139632013997</v>
       </c>
       <c r="D21">
-        <v>1.05847569526477</v>
+        <v>1.0058736769070999</v>
       </c>
       <c r="E21">
-        <v>1.0356579800155901</v>
+        <v>0.99774624180152005</v>
       </c>
       <c r="F21">
-        <v>1.04095150019445</v>
+        <v>0.99822947548749896</v>
       </c>
       <c r="G21">
-        <v>1.0586208047057399</v>
+        <v>1.02661379131249</v>
       </c>
       <c r="H21">
-        <v>1.0586208047057399</v>
+        <v>1.02661379131249</v>
       </c>
       <c r="I21">
-        <v>1.0645947918991501</v>
+        <v>1.02698857497148</v>
       </c>
       <c r="J21">
-        <v>1.05844940978408</v>
+        <v>1.0192546261314199</v>
       </c>
       <c r="K21">
-        <v>1.07727056457475</v>
+        <v>1.04492900504417</v>
       </c>
       <c r="L21">
-        <v>1.04764280026638</v>
+        <v>1.01493029894687</v>
       </c>
       <c r="M21">
-        <v>0.98042474136133595</v>
+        <v>0.96086847473709802</v>
       </c>
       <c r="N21">
-        <v>0.98042474136133595</v>
+        <v>0.96086847473709802</v>
       </c>
       <c r="O21">
-        <v>0.96861008072863697</v>
+        <v>0.95055499828975598</v>
       </c>
       <c r="P21">
-        <v>0.98042474136133695</v>
+        <v>0.95357677807105601</v>
       </c>
       <c r="Q21">
-        <v>0.97028165628991203</v>
+        <v>0.95147863987444603</v>
       </c>
       <c r="R21">
-        <v>0.973647833133369</v>
+        <v>0.951997439787166</v>
       </c>
       <c r="S21">
-        <v>0.98949119501496796</v>
+        <v>0.96147664466433902</v>
       </c>
       <c r="T21">
-        <v>0.98949119501496796</v>
+        <v>0.96147664466433902</v>
       </c>
       <c r="U21">
-        <v>1.0058563907839899</v>
+        <v>0.97077673191368896</v>
       </c>
       <c r="V21">
-        <v>0.98974573728952298</v>
+        <v>0.96188911539650801</v>
       </c>
       <c r="W21">
-        <v>1.0065600897470599</v>
+        <v>0.97537782113139504</v>
       </c>
       <c r="X21">
-        <v>0.98664860300000001</v>
+        <v>0.95733923200000004</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1.05847569526477</v>
+        <v>1.0513367537285301</v>
       </c>
       <c r="B22">
-        <v>1.05847569526477</v>
+        <v>1.0513367537285301</v>
       </c>
       <c r="C22">
-        <v>1.03395996085315</v>
+        <v>1.01689279358403</v>
       </c>
       <c r="D22">
-        <v>1.05847569526477</v>
+        <v>1.02920927203512</v>
       </c>
       <c r="E22">
-        <v>1.0356579800155901</v>
+        <v>1.01606467809004</v>
       </c>
       <c r="F22">
-        <v>1.04095150019445</v>
+        <v>1.0160541864966599</v>
       </c>
       <c r="G22">
-        <v>1.0586208047057399</v>
+        <v>1.03479821713987</v>
       </c>
       <c r="H22">
-        <v>1.0586208047057399</v>
+        <v>1.03479821713987</v>
       </c>
       <c r="I22">
-        <v>1.0645947918991501</v>
+        <v>1.0463863678199301</v>
       </c>
       <c r="J22">
-        <v>1.05844940978408</v>
+        <v>1.0310682862928</v>
       </c>
       <c r="K22">
-        <v>1.07727056457475</v>
+        <v>1.06194112551491</v>
       </c>
       <c r="L22">
-        <v>1.04764280026638</v>
+        <v>1.02228789902108</v>
       </c>
       <c r="M22">
-        <v>0.98042474136133595</v>
+        <v>0.95816898237137704</v>
       </c>
       <c r="N22">
-        <v>0.98042474136133595</v>
+        <v>0.95816898237137704</v>
       </c>
       <c r="O22">
-        <v>0.96861008072863697</v>
+        <v>0.94645309762764696</v>
       </c>
       <c r="P22">
-        <v>0.98042474136133695</v>
+        <v>0.95022745900845595</v>
       </c>
       <c r="Q22">
-        <v>0.97028165628991203</v>
+        <v>0.94696014995439703</v>
       </c>
       <c r="R22">
-        <v>0.973647833133369</v>
+        <v>0.94698184119948803</v>
       </c>
       <c r="S22">
-        <v>0.98949119501496796</v>
+        <v>0.95829303267911803</v>
       </c>
       <c r="T22">
-        <v>0.98949119501496796</v>
+        <v>0.95829303267911803</v>
       </c>
       <c r="U22">
-        <v>1.0058563907839899</v>
+        <v>0.97618493309049303</v>
       </c>
       <c r="V22">
-        <v>0.98974573728952298</v>
+        <v>0.95769889712717204</v>
       </c>
       <c r="W22">
-        <v>1.0065600897470599</v>
+        <v>0.97413087047427405</v>
       </c>
       <c r="X22">
-        <v>0.98664860300000001</v>
+        <v>0.95318235399999995</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1.05847569526477</v>
+        <v>1.01848319167292</v>
       </c>
       <c r="B23">
-        <v>1.05847569526477</v>
+        <v>1.01848319167292</v>
       </c>
       <c r="C23">
-        <v>1.03395996085315</v>
+        <v>0.98993224841437999</v>
       </c>
       <c r="D23">
-        <v>1.05847569526477</v>
+        <v>1.0017354147920201</v>
       </c>
       <c r="E23">
-        <v>1.0356579800155901</v>
+        <v>0.99107535283640102</v>
       </c>
       <c r="F23">
-        <v>1.04095150019445</v>
+        <v>0.99057939002648399</v>
       </c>
       <c r="G23">
-        <v>1.0586208047057399</v>
+        <v>1.0066574049577599</v>
       </c>
       <c r="H23">
-        <v>1.0586208047057399</v>
+        <v>1.0066574049577599</v>
       </c>
       <c r="I23">
-        <v>1.0645947918991501</v>
+        <v>1.0076680297401901</v>
       </c>
       <c r="J23">
-        <v>1.05844940978408</v>
+        <v>0.99638669745178099</v>
       </c>
       <c r="K23">
-        <v>1.07727056457475</v>
+        <v>1.02515793263305</v>
       </c>
       <c r="L23">
-        <v>1.04764280026638</v>
+        <v>0.99361285138924005</v>
       </c>
       <c r="M23">
-        <v>0.98042474136133595</v>
+        <v>0.96525713948474601</v>
       </c>
       <c r="N23">
-        <v>0.98042474136133595</v>
+        <v>0.96525713948474601</v>
       </c>
       <c r="O23">
-        <v>0.96861008072863697</v>
+        <v>0.95197547047941999</v>
       </c>
       <c r="P23">
-        <v>0.98042474136133695</v>
+        <v>0.95751696800329</v>
       </c>
       <c r="Q23">
-        <v>0.97028165628991203</v>
+        <v>0.95319199579835401</v>
       </c>
       <c r="R23">
-        <v>0.973647833133369</v>
+        <v>0.95260308797611104</v>
       </c>
       <c r="S23">
-        <v>0.98949119501496796</v>
+        <v>0.96610954329632304</v>
       </c>
       <c r="T23">
-        <v>0.98949119501496796</v>
+        <v>0.96610954329632304</v>
       </c>
       <c r="U23">
-        <v>1.0058563907839899</v>
+        <v>0.97165792006084395</v>
       </c>
       <c r="V23">
-        <v>0.98974573728952298</v>
+        <v>0.95832914038698203</v>
       </c>
       <c r="W23">
-        <v>1.0065600897470599</v>
+        <v>0.97575725836246596</v>
       </c>
       <c r="X23">
-        <v>0.98664860300000001</v>
+        <v>0.95724989199999999</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1.05847569526477</v>
+        <v>1.01942121697294</v>
       </c>
       <c r="B24">
-        <v>1.05847569526477</v>
+        <v>1.01942121697294</v>
       </c>
       <c r="C24">
-        <v>1.03395996085315</v>
+        <v>0.98967911383246399</v>
       </c>
       <c r="D24">
-        <v>1.05847569526477</v>
+        <v>1.00009288524075</v>
       </c>
       <c r="E24">
-        <v>1.0356579800155901</v>
+        <v>0.98788977755291796</v>
       </c>
       <c r="F24">
-        <v>1.04095150019445</v>
+        <v>0.98840243138480099</v>
       </c>
       <c r="G24">
-        <v>1.0586208047057399</v>
+        <v>1.02336501765336</v>
       </c>
       <c r="H24">
-        <v>1.0586208047057399</v>
+        <v>1.02336501765336</v>
       </c>
       <c r="I24">
-        <v>1.0645947918991501</v>
+        <v>1.01698185298569</v>
       </c>
       <c r="J24">
-        <v>1.05844940978408</v>
+        <v>1.0114073262176899</v>
       </c>
       <c r="K24">
-        <v>1.07727056457475</v>
+        <v>1.0381342902611601</v>
       </c>
       <c r="L24">
-        <v>1.04764280026638</v>
+        <v>1.00426796319723</v>
       </c>
       <c r="M24">
-        <v>0.98042474136133595</v>
+        <v>0.97211368602120196</v>
       </c>
       <c r="N24">
-        <v>0.98042474136133595</v>
+        <v>0.97211368602120196</v>
       </c>
       <c r="O24">
-        <v>0.96861008072863697</v>
+        <v>0.95493008061820694</v>
       </c>
       <c r="P24">
-        <v>0.98042474136133695</v>
+        <v>0.96066522405886901</v>
       </c>
       <c r="Q24">
-        <v>0.97028165628991203</v>
+        <v>0.95416756930706803</v>
       </c>
       <c r="R24">
-        <v>0.973647833133369</v>
+        <v>0.95462335353949801</v>
       </c>
       <c r="S24">
-        <v>0.98949119501496796</v>
+        <v>0.98022036950217895</v>
       </c>
       <c r="T24">
-        <v>0.98949119501496796</v>
+        <v>0.98022036950217895</v>
       </c>
       <c r="U24">
-        <v>1.0058563907839899</v>
+        <v>0.97962814278169696</v>
       </c>
       <c r="V24">
-        <v>0.98974573728952298</v>
+        <v>0.97090786447982003</v>
       </c>
       <c r="W24">
-        <v>1.0065600897470599</v>
+        <v>0.98789123843944304</v>
       </c>
       <c r="X24">
-        <v>0.98664860300000001</v>
+        <v>0.96765445900000002</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1.0403746163604199</v>
+        <v>1.0349509007039599</v>
       </c>
       <c r="B25">
-        <v>1.09464962573862</v>
+        <v>1.09756647303148</v>
       </c>
       <c r="C25">
-        <v>1.0403746163604199</v>
+        <v>1.0349509007039599</v>
       </c>
       <c r="D25">
-        <v>1.0643799335933299</v>
+        <v>1.0574193260903599</v>
       </c>
       <c r="E25">
-        <v>1.0484414885498401</v>
+        <v>1.04304990189428</v>
       </c>
       <c r="F25">
-        <v>1.0523080059376799</v>
+        <v>1.0447708728521301</v>
       </c>
       <c r="G25">
-        <v>1.1338859284892</v>
+        <v>1.12090947800688</v>
       </c>
       <c r="H25">
-        <v>1.20388413718159</v>
+        <v>1.2160826527252699</v>
       </c>
       <c r="I25">
-        <v>1.1338859284892</v>
+        <v>1.12090947800688</v>
       </c>
       <c r="J25">
-        <v>1.15728805202109</v>
+        <v>1.15980180348968</v>
       </c>
       <c r="K25">
-        <v>1.1363555245543999</v>
+        <v>1.1302522067696801</v>
       </c>
       <c r="L25">
-        <v>1.1380135042319099</v>
+        <v>1.15344021206665</v>
       </c>
       <c r="M25">
-        <v>0.98006657314508205</v>
+        <v>0.97909939855607397</v>
       </c>
       <c r="N25">
-        <v>0.99926805358431503</v>
+        <v>1.00214140571327</v>
       </c>
       <c r="O25">
-        <v>0.98006657314508205</v>
+        <v>0.97909939855607397</v>
       </c>
       <c r="P25">
-        <v>0.986586391381575</v>
+        <v>0.98475168073002495</v>
       </c>
       <c r="Q25">
-        <v>0.98184753387342705</v>
+        <v>0.98097248575711804</v>
       </c>
       <c r="R25">
-        <v>0.98305328615427001</v>
+        <v>0.98131929860787204</v>
       </c>
       <c r="S25">
-        <v>1.04544047904562</v>
+        <v>1.0252700694161401</v>
       </c>
       <c r="T25">
-        <v>1.0661772612673099</v>
+        <v>1.0724700725896199</v>
       </c>
       <c r="U25">
-        <v>1.04544047904562</v>
+        <v>1.0252700694161401</v>
       </c>
       <c r="V25">
-        <v>1.0511502018708501</v>
+        <v>1.0540168005795201</v>
       </c>
       <c r="W25">
-        <v>1.03824189078712</v>
+        <v>1.0278062066168001</v>
       </c>
       <c r="X25">
-        <v>1.039432009</v>
+        <v>1.046086514</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
@@ -2344,34 +2348,34 @@
         <v>1.13566724462581</v>
       </c>
       <c r="C26">
-        <v>1.0715996051921199</v>
+        <v>1.07170640030791</v>
       </c>
       <c r="D26">
         <v>1.09120704927066</v>
       </c>
       <c r="E26">
-        <v>1.0823731597161299</v>
+        <v>1.0819141448798699</v>
       </c>
       <c r="F26">
-        <v>1.0892105603775499</v>
+        <v>1.08714419751367</v>
       </c>
       <c r="G26">
-        <v>1.2176489008790901</v>
+        <v>1.21810358182594</v>
       </c>
       <c r="H26">
-        <v>1.28438572452397</v>
+        <v>1.2841415219712999</v>
       </c>
       <c r="I26">
-        <v>1.19898512821995</v>
+        <v>1.18026009161379</v>
       </c>
       <c r="J26">
-        <v>1.2176489008790901</v>
+        <v>1.21810358182594</v>
       </c>
       <c r="K26">
-        <v>1.2073896900829</v>
+        <v>1.19982093717514</v>
       </c>
       <c r="L26">
-        <v>1.2123983998435599</v>
+        <v>1.2155811283797</v>
       </c>
       <c r="M26">
         <v>0.978887030410314</v>
@@ -2380,108 +2384,108 @@
         <v>0.99407955625818101</v>
       </c>
       <c r="O26">
-        <v>0.977632375001944</v>
+        <v>0.97681808869446796</v>
       </c>
       <c r="P26">
         <v>0.978887030410314</v>
       </c>
       <c r="Q26">
-        <v>0.97820476184166605</v>
+        <v>0.97782226213378898</v>
       </c>
       <c r="R26">
-        <v>0.97938250906994295</v>
+        <v>0.977831625779499</v>
       </c>
       <c r="S26">
-        <v>1.05624227056232</v>
+        <v>1.0564603115245099</v>
       </c>
       <c r="T26">
-        <v>1.0716048122288</v>
+        <v>1.07187458252285</v>
       </c>
       <c r="U26">
-        <v>1.05231986563929</v>
+        <v>1.0295929044960299</v>
       </c>
       <c r="V26">
-        <v>1.05624227056232</v>
+        <v>1.0564603115245099</v>
       </c>
       <c r="W26">
-        <v>1.0473155797340299</v>
+        <v>1.0391546105782501</v>
       </c>
       <c r="X26">
-        <v>1.048565712</v>
+        <v>1.0509662609999999</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1.0448011881080901</v>
+        <v>1.0206244455708</v>
       </c>
       <c r="B27">
-        <v>1.0448011881080901</v>
+        <v>1.04023239502292</v>
       </c>
       <c r="C27">
-        <v>1.0202856008063299</v>
+        <v>1.0029405722297799</v>
       </c>
       <c r="D27">
-        <v>1.0448011881080901</v>
+        <v>1.0206244455708</v>
       </c>
       <c r="E27">
-        <v>1.0225113832363499</v>
+        <v>1.0051076098696801</v>
       </c>
       <c r="F27">
-        <v>1.02595813560228</v>
+        <v>1.00667591986161</v>
       </c>
       <c r="G27">
-        <v>1.04700525670788</v>
+        <v>1.0332952193195299</v>
       </c>
       <c r="H27">
-        <v>1.0468906232384501</v>
+        <v>1.0334345779223899</v>
       </c>
       <c r="I27">
-        <v>1.0554380687385101</v>
+        <v>1.0379630276571701</v>
       </c>
       <c r="J27">
-        <v>1.04700525670788</v>
+        <v>1.0332952193195299</v>
       </c>
       <c r="K27">
-        <v>1.07352541428301</v>
+        <v>1.0565200152481</v>
       </c>
       <c r="L27">
-        <v>1.04197144261051</v>
+        <v>1.0224707740964201</v>
       </c>
       <c r="M27">
-        <v>0.97802349258727295</v>
+        <v>0.97314887519291104</v>
       </c>
       <c r="N27">
-        <v>0.97802349258727395</v>
+        <v>0.98032966843916902</v>
       </c>
       <c r="O27">
-        <v>0.96648089272540905</v>
+        <v>0.96525097588605802</v>
       </c>
       <c r="P27">
-        <v>0.97802349258727295</v>
+        <v>0.97314887519291104</v>
       </c>
       <c r="Q27">
-        <v>0.96808921595236197</v>
+        <v>0.96582127320677602</v>
       </c>
       <c r="R27">
-        <v>0.97057751208153598</v>
+        <v>0.96539589788276203</v>
       </c>
       <c r="S27">
-        <v>0.98637293565470796</v>
+        <v>0.98265406159012503</v>
       </c>
       <c r="T27">
-        <v>0.98693601306266898</v>
+        <v>0.97860150878649399</v>
       </c>
       <c r="U27">
-        <v>0.983113252506295</v>
+        <v>0.98085863807287199</v>
       </c>
       <c r="V27">
-        <v>0.98637293565470796</v>
+        <v>0.98265406159012603</v>
       </c>
       <c r="W27">
-        <v>0.99042331338717104</v>
+        <v>0.99314746745512095</v>
       </c>
       <c r="X27">
-        <v>0.980396394</v>
+        <v>0.97509875999999995</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
@@ -2492,34 +2496,34 @@
         <v>1.1365348452278199</v>
       </c>
       <c r="C28">
-        <v>1.07800646015819</v>
+        <v>1.07742009586133</v>
       </c>
       <c r="D28">
         <v>1.09523253971198</v>
       </c>
       <c r="E28">
-        <v>1.0909152366593799</v>
+        <v>1.09013376005096</v>
       </c>
       <c r="F28">
-        <v>1.1028216655865899</v>
+        <v>1.10219987284801</v>
       </c>
       <c r="G28">
-        <v>1.2029069374013901</v>
+        <v>1.1991315568775101</v>
       </c>
       <c r="H28">
-        <v>1.2029069374013901</v>
+        <v>1.1991315568775101</v>
       </c>
       <c r="I28">
-        <v>1.14816219470944</v>
+        <v>1.13009763197585</v>
       </c>
       <c r="J28">
-        <v>1.15258054010889</v>
+        <v>1.1526894862738499</v>
       </c>
       <c r="K28">
-        <v>1.1474136947643401</v>
+        <v>1.13805548167384</v>
       </c>
       <c r="L28">
-        <v>1.16024329721988</v>
+        <v>1.1592538104269701</v>
       </c>
       <c r="M28">
         <v>0.98653672778019297</v>
@@ -2528,34 +2532,34 @@
         <v>0.98653672778019297</v>
       </c>
       <c r="O28">
-        <v>0.97206401855939495</v>
+        <v>0.97098552065449695</v>
       </c>
       <c r="P28">
         <v>0.97170578167098598</v>
       </c>
       <c r="Q28">
-        <v>0.97293288336274997</v>
+        <v>0.97242895765483195</v>
       </c>
       <c r="R28">
-        <v>0.97551121516516304</v>
+        <v>0.97452910264035697</v>
       </c>
       <c r="S28">
-        <v>1.0065596879202201</v>
+        <v>1.0055341185965601</v>
       </c>
       <c r="T28">
-        <v>1.0065596879202201</v>
+        <v>1.0055341185965601</v>
       </c>
       <c r="U28">
-        <v>1.0023867643905799</v>
+        <v>0.99021666030024502</v>
       </c>
       <c r="V28">
-        <v>0.996955782730921</v>
+        <v>0.99549329170865297</v>
       </c>
       <c r="W28">
-        <v>0.99547534174626795</v>
+        <v>0.989575813760463</v>
       </c>
       <c r="X28">
-        <v>0.99730713900000001</v>
+        <v>0.99766806799999996</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -2566,34 +2570,34 @@
         <v>1.09723652019453</v>
       </c>
       <c r="C29">
-        <v>1.04930987496953</v>
+        <v>1.0488543560824899</v>
       </c>
       <c r="D29">
         <v>1.06348032031734</v>
       </c>
       <c r="E29">
-        <v>1.0588080483111499</v>
+        <v>1.0580307491758101</v>
       </c>
       <c r="F29">
-        <v>1.0680604648588501</v>
+        <v>1.0665147533883499</v>
       </c>
       <c r="G29">
-        <v>1.1764818343019301</v>
+        <v>1.1739251654423399</v>
       </c>
       <c r="H29">
-        <v>1.1764818343019301</v>
+        <v>1.1739251654423399</v>
       </c>
       <c r="I29">
-        <v>1.11762371308443</v>
+        <v>1.10553403871926</v>
       </c>
       <c r="J29">
-        <v>1.12786996348893</v>
+        <v>1.1253312116127601</v>
       </c>
       <c r="K29">
-        <v>1.12216450304279</v>
+        <v>1.1130684285281001</v>
       </c>
       <c r="L29">
-        <v>1.1372612381604901</v>
+        <v>1.1384285159524501</v>
       </c>
       <c r="M29">
         <v>0.97993434335461005</v>
@@ -2602,34 +2606,34 @@
         <v>0.97993434335461005</v>
       </c>
       <c r="O29">
-        <v>0.96905639956038003</v>
+        <v>0.96870293842358002</v>
       </c>
       <c r="P29">
         <v>0.97038461045276503</v>
       </c>
       <c r="Q29">
-        <v>0.96968235340917897</v>
+        <v>0.96947348976312797</v>
       </c>
       <c r="R29">
-        <v>0.97152421445844295</v>
+        <v>0.97049510625412205</v>
       </c>
       <c r="S29">
-        <v>1.0059133114627301</v>
+        <v>1.0046254338572</v>
       </c>
       <c r="T29">
-        <v>1.0059133114627301</v>
+        <v>1.0046254338572</v>
       </c>
       <c r="U29">
-        <v>0.99619492083181904</v>
+        <v>0.98747867178888604</v>
       </c>
       <c r="V29">
-        <v>0.99446751657348498</v>
+        <v>0.992340902144355</v>
       </c>
       <c r="W29">
-        <v>0.99078891971721395</v>
+        <v>0.98595893520076405</v>
       </c>
       <c r="X29">
-        <v>0.99333237299999999</v>
+        <v>0.99532061900000002</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
@@ -2640,34 +2644,34 @@
         <v>1.1084818652853901</v>
       </c>
       <c r="C30">
-        <v>1.0532858849007301</v>
+        <v>1.05349520902389</v>
       </c>
       <c r="D30">
         <v>1.0704715870931301</v>
       </c>
       <c r="E30">
-        <v>1.066570118452</v>
+        <v>1.0660080602324999</v>
       </c>
       <c r="F30">
-        <v>1.0698882018214899</v>
+        <v>1.0690389635197199</v>
       </c>
       <c r="G30">
-        <v>1.3443266953867601</v>
+        <v>1.34421655191143</v>
       </c>
       <c r="H30">
-        <v>1.3443266953867601</v>
+        <v>1.34421655191143</v>
       </c>
       <c r="I30">
-        <v>1.2574073186154799</v>
+        <v>1.2345720049986799</v>
       </c>
       <c r="J30">
-        <v>1.27976586472394</v>
+        <v>1.2784338960467001</v>
       </c>
       <c r="K30">
-        <v>1.27831066024143</v>
+        <v>1.2723252008714701</v>
       </c>
       <c r="L30">
-        <v>1.27154050523083</v>
+        <v>1.2755614518501399</v>
       </c>
       <c r="M30">
         <v>0.97936937381262901</v>
@@ -2676,34 +2680,34 @@
         <v>0.97936937381262901</v>
       </c>
       <c r="O30">
-        <v>0.96584193045456002</v>
+        <v>0.96490394117997202</v>
       </c>
       <c r="P30">
         <v>0.96599108860220495</v>
       </c>
       <c r="Q30">
-        <v>0.96691915005583096</v>
+        <v>0.96652470754964503</v>
       </c>
       <c r="R30">
-        <v>0.96758737825846697</v>
+        <v>0.96662433325654595</v>
       </c>
       <c r="S30">
-        <v>1.1569280990477699</v>
+        <v>1.15776238297545</v>
       </c>
       <c r="T30">
-        <v>1.1569280990477699</v>
+        <v>1.15776238297545</v>
       </c>
       <c r="U30">
-        <v>1.12649940044242</v>
+        <v>1.09109055170419</v>
       </c>
       <c r="V30">
-        <v>1.1374317467446</v>
+        <v>1.1394711194626199</v>
       </c>
       <c r="W30">
-        <v>1.13137556370899</v>
+        <v>1.12312217927243</v>
       </c>
       <c r="X30">
-        <v>1.1286986990000001</v>
+        <v>1.130617209</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
@@ -2714,34 +2718,34 @@
         <v>1.0966575829234799</v>
       </c>
       <c r="C31">
-        <v>1.0438641502412001</v>
+        <v>1.04363327267464</v>
       </c>
       <c r="D31">
         <v>1.05950688694603</v>
       </c>
       <c r="E31">
-        <v>1.0553870770345299</v>
+        <v>1.05467448697388</v>
       </c>
       <c r="F31">
-        <v>1.0620638470407</v>
+        <v>1.0605182511493201</v>
       </c>
       <c r="G31">
-        <v>1.34885313599948</v>
+        <v>1.34759716054819</v>
       </c>
       <c r="H31">
-        <v>1.34885313599948</v>
+        <v>1.34759716054819</v>
       </c>
       <c r="I31">
-        <v>1.26427931059842</v>
+        <v>1.2390977733836099</v>
       </c>
       <c r="J31">
-        <v>1.2850332457598399</v>
+        <v>1.2823601877903501</v>
       </c>
       <c r="K31">
-        <v>1.2844636216454499</v>
+        <v>1.2763526003858101</v>
       </c>
       <c r="L31">
-        <v>1.27971466014082</v>
+        <v>1.2810689683203</v>
       </c>
       <c r="M31">
         <v>0.97703878236570996</v>
@@ -2750,34 +2754,34 @@
         <v>0.97703878236570996</v>
       </c>
       <c r="O31">
-        <v>0.96339014665811895</v>
+        <v>0.962217437718346</v>
       </c>
       <c r="P31">
         <v>0.96370676296243396</v>
       </c>
       <c r="Q31">
-        <v>0.96412859640620796</v>
+        <v>0.963631827675131</v>
       </c>
       <c r="R31">
-        <v>0.96545090833201597</v>
+        <v>0.96454436015535505</v>
       </c>
       <c r="S31">
-        <v>1.1644481545749099</v>
+        <v>1.1614940874934701</v>
       </c>
       <c r="T31">
-        <v>1.1644481545749099</v>
+        <v>1.1614940874934701</v>
       </c>
       <c r="U31">
-        <v>1.1388456102895199</v>
+        <v>1.0980178850697</v>
       </c>
       <c r="V31">
-        <v>1.1463763624433601</v>
+        <v>1.1425814380861301</v>
       </c>
       <c r="W31">
-        <v>1.14056805030602</v>
+        <v>1.12739636209923</v>
       </c>
       <c r="X31">
-        <v>1.138312725</v>
+        <v>1.1357763249999999</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
@@ -2788,34 +2792,34 @@
         <v>1.11299496035252</v>
       </c>
       <c r="C32">
-        <v>1.0567633830146801</v>
+        <v>1.05700295078093</v>
       </c>
       <c r="D32">
         <v>1.07334139270555</v>
       </c>
       <c r="E32">
-        <v>1.0655324921393301</v>
+        <v>1.0651770334680899</v>
       </c>
       <c r="F32">
-        <v>1.07440184218541</v>
+        <v>1.0732202761809699</v>
       </c>
       <c r="G32">
-        <v>1.29824388456688</v>
+        <v>1.2987599789054001</v>
       </c>
       <c r="H32">
-        <v>1.29824388456688</v>
+        <v>1.2987599789054001</v>
       </c>
       <c r="I32">
-        <v>1.20851346173382</v>
+        <v>1.19489999060715</v>
       </c>
       <c r="J32">
-        <v>1.2357754319738501</v>
+        <v>1.2360617644276799</v>
       </c>
       <c r="K32">
-        <v>1.2290890721536101</v>
+        <v>1.2249920733266799</v>
       </c>
       <c r="L32">
-        <v>1.2290799509002099</v>
+        <v>1.2321909235526001</v>
       </c>
       <c r="M32">
         <v>0.98024766070357405</v>
@@ -2824,34 +2828,34 @@
         <v>0.98024766070357405</v>
       </c>
       <c r="O32">
-        <v>0.96740350856238</v>
+        <v>0.96692646233872903</v>
       </c>
       <c r="P32">
         <v>0.968896531342475</v>
       </c>
       <c r="Q32">
-        <v>0.96762356475096301</v>
+        <v>0.96728589486230598</v>
       </c>
       <c r="R32">
-        <v>0.96908588017505903</v>
+        <v>0.96810188720967705</v>
       </c>
       <c r="S32">
-        <v>1.08351977826596</v>
+        <v>1.08477427657434</v>
       </c>
       <c r="T32">
-        <v>1.08351977826596</v>
+        <v>1.08477427657434</v>
       </c>
       <c r="U32">
-        <v>1.0517650250702399</v>
+        <v>1.0326364373913399</v>
       </c>
       <c r="V32">
-        <v>1.0661549950276501</v>
+        <v>1.0675147240848699</v>
       </c>
       <c r="W32">
-        <v>1.05758825031535</v>
+        <v>1.0519814977925901</v>
       </c>
       <c r="X32">
-        <v>1.0573878459999999</v>
+        <v>1.059373892</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
@@ -2862,34 +2866,34 @@
         <v>1.1003979159541899</v>
       </c>
       <c r="C33">
-        <v>1.0521641698456801</v>
+        <v>1.0523943338214401</v>
       </c>
       <c r="D33">
         <v>1.0672333419973901</v>
       </c>
       <c r="E33">
-        <v>1.0567748811556299</v>
+        <v>1.0560645344200701</v>
       </c>
       <c r="F33">
-        <v>1.06194252222727</v>
+        <v>1.0601234453805499</v>
       </c>
       <c r="G33">
-        <v>1.1438449207617001</v>
+        <v>1.1454562157310699</v>
       </c>
       <c r="H33">
-        <v>1.1438449207617001</v>
+        <v>1.1454562157310699</v>
       </c>
       <c r="I33">
-        <v>1.08953467658722</v>
+        <v>1.08198451298951</v>
       </c>
       <c r="J33">
-        <v>1.09719502650067</v>
+        <v>1.09946628889243</v>
       </c>
       <c r="K33">
-        <v>1.08431790042851</v>
+        <v>1.08354851184632</v>
       </c>
       <c r="L33">
-        <v>1.09147373861055</v>
+        <v>1.0963532139844701</v>
       </c>
       <c r="M33">
         <v>0.98231424503059495</v>
@@ -2898,34 +2902,34 @@
         <v>0.98231424503059495</v>
       </c>
       <c r="O33">
-        <v>0.96971439210245203</v>
+        <v>0.96886860690496901</v>
       </c>
       <c r="P33">
         <v>0.971258751983888</v>
       </c>
       <c r="Q33">
-        <v>0.96892279640912504</v>
+        <v>0.96840914280005597</v>
       </c>
       <c r="R33">
-        <v>0.96975690759712896</v>
+        <v>0.96870746603560298</v>
       </c>
       <c r="S33">
-        <v>0.99143119724969297</v>
+        <v>0.99204438461348998</v>
       </c>
       <c r="T33">
-        <v>0.99143119724969297</v>
+        <v>0.99204438461348998</v>
       </c>
       <c r="U33">
-        <v>0.98200727326180304</v>
+        <v>0.977486371807465</v>
       </c>
       <c r="V33">
-        <v>0.98098778591291302</v>
+        <v>0.98150398508464698</v>
       </c>
       <c r="W33">
-        <v>0.97703932164236895</v>
+        <v>0.97441035483988203</v>
       </c>
       <c r="X33">
-        <v>0.97789761799999997</v>
+        <v>0.98169607000000003</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
@@ -2936,34 +2940,34 @@
         <v>1.12237142691814</v>
       </c>
       <c r="C34">
-        <v>1.06390546083615</v>
+        <v>1.06481107758319</v>
       </c>
       <c r="D34">
         <v>1.0816106003013699</v>
       </c>
       <c r="E34">
-        <v>1.0751852133933799</v>
+        <v>1.07512748187263</v>
       </c>
       <c r="F34">
-        <v>1.0793861554091699</v>
+        <v>1.0785587327505199</v>
       </c>
       <c r="G34">
-        <v>1.22362220619722</v>
+        <v>1.2239847367151599</v>
       </c>
       <c r="H34">
-        <v>1.22362220619722</v>
+        <v>1.2239847367151599</v>
       </c>
       <c r="I34">
-        <v>1.1765763663656601</v>
+        <v>1.1529509664214601</v>
       </c>
       <c r="J34">
-        <v>1.17771641180397</v>
+        <v>1.1769687784413401</v>
       </c>
       <c r="K34">
-        <v>1.17178023531324</v>
+        <v>1.16386413439251</v>
       </c>
       <c r="L34">
-        <v>1.1811286778574399</v>
+        <v>1.18033282661832</v>
       </c>
       <c r="M34">
         <v>0.98970163640412201</v>
@@ -2972,34 +2976,34 @@
         <v>0.98970163640412201</v>
       </c>
       <c r="O34">
-        <v>0.97409619165103101</v>
+        <v>0.97370832085820602</v>
       </c>
       <c r="P34">
         <v>0.97592573280133299</v>
       </c>
       <c r="Q34">
-        <v>0.97469927972454995</v>
+        <v>0.97441355149207898</v>
       </c>
       <c r="R34">
-        <v>0.97570034386066196</v>
+        <v>0.97411929488570104</v>
       </c>
       <c r="S34">
-        <v>1.0493139886374601</v>
+        <v>1.05018698496902</v>
       </c>
       <c r="T34">
-        <v>1.0493139886374601</v>
+        <v>1.05018698496902</v>
       </c>
       <c r="U34">
-        <v>1.04142218977363</v>
+        <v>1.0236019613190099</v>
       </c>
       <c r="V34">
-        <v>1.0362791576083099</v>
+        <v>1.0380382234547101</v>
       </c>
       <c r="W34">
-        <v>1.0321808401749</v>
+        <v>1.02738220129555</v>
       </c>
       <c r="X34">
-        <v>1.0362163289999999</v>
+        <v>1.0369899149999999</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
@@ -3010,34 +3014,34 @@
         <v>1.1157711375941901</v>
       </c>
       <c r="C35">
-        <v>1.0669808235379901</v>
+        <v>1.06691628757862</v>
       </c>
       <c r="D35">
         <v>1.0820466560822599</v>
       </c>
       <c r="E35">
-        <v>1.0730381042716099</v>
+        <v>1.0724687138912901</v>
       </c>
       <c r="F35">
-        <v>1.0729212335455001</v>
+        <v>1.07069852125361</v>
       </c>
       <c r="G35">
-        <v>1.29601293991664</v>
+        <v>1.2948929324526</v>
       </c>
       <c r="H35">
-        <v>1.29601293991664</v>
+        <v>1.2948929324526</v>
       </c>
       <c r="I35">
-        <v>1.21547794348565</v>
+        <v>1.1938013739787301</v>
       </c>
       <c r="J35">
-        <v>1.23186207006589</v>
+        <v>1.2314578784621799</v>
       </c>
       <c r="K35">
-        <v>1.2320259229178301</v>
+        <v>1.2227452177920799</v>
       </c>
       <c r="L35">
-        <v>1.2326432983012301</v>
+        <v>1.2328126909386501</v>
       </c>
       <c r="M35">
         <v>0.98136322774862295</v>
@@ -3046,34 +3050,34 @@
         <v>0.98136322774862295</v>
       </c>
       <c r="O35">
-        <v>0.96873845108648204</v>
+        <v>0.96862148131857495</v>
       </c>
       <c r="P35">
         <v>0.97127319853068605</v>
       </c>
       <c r="Q35">
-        <v>0.96860742465944905</v>
+        <v>0.96846659019331804</v>
       </c>
       <c r="R35">
-        <v>0.96864170722405596</v>
+        <v>0.96765817060133497</v>
       </c>
       <c r="S35">
-        <v>1.0653751483565099</v>
+        <v>1.06448804629599</v>
       </c>
       <c r="T35">
-        <v>1.0653751483565099</v>
+        <v>1.06448804629599</v>
       </c>
       <c r="U35">
-        <v>1.0392465668898401</v>
+        <v>1.0184187054318901</v>
       </c>
       <c r="V35">
-        <v>1.0462161141616999</v>
+        <v>1.04538321245329</v>
       </c>
       <c r="W35">
-        <v>1.0435392951609399</v>
+        <v>1.0344656257961899</v>
       </c>
       <c r="X35">
-        <v>1.0440876960000001</v>
+        <v>1.0422688099999999</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
@@ -3084,34 +3088,34 @@
         <v>1.0998645452151701</v>
       </c>
       <c r="C36">
-        <v>1.0560970090506301</v>
+        <v>1.0562878639941</v>
       </c>
       <c r="D36">
         <v>1.0703339446302</v>
       </c>
       <c r="E36">
-        <v>1.06061130896888</v>
+        <v>1.0600173715191601</v>
       </c>
       <c r="F36">
-        <v>1.06831899895355</v>
+        <v>1.06518184851778</v>
       </c>
       <c r="G36">
-        <v>1.17733022422009</v>
+        <v>1.1789019022827001</v>
       </c>
       <c r="H36">
-        <v>1.17733022422009</v>
+        <v>1.1789019022827001</v>
       </c>
       <c r="I36">
-        <v>1.13111076305458</v>
+        <v>1.1198969562062699</v>
       </c>
       <c r="J36">
-        <v>1.1417442963919799</v>
+        <v>1.14556442326696</v>
       </c>
       <c r="K36">
-        <v>1.13222348270881</v>
+        <v>1.1283024237132699</v>
       </c>
       <c r="L36">
-        <v>1.1368220443727</v>
+        <v>1.13928348415819</v>
       </c>
       <c r="M36">
         <v>0.98093859000406403</v>
@@ -3120,34 +3124,34 @@
         <v>0.98093859000406403</v>
       </c>
       <c r="O36">
-        <v>0.97309807865662601</v>
+        <v>0.97305325048260205</v>
       </c>
       <c r="P36">
         <v>0.97551054720383201</v>
       </c>
       <c r="Q36">
-        <v>0.97301398229538605</v>
+        <v>0.97299125932914199</v>
       </c>
       <c r="R36">
-        <v>0.97434916367677704</v>
+        <v>0.973091061035678</v>
       </c>
       <c r="S36">
-        <v>1.0083458874081701</v>
+        <v>1.01186049513844</v>
       </c>
       <c r="T36">
-        <v>1.0083458874081701</v>
+        <v>1.01186049513844</v>
       </c>
       <c r="U36">
-        <v>1.00769109303835</v>
+        <v>1.00059990795787</v>
       </c>
       <c r="V36">
-        <v>1.0052775483371501</v>
+        <v>1.00882045552387</v>
       </c>
       <c r="W36">
-        <v>1.0028948476208599</v>
+        <v>1.0020450232307401</v>
       </c>
       <c r="X36">
-        <v>1.002098757</v>
+        <v>1.008589398</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
@@ -3158,34 +3162,34 @@
         <v>1.10480827682648</v>
       </c>
       <c r="C37">
-        <v>1.0512987147878501</v>
+        <v>1.05168061540587</v>
       </c>
       <c r="D37">
         <v>1.06830083633766</v>
       </c>
       <c r="E37">
-        <v>1.0611463044668701</v>
+        <v>1.0606156504462301</v>
       </c>
       <c r="F37">
-        <v>1.0669872742987601</v>
+        <v>1.06545729468788</v>
       </c>
       <c r="G37">
-        <v>1.1772998167330799</v>
+        <v>1.1749461033789399</v>
       </c>
       <c r="H37">
-        <v>1.1772998167330799</v>
+        <v>1.1749461033789399</v>
       </c>
       <c r="I37">
-        <v>1.12512992176021</v>
+        <v>1.1065022449883399</v>
       </c>
       <c r="J37">
-        <v>1.1307109136970099</v>
+        <v>1.1288045880983999</v>
       </c>
       <c r="K37">
-        <v>1.1233939449985799</v>
+        <v>1.11284761047534</v>
       </c>
       <c r="L37">
-        <v>1.1285097209288799</v>
+        <v>1.1287502553991</v>
       </c>
       <c r="M37">
         <v>0.97239062889786299</v>
@@ -3194,34 +3198,34 @@
         <v>0.97239062889786299</v>
       </c>
       <c r="O37">
-        <v>0.96040158462477199</v>
+        <v>0.96050423758131398</v>
       </c>
       <c r="P37">
         <v>0.96224950262810904</v>
       </c>
       <c r="Q37">
-        <v>0.96103756196333801</v>
+        <v>0.96104295582927801</v>
       </c>
       <c r="R37">
-        <v>0.96206525647147101</v>
+        <v>0.96040521130986301</v>
       </c>
       <c r="S37">
-        <v>1.0114374018885</v>
+        <v>1.0108466293960601</v>
       </c>
       <c r="T37">
-        <v>1.0114374018885</v>
+        <v>1.0108466293960601</v>
       </c>
       <c r="U37">
-        <v>1.00690029631911</v>
+        <v>0.99229233625489099</v>
       </c>
       <c r="V37">
-        <v>1.004302269359</v>
+        <v>1.00287686487516</v>
       </c>
       <c r="W37">
-        <v>0.99959537338467497</v>
+        <v>0.99289835218242195</v>
       </c>
       <c r="X37">
-        <v>1.000091606</v>
+        <v>1.00094609</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
@@ -3232,34 +3236,34 @@
         <v>1.11537968001191</v>
       </c>
       <c r="C38">
-        <v>1.0548019524657899</v>
+        <v>1.0556616822540701</v>
       </c>
       <c r="D38">
         <v>1.0722835598363301</v>
       </c>
       <c r="E38">
-        <v>1.0687208478107</v>
+        <v>1.0683826587143901</v>
       </c>
       <c r="F38">
-        <v>1.07694604982453</v>
+        <v>1.07555584007789</v>
       </c>
       <c r="G38">
-        <v>1.2706825925549401</v>
+        <v>1.2733140523740301</v>
       </c>
       <c r="H38">
-        <v>1.2706825925549401</v>
+        <v>1.2733140523740301</v>
       </c>
       <c r="I38">
-        <v>1.1927379881044899</v>
+        <v>1.1759488272627601</v>
       </c>
       <c r="J38">
-        <v>1.2116681626514001</v>
+        <v>1.2126490604893001</v>
       </c>
       <c r="K38">
-        <v>1.2030195391235901</v>
+        <v>1.19961201089134</v>
       </c>
       <c r="L38">
-        <v>1.2018015014293</v>
+        <v>1.2118573229270899</v>
       </c>
       <c r="M38">
         <v>0.98464394068980499</v>
@@ -3268,34 +3272,34 @@
         <v>0.98464394068980499</v>
       </c>
       <c r="O38">
-        <v>0.969820239393683</v>
+        <v>0.96970108183655401</v>
       </c>
       <c r="P38">
         <v>0.97008331404399695</v>
       </c>
       <c r="Q38">
-        <v>0.97089147167763001</v>
+        <v>0.97078739945606796</v>
       </c>
       <c r="R38">
-        <v>0.971928395244403</v>
+        <v>0.97088397109551205</v>
       </c>
       <c r="S38">
-        <v>1.0538430801685901</v>
+        <v>1.05590053372727</v>
       </c>
       <c r="T38">
-        <v>1.0538430801685901</v>
+        <v>1.05590053372727</v>
       </c>
       <c r="U38">
-        <v>1.0318239977602801</v>
+        <v>1.01982947614025</v>
       </c>
       <c r="V38">
-        <v>1.0443708102393801</v>
+        <v>1.0449612213680699</v>
       </c>
       <c r="W38">
-        <v>1.03263615944419</v>
+        <v>1.02950612833752</v>
       </c>
       <c r="X38">
-        <v>1.0325707230000001</v>
+        <v>1.038920777</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -3306,34 +3310,34 @@
         <v>1.1191882588125599</v>
       </c>
       <c r="C39">
-        <v>1.0577963137436901</v>
+        <v>1.0574920470442299</v>
       </c>
       <c r="D39">
         <v>1.07542600914822</v>
       </c>
       <c r="E39">
-        <v>1.07174841957443</v>
+        <v>1.07099629140297</v>
       </c>
       <c r="F39">
-        <v>1.0731652186385101</v>
+        <v>1.07348693511342</v>
       </c>
       <c r="G39">
-        <v>1.2833485802989999</v>
+        <v>1.2850158244486101</v>
       </c>
       <c r="H39">
-        <v>1.2833485802989999</v>
+        <v>1.2850158244486101</v>
       </c>
       <c r="I39">
-        <v>1.20235375372415</v>
+        <v>1.1878265344618899</v>
       </c>
       <c r="J39">
-        <v>1.2267873766464401</v>
+        <v>1.22931426206772</v>
       </c>
       <c r="K39">
-        <v>1.2231781361062899</v>
+        <v>1.2183692881256001</v>
       </c>
       <c r="L39">
-        <v>1.22498420772153</v>
+        <v>1.22782551479712</v>
       </c>
       <c r="M39">
         <v>0.97517160658070001</v>
@@ -3342,34 +3346,34 @@
         <v>0.97517160658070001</v>
       </c>
       <c r="O39">
-        <v>0.96190853105252805</v>
+        <v>0.96098767847229505</v>
       </c>
       <c r="P39">
         <v>0.96197041671483396</v>
       </c>
       <c r="Q39">
-        <v>0.96338144337893095</v>
+        <v>0.96282620367567495</v>
       </c>
       <c r="R39">
-        <v>0.96310236107081504</v>
+        <v>0.96195202952634695</v>
       </c>
       <c r="S39">
-        <v>1.0531436688678799</v>
+        <v>1.0536299792033901</v>
       </c>
       <c r="T39">
-        <v>1.0531436688678799</v>
+        <v>1.0536299792033901</v>
       </c>
       <c r="U39">
-        <v>1.03047025597065</v>
+        <v>1.01535388424736</v>
       </c>
       <c r="V39">
-        <v>1.03947366020291</v>
+        <v>1.0408378903469799</v>
       </c>
       <c r="W39">
-        <v>1.0322949925117599</v>
+        <v>1.0276279688057699</v>
       </c>
       <c r="X39">
-        <v>1.0321285069999999</v>
+        <v>1.0347787159999999</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
@@ -3380,34 +3384,34 @@
         <v>1.16274669558935</v>
       </c>
       <c r="C40">
-        <v>1.11307257892836</v>
+        <v>1.11367633082738</v>
       </c>
       <c r="D40">
         <v>1.1301089632780199</v>
       </c>
       <c r="E40">
-        <v>1.11460376412608</v>
+        <v>1.1139005882286599</v>
       </c>
       <c r="F40">
-        <v>1.1171823871398601</v>
+        <v>1.1153399813496601</v>
       </c>
       <c r="G40">
-        <v>1.32478295437057</v>
+        <v>1.3205939858324001</v>
       </c>
       <c r="H40">
-        <v>1.32478295437057</v>
+        <v>1.3205939858324001</v>
       </c>
       <c r="I40">
-        <v>1.2546239264774</v>
+        <v>1.2319933402141201</v>
       </c>
       <c r="J40">
-        <v>1.2959915658385801</v>
+        <v>1.28804293058616</v>
       </c>
       <c r="K40">
-        <v>1.2585409252449899</v>
+        <v>1.24719715657609</v>
       </c>
       <c r="L40">
-        <v>1.25234174052354</v>
+        <v>1.25299308619779</v>
       </c>
       <c r="M40">
         <v>0.98237458474121997</v>
@@ -3416,34 +3420,34 @@
         <v>0.98237458474121997</v>
       </c>
       <c r="O40">
-        <v>0.973910774911526</v>
+        <v>0.973644346979052</v>
       </c>
       <c r="P40">
         <v>0.97562922996510204</v>
       </c>
       <c r="Q40">
-        <v>0.97085164147454195</v>
+        <v>0.97053299052696496</v>
       </c>
       <c r="R40">
-        <v>0.97134934185424904</v>
+        <v>0.96967792458888502</v>
       </c>
       <c r="S40">
-        <v>1.06472977196081</v>
+        <v>1.06250206829441</v>
       </c>
       <c r="T40">
-        <v>1.06472977196081</v>
+        <v>1.06250206829441</v>
       </c>
       <c r="U40">
-        <v>1.04929435260976</v>
+        <v>1.0297885955806501</v>
       </c>
       <c r="V40">
-        <v>1.06615479907553</v>
+        <v>1.06118934988108</v>
       </c>
       <c r="W40">
-        <v>1.04547989028304</v>
+        <v>1.0367377478434401</v>
       </c>
       <c r="X40">
-        <v>1.0440854770000001</v>
+        <v>1.04295742</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
@@ -3454,34 +3458,34 @@
         <v>1.11328090013876</v>
       </c>
       <c r="C41">
-        <v>1.05683535746812</v>
+        <v>1.0579403990191001</v>
       </c>
       <c r="D41">
         <v>1.0758511418611401</v>
       </c>
       <c r="E41">
-        <v>1.0698762621179601</v>
+        <v>1.0699325072747301</v>
       </c>
       <c r="F41">
-        <v>1.07305124928851</v>
+        <v>1.0725899924820601</v>
       </c>
       <c r="G41">
-        <v>1.2960890062424699</v>
+        <v>1.2961865484920601</v>
       </c>
       <c r="H41">
-        <v>1.2960890062424699</v>
+        <v>1.2961865484920601</v>
       </c>
       <c r="I41">
-        <v>1.22509380611318</v>
+        <v>1.19963090711691</v>
       </c>
       <c r="J41">
-        <v>1.2423540438596301</v>
+        <v>1.2426413930733999</v>
       </c>
       <c r="K41">
-        <v>1.2382215843031401</v>
+        <v>1.23070596422558</v>
       </c>
       <c r="L41">
-        <v>1.2374447539425</v>
+        <v>1.2388985630681999</v>
       </c>
       <c r="M41">
         <v>0.97459249595143405</v>
@@ -3490,34 +3494,34 @@
         <v>0.97459249595143405</v>
       </c>
       <c r="O41">
-        <v>0.96353359788954296</v>
+        <v>0.96323370260983898</v>
       </c>
       <c r="P41">
         <v>0.96488254405529905</v>
       </c>
       <c r="Q41">
-        <v>0.96437780120206695</v>
+        <v>0.96422298560657005</v>
       </c>
       <c r="R41">
-        <v>0.96485388704734898</v>
+        <v>0.96367076572824895</v>
       </c>
       <c r="S41">
-        <v>1.10525992243407</v>
+        <v>1.10495719224369</v>
       </c>
       <c r="T41">
-        <v>1.10525992243407</v>
+        <v>1.10495719224369</v>
       </c>
       <c r="U41">
-        <v>1.08898480086194</v>
+        <v>1.05622461306292</v>
       </c>
       <c r="V41">
-        <v>1.09186055820232</v>
+        <v>1.09373787174825</v>
       </c>
       <c r="W41">
-        <v>1.0865070859386701</v>
+        <v>1.0773598792164201</v>
       </c>
       <c r="X41">
-        <v>1.0862287180000001</v>
+        <v>1.0854130340000001</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
@@ -3528,34 +3532,34 @@
         <v>1.0448011881080901</v>
       </c>
       <c r="C42">
-        <v>1.0202856008063299</v>
+        <v>1.0123549926506801</v>
       </c>
       <c r="D42">
-        <v>1.0448011881080901</v>
+        <v>1.0283620627477299</v>
       </c>
       <c r="E42">
-        <v>1.0225113832363499</v>
+        <v>1.0162566966972999</v>
       </c>
       <c r="F42">
-        <v>1.02595813560228</v>
+        <v>1.0186220760167</v>
       </c>
       <c r="G42">
-        <v>1.0468906232384501</v>
+        <v>1.04780700671366</v>
       </c>
       <c r="H42">
-        <v>1.0468906232384501</v>
+        <v>1.04780700671366</v>
       </c>
       <c r="I42">
-        <v>1.0554380687385101</v>
+        <v>1.0477424621178399</v>
       </c>
       <c r="J42">
-        <v>1.04700525670788</v>
+        <v>1.0478229070870499</v>
       </c>
       <c r="K42">
-        <v>1.07352541428301</v>
+        <v>1.0690122568659199</v>
       </c>
       <c r="L42">
-        <v>1.04197144261051</v>
+        <v>1.03995378087521</v>
       </c>
       <c r="M42">
         <v>0.97802349258727395</v>
@@ -3564,478 +3568,478 @@
         <v>0.97802349258727395</v>
       </c>
       <c r="O42">
-        <v>0.96648089272540905</v>
+        <v>0.966110855895709</v>
       </c>
       <c r="P42">
-        <v>0.97802349258727295</v>
+        <v>0.972389295835976</v>
       </c>
       <c r="Q42">
-        <v>0.96808921595236197</v>
+        <v>0.96738442863187402</v>
       </c>
       <c r="R42">
-        <v>0.97057751208153697</v>
+        <v>0.967972168855741</v>
       </c>
       <c r="S42">
-        <v>0.98693601306266898</v>
+        <v>0.98776562562505099</v>
       </c>
       <c r="T42">
-        <v>0.98693601306266898</v>
+        <v>0.98776562562505099</v>
       </c>
       <c r="U42">
-        <v>0.983113252506295</v>
+        <v>0.98614040471255604</v>
       </c>
       <c r="V42">
-        <v>0.98637293565470796</v>
+        <v>0.99104821874564497</v>
       </c>
       <c r="W42">
-        <v>0.99042331338717104</v>
+        <v>0.99945100734081105</v>
       </c>
       <c r="X42">
-        <v>0.980396394</v>
+        <v>0.98603781000000001</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1.0448011881080901</v>
+        <v>1.0411320937642401</v>
       </c>
       <c r="B43">
-        <v>1.0448011881080901</v>
+        <v>1.0411320937642401</v>
       </c>
       <c r="C43">
-        <v>1.0202856008063299</v>
+        <v>1.0027827636069</v>
       </c>
       <c r="D43">
-        <v>1.0448011881080901</v>
+        <v>1.02138285124679</v>
       </c>
       <c r="E43">
-        <v>1.0225113832363499</v>
+        <v>1.01115694999106</v>
       </c>
       <c r="F43">
-        <v>1.02595813560228</v>
+        <v>1.0118512741878201</v>
       </c>
       <c r="G43">
-        <v>1.0468906232384501</v>
+        <v>1.0457183058457999</v>
       </c>
       <c r="H43">
-        <v>1.0468906232384501</v>
+        <v>1.0457183058457999</v>
       </c>
       <c r="I43">
-        <v>1.0554380687385101</v>
+        <v>1.04831621382544</v>
       </c>
       <c r="J43">
-        <v>1.04700525670788</v>
+        <v>1.0418754353465101</v>
       </c>
       <c r="K43">
-        <v>1.07352541428301</v>
+        <v>1.06498857901466</v>
       </c>
       <c r="L43">
-        <v>1.04197144261051</v>
+        <v>1.03598547189159</v>
       </c>
       <c r="M43">
-        <v>0.97802349258727395</v>
+        <v>0.96818880254628104</v>
       </c>
       <c r="N43">
-        <v>0.97802349258727395</v>
+        <v>0.96818880254628104</v>
       </c>
       <c r="O43">
-        <v>0.96648089272540905</v>
+        <v>0.95515412984806602</v>
       </c>
       <c r="P43">
-        <v>0.97802349258727295</v>
+        <v>0.96270713850128697</v>
       </c>
       <c r="Q43">
-        <v>0.96808921595236197</v>
+        <v>0.958106889232475</v>
       </c>
       <c r="R43">
-        <v>0.97057751208153697</v>
+        <v>0.95723913466528199</v>
       </c>
       <c r="S43">
-        <v>0.98693601306266898</v>
+        <v>0.97287444402156198</v>
       </c>
       <c r="T43">
-        <v>0.98693601306266898</v>
+        <v>0.97287444402156198</v>
       </c>
       <c r="U43">
-        <v>0.983113252506295</v>
+        <v>0.97593615190734595</v>
       </c>
       <c r="V43">
-        <v>0.98637293565470796</v>
+        <v>0.97838627261659605</v>
       </c>
       <c r="W43">
-        <v>0.99042331338717104</v>
+        <v>0.98453135387808399</v>
       </c>
       <c r="X43">
-        <v>0.980396394</v>
+        <v>0.97033779899999995</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1.0448011881080901</v>
+        <v>1.0248686408041401</v>
       </c>
       <c r="B44">
-        <v>1.0448011881080901</v>
+        <v>1.0248686408041401</v>
       </c>
       <c r="C44">
-        <v>1.0202856008063299</v>
+        <v>0.99712666998051602</v>
       </c>
       <c r="D44">
-        <v>1.0448011881080901</v>
+        <v>1.0108271053229301</v>
       </c>
       <c r="E44">
-        <v>1.0225113832363499</v>
+        <v>1.00162608811873</v>
       </c>
       <c r="F44">
-        <v>1.02595813560228</v>
+        <v>1.00221473629618</v>
       </c>
       <c r="G44">
-        <v>1.0468906232384501</v>
+        <v>1.0336546695692901</v>
       </c>
       <c r="H44">
-        <v>1.0468906232384501</v>
+        <v>1.0336546695692901</v>
       </c>
       <c r="I44">
-        <v>1.0554380687385101</v>
+        <v>1.0333519710521599</v>
       </c>
       <c r="J44">
-        <v>1.04700525670788</v>
+        <v>1.0319373100828699</v>
       </c>
       <c r="K44">
-        <v>1.07352541428301</v>
+        <v>1.0512030174150799</v>
       </c>
       <c r="L44">
-        <v>1.04197144261051</v>
+        <v>1.0270454625546199</v>
       </c>
       <c r="M44">
-        <v>0.97802349258727395</v>
+        <v>0.96113547920009701</v>
       </c>
       <c r="N44">
-        <v>0.97802349258727395</v>
+        <v>0.96113547920009701</v>
       </c>
       <c r="O44">
-        <v>0.96648089272540905</v>
+        <v>0.95172403263757399</v>
       </c>
       <c r="P44">
-        <v>0.97802349258727295</v>
+        <v>0.95708125978445602</v>
       </c>
       <c r="Q44">
-        <v>0.96808921595236197</v>
+        <v>0.95347941602678499</v>
       </c>
       <c r="R44">
-        <v>0.97057751208153697</v>
+        <v>0.95269949442617496</v>
       </c>
       <c r="S44">
-        <v>0.98693601306266898</v>
+        <v>0.96293319115633202</v>
       </c>
       <c r="T44">
-        <v>0.98693601306266898</v>
+        <v>0.96293319115633202</v>
       </c>
       <c r="U44">
-        <v>0.983113252506295</v>
+        <v>0.96631039456803902</v>
       </c>
       <c r="V44">
-        <v>0.98637293565470796</v>
+        <v>0.96941545449784305</v>
       </c>
       <c r="W44">
-        <v>0.99042331338717104</v>
+        <v>0.97363004085151805</v>
       </c>
       <c r="X44">
-        <v>0.980396394</v>
+        <v>0.96234504099999996</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1.0448011881080901</v>
+        <v>1.0496911259977599</v>
       </c>
       <c r="B45">
-        <v>1.0448011881080901</v>
+        <v>1.0496911259977599</v>
       </c>
       <c r="C45">
-        <v>1.0202856008063299</v>
+        <v>1.0196324702141999</v>
       </c>
       <c r="D45">
-        <v>1.0448011881080901</v>
+        <v>1.03390924461359</v>
       </c>
       <c r="E45">
-        <v>1.0225113832363499</v>
+        <v>1.02009927458023</v>
       </c>
       <c r="F45">
-        <v>1.02595813560228</v>
+        <v>1.0214698907175299</v>
       </c>
       <c r="G45">
-        <v>1.0468906232384501</v>
+        <v>1.0385980708679401</v>
       </c>
       <c r="H45">
-        <v>1.0468906232384501</v>
+        <v>1.0385980708679401</v>
       </c>
       <c r="I45">
-        <v>1.0554380687385101</v>
+        <v>1.0443278432608001</v>
       </c>
       <c r="J45">
-        <v>1.04700525670788</v>
+        <v>1.0402052572295699</v>
       </c>
       <c r="K45">
-        <v>1.07352541428301</v>
+        <v>1.06632983680203</v>
       </c>
       <c r="L45">
-        <v>1.04197144261051</v>
+        <v>1.03087071036017</v>
       </c>
       <c r="M45">
-        <v>0.97802349258727395</v>
+        <v>0.96543640038543099</v>
       </c>
       <c r="N45">
-        <v>0.97802349258727395</v>
+        <v>0.96543640038543099</v>
       </c>
       <c r="O45">
-        <v>0.96648089272540905</v>
+        <v>0.95551732793890398</v>
       </c>
       <c r="P45">
-        <v>0.97802349258727295</v>
+        <v>0.96071781435829096</v>
       </c>
       <c r="Q45">
-        <v>0.96808921595236197</v>
+        <v>0.955649671897005</v>
       </c>
       <c r="R45">
-        <v>0.97057751208153697</v>
+        <v>0.95575829449925098</v>
       </c>
       <c r="S45">
-        <v>0.98693601306266898</v>
+        <v>0.97229990360623897</v>
       </c>
       <c r="T45">
-        <v>0.98693601306266898</v>
+        <v>0.97229990360623897</v>
       </c>
       <c r="U45">
-        <v>0.983113252506295</v>
+        <v>0.97602874525132399</v>
       </c>
       <c r="V45">
-        <v>0.98637293565470796</v>
+        <v>0.97654063181108797</v>
       </c>
       <c r="W45">
-        <v>0.99042331338717104</v>
+        <v>0.98449051064104898</v>
       </c>
       <c r="X45">
-        <v>0.980396394</v>
+        <v>0.969990244</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1.0448011881080901</v>
+        <v>1.0252379410617101</v>
       </c>
       <c r="B46">
-        <v>1.0448011881080901</v>
+        <v>1.0252379410617101</v>
       </c>
       <c r="C46">
-        <v>1.0202856008063299</v>
+        <v>1.0000633857093899</v>
       </c>
       <c r="D46">
-        <v>1.0448011881080901</v>
+        <v>1.01269068397097</v>
       </c>
       <c r="E46">
-        <v>1.0225113832363499</v>
+        <v>1.0006259308762799</v>
       </c>
       <c r="F46">
-        <v>1.02595813560228</v>
+        <v>1.0014628746059799</v>
       </c>
       <c r="G46">
-        <v>1.0468906232384501</v>
+        <v>1.0221037784045599</v>
       </c>
       <c r="H46">
-        <v>1.0468906232384501</v>
+        <v>1.0221037784045599</v>
       </c>
       <c r="I46">
-        <v>1.0554380687385101</v>
+        <v>1.02000236532462</v>
       </c>
       <c r="J46">
-        <v>1.04700525670788</v>
+        <v>1.0159737461795</v>
       </c>
       <c r="K46">
-        <v>1.07352541428301</v>
+        <v>1.03751626611847</v>
       </c>
       <c r="L46">
-        <v>1.04197144261051</v>
+        <v>1.01394118075649</v>
       </c>
       <c r="M46">
-        <v>0.97802349258727395</v>
+        <v>0.97197460174582895</v>
       </c>
       <c r="N46">
-        <v>0.97802349258727395</v>
+        <v>0.97197460174582895</v>
       </c>
       <c r="O46">
-        <v>0.96648089272540905</v>
+        <v>0.95999092552536602</v>
       </c>
       <c r="P46">
-        <v>0.97802349258727295</v>
+        <v>0.96681469804210096</v>
       </c>
       <c r="Q46">
-        <v>0.96808921595236197</v>
+        <v>0.96059359518808896</v>
       </c>
       <c r="R46">
-        <v>0.97057751208153697</v>
+        <v>0.95986505732238703</v>
       </c>
       <c r="S46">
-        <v>0.98693601306266898</v>
+        <v>0.97699632214302101</v>
       </c>
       <c r="T46">
-        <v>0.98693601306266898</v>
+        <v>0.97699632214302101</v>
       </c>
       <c r="U46">
-        <v>0.983113252506295</v>
+        <v>0.97598308108227605</v>
       </c>
       <c r="V46">
-        <v>0.98637293565470796</v>
+        <v>0.97825878945869205</v>
       </c>
       <c r="W46">
-        <v>0.99042331338717104</v>
+        <v>0.98390907370882796</v>
       </c>
       <c r="X46">
-        <v>0.980396394</v>
+        <v>0.97443464099999999</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1.0448011881080901</v>
+        <v>1.0204107036394301</v>
       </c>
       <c r="B47">
-        <v>1.0448011881080901</v>
+        <v>1.0204107036394301</v>
       </c>
       <c r="C47">
-        <v>1.0202856008063299</v>
+        <v>0.99385936714337297</v>
       </c>
       <c r="D47">
-        <v>1.0448011881080901</v>
+        <v>1.0065228008318701</v>
       </c>
       <c r="E47">
-        <v>1.0225113832363499</v>
+        <v>0.99396580350399699</v>
       </c>
       <c r="F47">
-        <v>1.02595813560228</v>
+        <v>0.99575224415095598</v>
       </c>
       <c r="G47">
-        <v>1.0468906232384501</v>
+        <v>1.02548971609485</v>
       </c>
       <c r="H47">
-        <v>1.0468906232384501</v>
+        <v>1.02548971609485</v>
       </c>
       <c r="I47">
-        <v>1.0554380687385101</v>
+        <v>1.0235687197971599</v>
       </c>
       <c r="J47">
-        <v>1.04700525670788</v>
+        <v>1.01873445852721</v>
       </c>
       <c r="K47">
-        <v>1.07352541428301</v>
+        <v>1.0417420548659599</v>
       </c>
       <c r="L47">
-        <v>1.04197144261051</v>
+        <v>1.01220005065529</v>
       </c>
       <c r="M47">
-        <v>0.97802349258727395</v>
+        <v>0.97344304427595696</v>
       </c>
       <c r="N47">
-        <v>0.97802349258727395</v>
+        <v>0.97344304427595696</v>
       </c>
       <c r="O47">
-        <v>0.96648089272540905</v>
+        <v>0.95910340653357296</v>
       </c>
       <c r="P47">
-        <v>0.97802349258727295</v>
+        <v>0.96643424522545895</v>
       </c>
       <c r="Q47">
-        <v>0.96808921595236197</v>
+        <v>0.95883181520388505</v>
       </c>
       <c r="R47">
-        <v>0.97057751208153697</v>
+        <v>0.95886501007553904</v>
       </c>
       <c r="S47">
-        <v>0.98693601306266898</v>
+        <v>0.97666939727540403</v>
       </c>
       <c r="T47">
-        <v>0.98693601306266898</v>
+        <v>0.97666939727540403</v>
       </c>
       <c r="U47">
-        <v>0.983113252506295</v>
+        <v>0.97693828111282</v>
       </c>
       <c r="V47">
-        <v>0.98637293565470796</v>
+        <v>0.97593015213716805</v>
       </c>
       <c r="W47">
-        <v>0.99042331338717104</v>
+        <v>0.98719601711498095</v>
       </c>
       <c r="X47">
-        <v>0.980396394</v>
+        <v>0.96998896499999998</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1.0343134738056601</v>
+        <v>1.02860946683646</v>
       </c>
       <c r="B48">
-        <v>1.0828424270808501</v>
+        <v>1.08350871170579</v>
       </c>
       <c r="C48">
-        <v>1.0343134738056601</v>
+        <v>1.02860946683646</v>
       </c>
       <c r="D48">
-        <v>1.0565782152349099</v>
+        <v>1.0502903794851499</v>
       </c>
       <c r="E48">
-        <v>1.0419562565457401</v>
+        <v>1.03634374552418</v>
       </c>
       <c r="F48">
-        <v>1.0461130886791501</v>
+        <v>1.0387025293999499</v>
       </c>
       <c r="G48">
-        <v>1.08932376579041</v>
+        <v>1.09706664344233</v>
       </c>
       <c r="H48">
-        <v>1.1764120330252601</v>
+        <v>1.1861893271745501</v>
       </c>
       <c r="I48">
-        <v>1.08932376579041</v>
+        <v>1.09706664344233</v>
       </c>
       <c r="J48">
-        <v>1.1481958087484601</v>
+        <v>1.14966393580786</v>
       </c>
       <c r="K48">
-        <v>1.1043717142007301</v>
+        <v>1.11119245560764</v>
       </c>
       <c r="L48">
-        <v>1.1351841794709601</v>
+        <v>1.14844868664258</v>
       </c>
       <c r="M48">
-        <v>0.978169114095221</v>
+        <v>0.97895737684183404</v>
       </c>
       <c r="N48">
-        <v>0.99323408488185505</v>
+        <v>0.99605649576988597</v>
       </c>
       <c r="O48">
-        <v>0.978169114095221</v>
+        <v>0.97895737684183404</v>
       </c>
       <c r="P48">
-        <v>0.98462901152732296</v>
+        <v>0.98410391797752095</v>
       </c>
       <c r="Q48">
-        <v>0.97994430555594203</v>
+        <v>0.98057744778492295</v>
       </c>
       <c r="R48">
-        <v>0.98122475419854105</v>
+        <v>0.97994550016006599</v>
       </c>
       <c r="S48">
-        <v>1.0115669755135801</v>
+        <v>1.01448978150526</v>
       </c>
       <c r="T48">
-        <v>1.05101379778642</v>
+        <v>1.0565798370192001</v>
       </c>
       <c r="U48">
-        <v>1.0115669755135801</v>
+        <v>1.01448978150526</v>
       </c>
       <c r="V48">
-        <v>1.04709122435741</v>
+        <v>1.04682447270523</v>
       </c>
       <c r="W48">
-        <v>1.01561878449976</v>
+        <v>1.01814607707545</v>
       </c>
       <c r="X48">
-        <v>1.0361032370000001</v>
+        <v>1.042988013</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
@@ -4046,34 +4050,34 @@
         <v>1.12682715816943</v>
       </c>
       <c r="C49">
-        <v>1.0712185853897001</v>
+        <v>1.07134228416744</v>
       </c>
       <c r="D49">
         <v>1.09027217215713</v>
       </c>
       <c r="E49">
-        <v>1.08117721621001</v>
+        <v>1.08081515823208</v>
       </c>
       <c r="F49">
-        <v>1.08909381412907</v>
+        <v>1.08422645045824</v>
       </c>
       <c r="G49">
-        <v>1.2126021141291801</v>
+        <v>1.2156043051336201</v>
       </c>
       <c r="H49">
-        <v>1.25834116392077</v>
+        <v>1.2581349108931399</v>
       </c>
       <c r="I49">
-        <v>1.1490125403637901</v>
+        <v>1.1578520187058801</v>
       </c>
       <c r="J49">
-        <v>1.2126021141291801</v>
+        <v>1.2156043051336201</v>
       </c>
       <c r="K49">
-        <v>1.1839582831667399</v>
+        <v>1.18750538938787</v>
       </c>
       <c r="L49">
-        <v>1.2101493645283601</v>
+        <v>1.2146268931916</v>
       </c>
       <c r="M49">
         <v>0.97807872655017802</v>
@@ -4082,108 +4086,108 @@
         <v>0.987194570860497</v>
       </c>
       <c r="O49">
-        <v>0.97595444015764099</v>
+        <v>0.976183980265938</v>
       </c>
       <c r="P49">
         <v>0.97807872655017802</v>
       </c>
       <c r="Q49">
-        <v>0.97688149538114399</v>
+        <v>0.97689329287360005</v>
       </c>
       <c r="R49">
-        <v>0.97821828173482195</v>
+        <v>0.97505754254723498</v>
       </c>
       <c r="S49">
-        <v>1.0512052565652199</v>
+        <v>1.05077077998707</v>
       </c>
       <c r="T49">
-        <v>1.0552136672891499</v>
+        <v>1.0551101591045</v>
       </c>
       <c r="U49">
-        <v>1.0090897871603699</v>
+        <v>1.01467209517349</v>
       </c>
       <c r="V49">
-        <v>1.0512052565652199</v>
+        <v>1.05077077998707</v>
       </c>
       <c r="W49">
-        <v>1.0288500045547799</v>
+        <v>1.0301303335557099</v>
       </c>
       <c r="X49">
-        <v>1.0423840559999999</v>
+        <v>1.046319</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1.0467888714168501</v>
+        <v>1.02296787395152</v>
       </c>
       <c r="B50">
-        <v>1.0467888714168501</v>
+        <v>1.03785378129019</v>
       </c>
       <c r="C50">
-        <v>1.02383554720702</v>
+        <v>1.0059602997925099</v>
       </c>
       <c r="D50">
-        <v>1.0467888714168501</v>
+        <v>1.02296787395152</v>
       </c>
       <c r="E50">
-        <v>1.02796849624718</v>
+        <v>1.0093337208005899</v>
       </c>
       <c r="F50">
-        <v>1.0290041189129899</v>
+        <v>1.01073798310008</v>
       </c>
       <c r="G50">
-        <v>1.0458749890130199</v>
+        <v>1.0309235575944899</v>
       </c>
       <c r="H50">
-        <v>1.0458150242333799</v>
+        <v>1.0370133338668399</v>
       </c>
       <c r="I50">
-        <v>1.0520536624515699</v>
+        <v>1.05526842222659</v>
       </c>
       <c r="J50">
-        <v>1.0458749890130199</v>
+        <v>1.0309235575944899</v>
       </c>
       <c r="K50">
-        <v>1.0680267759276101</v>
+        <v>1.07077641948057</v>
       </c>
       <c r="L50">
-        <v>1.04116241043714</v>
+        <v>1.0291364651907999</v>
       </c>
       <c r="M50">
-        <v>0.97920684461644403</v>
+        <v>0.98117123229199799</v>
       </c>
       <c r="N50">
-        <v>0.97920684461644403</v>
+        <v>0.98371063072406195</v>
       </c>
       <c r="O50">
-        <v>0.96962285341554699</v>
+        <v>0.973881458031993</v>
       </c>
       <c r="P50">
-        <v>0.97920684461644403</v>
+        <v>0.98117123229199799</v>
       </c>
       <c r="Q50">
-        <v>0.97090288343020104</v>
+        <v>0.973932997797883</v>
       </c>
       <c r="R50">
-        <v>0.97181712340914495</v>
+        <v>0.97270176295334598</v>
       </c>
       <c r="S50">
-        <v>0.98389986377758298</v>
+        <v>0.98725848783220105</v>
       </c>
       <c r="T50">
-        <v>0.98385939260548105</v>
+        <v>0.98343736460576303</v>
       </c>
       <c r="U50">
-        <v>0.98823343694308396</v>
+        <v>1.0039644929571401</v>
       </c>
       <c r="V50">
-        <v>0.98389986377758298</v>
+        <v>0.98725848783220105</v>
       </c>
       <c r="W50">
-        <v>0.998006921543241</v>
+        <v>1.0098622262105901</v>
       </c>
       <c r="X50">
-        <v>0.98496524799999996</v>
+        <v>0.983351698</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.35">
@@ -4194,34 +4198,34 @@
         <v>1.1298520465386099</v>
       </c>
       <c r="C51">
-        <v>1.0784773729041699</v>
+        <v>1.0788658692472299</v>
       </c>
       <c r="D51">
         <v>1.0962711856635501</v>
       </c>
       <c r="E51">
-        <v>1.09013488095439</v>
+        <v>1.09019736915586</v>
       </c>
       <c r="F51">
-        <v>1.1010398111134101</v>
+        <v>1.0979838655219401</v>
       </c>
       <c r="G51">
-        <v>1.1959735177341999</v>
+        <v>1.19303249617262</v>
       </c>
       <c r="H51">
-        <v>1.1959735177341999</v>
+        <v>1.19303249617262</v>
       </c>
       <c r="I51">
-        <v>1.12158929317115</v>
+        <v>1.12950864103547</v>
       </c>
       <c r="J51">
-        <v>1.17166679638066</v>
+        <v>1.1694716575953401</v>
       </c>
       <c r="K51">
-        <v>1.1438139620860299</v>
+        <v>1.1455375245812001</v>
       </c>
       <c r="L51">
-        <v>1.17091057068393</v>
+        <v>1.17265353584259</v>
       </c>
       <c r="M51">
         <v>0.98654320381929805</v>
@@ -4230,34 +4234,34 @@
         <v>0.98654320381929805</v>
       </c>
       <c r="O51">
-        <v>0.97497894659173201</v>
+        <v>0.97441217594266005</v>
       </c>
       <c r="P51">
         <v>0.97532745748504301</v>
       </c>
       <c r="Q51">
-        <v>0.97539493928903898</v>
+        <v>0.97510850259168602</v>
       </c>
       <c r="R51">
-        <v>0.97766485416917004</v>
+        <v>0.97504072967968303</v>
       </c>
       <c r="S51">
-        <v>1.01347442298185</v>
+        <v>1.01156675838788</v>
       </c>
       <c r="T51">
-        <v>1.01347442298185</v>
+        <v>1.01156675838788</v>
       </c>
       <c r="U51">
-        <v>0.99869022900361304</v>
+        <v>0.99995639515277202</v>
       </c>
       <c r="V51">
-        <v>1.0171363457478999</v>
+        <v>1.01573103989578</v>
       </c>
       <c r="W51">
-        <v>1.0036931048537301</v>
+        <v>1.00342654195047</v>
       </c>
       <c r="X51">
-        <v>1.0102222030000001</v>
+        <v>1.0141609439999999</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.35">
@@ -4268,34 +4272,34 @@
         <v>1.0902451519967</v>
       </c>
       <c r="C52">
-        <v>1.0496616733694299</v>
+        <v>1.04918734167497</v>
       </c>
       <c r="D52">
         <v>1.0628354773324</v>
       </c>
       <c r="E52">
-        <v>1.05648595317236</v>
+        <v>1.05602358795387</v>
       </c>
       <c r="F52">
-        <v>1.06519839646782</v>
+        <v>1.06261773904308</v>
       </c>
       <c r="G52">
-        <v>1.1600659917837399</v>
+        <v>1.1639909531841</v>
       </c>
       <c r="H52">
-        <v>1.1600659917837399</v>
+        <v>1.1639909531841</v>
       </c>
       <c r="I52">
-        <v>1.0861827216348099</v>
+        <v>1.09074317732395</v>
       </c>
       <c r="J52">
-        <v>1.12912920679287</v>
+        <v>1.12791922435281</v>
       </c>
       <c r="K52">
-        <v>1.1040629669039601</v>
+        <v>1.10610664257378</v>
       </c>
       <c r="L52">
-        <v>1.13545905922858</v>
+        <v>1.13781334514955</v>
       </c>
       <c r="M52">
         <v>0.981996558018843</v>
@@ -4304,34 +4308,34 @@
         <v>0.981996558018843</v>
       </c>
       <c r="O52">
-        <v>0.97502555081139797</v>
+        <v>0.97536915474003005</v>
       </c>
       <c r="P52">
         <v>0.97657792706544699</v>
       </c>
       <c r="Q52">
-        <v>0.97524287027364298</v>
+        <v>0.97526747165759997</v>
       </c>
       <c r="R52">
-        <v>0.97658841054884604</v>
+        <v>0.97462318870122999</v>
       </c>
       <c r="S52">
-        <v>1.00610724766874</v>
+        <v>1.00694686769327</v>
       </c>
       <c r="T52">
-        <v>1.00610724766874</v>
+        <v>1.00694686769327</v>
       </c>
       <c r="U52">
-        <v>0.99074829044471402</v>
+        <v>0.99079394142739896</v>
       </c>
       <c r="V52">
-        <v>1.01017487059727</v>
+        <v>1.0075314020920001</v>
       </c>
       <c r="W52">
-        <v>0.99785581031390302</v>
+        <v>0.99650948956325303</v>
       </c>
       <c r="X52">
-        <v>1.0045467770000001</v>
+        <v>1.005806735</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
@@ -4342,34 +4346,34 @@
         <v>1.1006062353124699</v>
       </c>
       <c r="C53">
-        <v>1.0556707652567401</v>
+        <v>1.05629466730637</v>
       </c>
       <c r="D53">
         <v>1.0722839074697199</v>
       </c>
       <c r="E53">
-        <v>1.0662123471796701</v>
+        <v>1.0660722572483401</v>
       </c>
       <c r="F53">
-        <v>1.0717786332496699</v>
+        <v>1.0683128384318701</v>
       </c>
       <c r="G53">
-        <v>1.32000578041399</v>
+        <v>1.3182254911178499</v>
       </c>
       <c r="H53">
-        <v>1.32000578041399</v>
+        <v>1.3182254911178499</v>
       </c>
       <c r="I53">
-        <v>1.1963672627678099</v>
+        <v>1.2148405151544599</v>
       </c>
       <c r="J53">
-        <v>1.2722925022231499</v>
+        <v>1.2753414185835901</v>
       </c>
       <c r="K53">
-        <v>1.2544545331594701</v>
+        <v>1.2596387862435301</v>
       </c>
       <c r="L53">
-        <v>1.26138320864091</v>
+        <v>1.26891816483931</v>
       </c>
       <c r="M53">
         <v>0.97769448934758496</v>
@@ -4378,34 +4382,34 @@
         <v>0.97769448934758496</v>
       </c>
       <c r="O53">
-        <v>0.97021986891521295</v>
+        <v>0.97058289154410304</v>
       </c>
       <c r="P53">
         <v>0.97178265770602901</v>
       </c>
       <c r="Q53">
-        <v>0.97056405103467303</v>
+        <v>0.97069506372551595</v>
       </c>
       <c r="R53">
-        <v>0.97140919123045499</v>
+        <v>0.96975262944519403</v>
       </c>
       <c r="S53">
-        <v>1.1413968845231299</v>
+        <v>1.1397782646271299</v>
       </c>
       <c r="T53">
-        <v>1.1413968845231299</v>
+        <v>1.1397782646271299</v>
       </c>
       <c r="U53">
-        <v>1.05891657218141</v>
+        <v>1.0723521740576401</v>
       </c>
       <c r="V53">
-        <v>1.13080109724028</v>
+        <v>1.12973581185589</v>
       </c>
       <c r="W53">
-        <v>1.1067987997530699</v>
+        <v>1.1095683886980401</v>
       </c>
       <c r="X53">
-        <v>1.116361696</v>
+        <v>1.1199720209999999</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
@@ -4416,34 +4420,34 @@
         <v>1.09682591860637</v>
       </c>
       <c r="C54">
-        <v>1.05177667241471</v>
+        <v>1.0530721908860501</v>
       </c>
       <c r="D54">
         <v>1.0678104320565001</v>
       </c>
       <c r="E54">
-        <v>1.0613915252508499</v>
+        <v>1.06143819558901</v>
       </c>
       <c r="F54">
-        <v>1.0699271746944701</v>
+        <v>1.0656169325990199</v>
       </c>
       <c r="G54">
-        <v>1.38055288889147</v>
+        <v>1.3669824474377099</v>
       </c>
       <c r="H54">
-        <v>1.38055288889147</v>
+        <v>1.3669824474377099</v>
       </c>
       <c r="I54">
-        <v>1.25016707422438</v>
+        <v>1.2599640779015699</v>
       </c>
       <c r="J54">
-        <v>1.33098198222078</v>
+        <v>1.3260515000903299</v>
       </c>
       <c r="K54">
-        <v>1.3165805845793499</v>
+        <v>1.31237242185907</v>
       </c>
       <c r="L54">
-        <v>1.3256930626644301</v>
+        <v>1.32692098322274</v>
       </c>
       <c r="M54">
         <v>0.97574749730922605</v>
@@ -4452,34 +4456,34 @@
         <v>0.97574749730922605</v>
       </c>
       <c r="O54">
-        <v>0.96663934396337303</v>
+        <v>0.96653434377861203</v>
       </c>
       <c r="P54">
         <v>0.96816862744223597</v>
       </c>
       <c r="Q54">
-        <v>0.96723385439807397</v>
+        <v>0.96711779988907698</v>
       </c>
       <c r="R54">
-        <v>0.96873157198202597</v>
+        <v>0.96730181933814097</v>
       </c>
       <c r="S54">
-        <v>1.1794538104022101</v>
+        <v>1.16934802715839</v>
       </c>
       <c r="T54">
-        <v>1.1794538104022101</v>
+        <v>1.16934802715839</v>
       </c>
       <c r="U54">
-        <v>1.08130976005741</v>
+        <v>1.0929551426841999</v>
       </c>
       <c r="V54">
-        <v>1.1538984936019401</v>
+        <v>1.1484347010368301</v>
       </c>
       <c r="W54">
-        <v>1.13869060129946</v>
+        <v>1.13601873693435</v>
       </c>
       <c r="X54">
-        <v>1.1484876340000001</v>
+        <v>1.151435143</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
@@ -4490,34 +4494,34 @@
         <v>1.1019894303650499</v>
       </c>
       <c r="C55">
-        <v>1.05517099538101</v>
+        <v>1.0566940467720201</v>
       </c>
       <c r="D55">
         <v>1.0728323282042</v>
       </c>
       <c r="E55">
-        <v>1.0638201487710499</v>
+        <v>1.06428120567301</v>
       </c>
       <c r="F55">
-        <v>1.0740578031119501</v>
+        <v>1.07022423756136</v>
       </c>
       <c r="G55">
-        <v>1.27373134890293</v>
+        <v>1.2696090088870999</v>
       </c>
       <c r="H55">
-        <v>1.27373134890293</v>
+        <v>1.2696090088870999</v>
       </c>
       <c r="I55">
-        <v>1.1691095237042901</v>
+        <v>1.1701446719080599</v>
       </c>
       <c r="J55">
-        <v>1.22627132706124</v>
+        <v>1.2270403923845601</v>
       </c>
       <c r="K55">
-        <v>1.2101464700184399</v>
+        <v>1.20720060720352</v>
       </c>
       <c r="L55">
-        <v>1.2249961759219801</v>
+        <v>1.22263920219012</v>
       </c>
       <c r="M55">
         <v>0.98024972020211598</v>
@@ -4526,34 +4530,34 @@
         <v>0.98024972020211598</v>
       </c>
       <c r="O55">
-        <v>0.97102434775058999</v>
+        <v>0.97168914849794996</v>
       </c>
       <c r="P55">
         <v>0.97335889386589203</v>
       </c>
       <c r="Q55">
-        <v>0.97177044373562405</v>
+        <v>0.97189350213533998</v>
       </c>
       <c r="R55">
-        <v>0.97350317209852399</v>
+        <v>0.97168311238427696</v>
       </c>
       <c r="S55">
-        <v>1.0661090521989101</v>
+        <v>1.0628322018455301</v>
       </c>
       <c r="T55">
-        <v>1.0661090521989101</v>
+        <v>1.0628322018455301</v>
       </c>
       <c r="U55">
-        <v>1.01536994919688</v>
+        <v>1.0163620580509201</v>
       </c>
       <c r="V55">
-        <v>1.05356646635909</v>
+        <v>1.05222532385679</v>
       </c>
       <c r="W55">
-        <v>1.0384008435244001</v>
+        <v>1.0365049907450901</v>
       </c>
       <c r="X55">
-        <v>1.0479685540000001</v>
+        <v>1.050309535</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
@@ -4564,34 +4568,34 @@
         <v>1.09766471706868</v>
       </c>
       <c r="C56">
-        <v>1.0579654468158399</v>
+        <v>1.0583512023534301</v>
       </c>
       <c r="D56">
         <v>1.07228792049579</v>
       </c>
       <c r="E56">
-        <v>1.0626369998516201</v>
+        <v>1.06265565531827</v>
       </c>
       <c r="F56">
-        <v>1.06838127575912</v>
+        <v>1.0646554134684501</v>
       </c>
       <c r="G56">
-        <v>1.13796356773111</v>
+        <v>1.13756844834578</v>
       </c>
       <c r="H56">
-        <v>1.13796356773111</v>
+        <v>1.13756844834578</v>
       </c>
       <c r="I56">
-        <v>1.06979229122494</v>
+        <v>1.07152327985253</v>
       </c>
       <c r="J56">
-        <v>1.1040578207321601</v>
+        <v>1.1052406097259799</v>
       </c>
       <c r="K56">
-        <v>1.0792120222569499</v>
+        <v>1.07967897188436</v>
       </c>
       <c r="L56">
-        <v>1.1061038145689901</v>
+        <v>1.1061976745028099</v>
       </c>
       <c r="M56">
         <v>0.98599113129097904</v>
@@ -4600,34 +4604,34 @@
         <v>0.98599113129097904</v>
       </c>
       <c r="O56">
-        <v>0.97649256669589402</v>
+        <v>0.97646687059692405</v>
       </c>
       <c r="P56">
         <v>0.97865624803071705</v>
       </c>
       <c r="Q56">
-        <v>0.97703860602580395</v>
+        <v>0.97690539779562702</v>
       </c>
       <c r="R56">
-        <v>0.977971796400668</v>
+        <v>0.97542955568265</v>
       </c>
       <c r="S56">
-        <v>0.99262090527779501</v>
+        <v>0.991641093459245</v>
       </c>
       <c r="T56">
-        <v>0.99262090527779501</v>
+        <v>0.991641093459245</v>
       </c>
       <c r="U56">
-        <v>0.97974013238877899</v>
+        <v>0.97618113095389702</v>
       </c>
       <c r="V56">
-        <v>0.98797865797286499</v>
+        <v>0.98721264295543398</v>
       </c>
       <c r="W56">
-        <v>0.98332633021805904</v>
+        <v>0.97983224383290002</v>
       </c>
       <c r="X56">
-        <v>0.98769511899999995</v>
+        <v>0.98738645800000002</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
@@ -4638,34 +4642,34 @@
         <v>1.1212850353909001</v>
       </c>
       <c r="C57">
-        <v>1.0711481113380501</v>
+        <v>1.07242563882135</v>
       </c>
       <c r="D57">
         <v>1.0892341492303399</v>
       </c>
       <c r="E57">
-        <v>1.0824157330491599</v>
+        <v>1.0826346635198001</v>
       </c>
       <c r="F57">
-        <v>1.0888144790672101</v>
+        <v>1.0855194154905401</v>
       </c>
       <c r="G57">
-        <v>1.1920157709257</v>
+        <v>1.18502535894239</v>
       </c>
       <c r="H57">
-        <v>1.1920157709257</v>
+        <v>1.18502535894239</v>
       </c>
       <c r="I57">
-        <v>1.1225945512359801</v>
+        <v>1.1189215387717699</v>
       </c>
       <c r="J57">
-        <v>1.1676133771717601</v>
+        <v>1.16205589250694</v>
       </c>
       <c r="K57">
-        <v>1.14040470403012</v>
+        <v>1.1338691551394999</v>
       </c>
       <c r="L57">
-        <v>1.1723567151199099</v>
+        <v>1.1648924663851501</v>
       </c>
       <c r="M57">
         <v>0.98685827982108698</v>
@@ -4674,34 +4678,34 @@
         <v>0.98685827982108698</v>
       </c>
       <c r="O57">
-        <v>0.97566949658870095</v>
+        <v>0.97600011454093305</v>
       </c>
       <c r="P57">
         <v>0.977670889345438</v>
       </c>
       <c r="Q57">
-        <v>0.97688329554706599</v>
+        <v>0.97695643054060499</v>
       </c>
       <c r="R57">
-        <v>0.97806405587615597</v>
+        <v>0.97442914206968501</v>
       </c>
       <c r="S57">
-        <v>1.0266894302837699</v>
+        <v>1.0224900969850099</v>
       </c>
       <c r="T57">
-        <v>1.0266894302837699</v>
+        <v>1.0224900969850099</v>
       </c>
       <c r="U57">
-        <v>1.00267897961963</v>
+        <v>1.0006692002280599</v>
       </c>
       <c r="V57">
-        <v>1.02689817418067</v>
+        <v>1.0230425509061101</v>
       </c>
       <c r="W57">
-        <v>1.0116607719436801</v>
+        <v>1.0074199229649801</v>
       </c>
       <c r="X57">
-        <v>1.0265577050000001</v>
+        <v>1.0216456810000001</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
@@ -4712,34 +4716,34 @@
         <v>1.1146857042959399</v>
       </c>
       <c r="C58">
-        <v>1.07182157721627</v>
+        <v>1.07170097599111</v>
       </c>
       <c r="D58">
         <v>1.08661655074368</v>
       </c>
       <c r="E58">
-        <v>1.07868469274392</v>
+        <v>1.0785246219662401</v>
       </c>
       <c r="F58">
-        <v>1.0811710550836799</v>
+        <v>1.0760169574552501</v>
       </c>
       <c r="G58">
-        <v>1.2643651679860599</v>
+        <v>1.25966918167625</v>
       </c>
       <c r="H58">
-        <v>1.2643651679860599</v>
+        <v>1.25966918167625</v>
       </c>
       <c r="I58">
-        <v>1.16874346696816</v>
+        <v>1.1684802300041901</v>
       </c>
       <c r="J58">
-        <v>1.2208507290688499</v>
+        <v>1.2236675331531099</v>
       </c>
       <c r="K58">
-        <v>1.20238613401292</v>
+        <v>1.2030890843653299</v>
       </c>
       <c r="L58">
-        <v>1.2251135924251499</v>
+        <v>1.22110757127735</v>
       </c>
       <c r="M58">
         <v>0.98322034528133295</v>
@@ -4748,34 +4752,34 @@
         <v>0.98322034528133295</v>
       </c>
       <c r="O58">
-        <v>0.97256633714202101</v>
+        <v>0.97274107118651498</v>
       </c>
       <c r="P58">
         <v>0.97529639013367697</v>
       </c>
       <c r="Q58">
-        <v>0.97349443193329799</v>
+        <v>0.97358399643617199</v>
       </c>
       <c r="R58">
-        <v>0.97407206589529605</v>
+        <v>0.97103541618188605</v>
       </c>
       <c r="S58">
-        <v>1.05824449161497</v>
+        <v>1.05546578470962</v>
       </c>
       <c r="T58">
-        <v>1.05824449161497</v>
+        <v>1.05546578470962</v>
       </c>
       <c r="U58">
-        <v>1.01677981531615</v>
+        <v>1.01305178194033</v>
       </c>
       <c r="V58">
-        <v>1.0505313712545501</v>
+        <v>1.0496819026291999</v>
       </c>
       <c r="W58">
-        <v>1.0381107603944499</v>
+        <v>1.03547517656407</v>
       </c>
       <c r="X58">
-        <v>1.0497499290000001</v>
+        <v>1.047385797</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
@@ -4786,34 +4790,34 @@
         <v>1.0880755216348501</v>
       </c>
       <c r="C59">
-        <v>1.05569483322635</v>
+        <v>1.0558160518422199</v>
       </c>
       <c r="D59">
         <v>1.0691390914346199</v>
       </c>
       <c r="E59">
-        <v>1.0602331565072001</v>
+        <v>1.0597208589978599</v>
       </c>
       <c r="F59">
-        <v>1.06784843469538</v>
+        <v>1.0619158284458501</v>
       </c>
       <c r="G59">
-        <v>1.1638704335891299</v>
+        <v>1.16509906178543</v>
       </c>
       <c r="H59">
-        <v>1.1638704335891299</v>
+        <v>1.16509906178543</v>
       </c>
       <c r="I59">
-        <v>1.09649573152068</v>
+        <v>1.1078396562250299</v>
       </c>
       <c r="J59">
-        <v>1.14029639232282</v>
+        <v>1.1439367562474601</v>
       </c>
       <c r="K59">
-        <v>1.11684126949395</v>
+        <v>1.12359005119986</v>
       </c>
       <c r="L59">
-        <v>1.13654526665249</v>
+        <v>1.1418640056032201</v>
       </c>
       <c r="M59">
         <v>0.98382913337156797</v>
@@ -4822,34 +4826,34 @@
         <v>0.98382913337156797</v>
       </c>
       <c r="O59">
-        <v>0.97907342673832698</v>
+        <v>0.97968991102391401</v>
       </c>
       <c r="P59">
         <v>0.98171301559665602</v>
       </c>
       <c r="Q59">
-        <v>0.97976329263225703</v>
+        <v>0.97992647801396704</v>
       </c>
       <c r="R59">
-        <v>0.98052324515642797</v>
+        <v>0.97762167885065598</v>
       </c>
       <c r="S59">
-        <v>1.0275544480744201</v>
+        <v>1.03005381301735</v>
       </c>
       <c r="T59">
-        <v>1.0275544480744201</v>
+        <v>1.03005381301735</v>
       </c>
       <c r="U59">
-        <v>1.0037884375941699</v>
+        <v>1.0119347799678899</v>
       </c>
       <c r="V59">
-        <v>1.03052301512613</v>
+        <v>1.03306262795635</v>
       </c>
       <c r="W59">
-        <v>1.01897057377682</v>
+        <v>1.0225888682262101</v>
       </c>
       <c r="X59">
-        <v>1.0248367</v>
+        <v>1.029330289</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
@@ -4860,34 +4864,34 @@
         <v>1.1093562654137501</v>
       </c>
       <c r="C60">
-        <v>1.06512830489197</v>
+        <v>1.0660592747839699</v>
       </c>
       <c r="D60">
         <v>1.0821025343812101</v>
       </c>
       <c r="E60">
-        <v>1.0732753704412501</v>
+        <v>1.0732426818201699</v>
       </c>
       <c r="F60">
-        <v>1.0791573584618499</v>
+        <v>1.0754158647505201</v>
       </c>
       <c r="G60">
-        <v>1.16769300560514</v>
+        <v>1.1695286282867701</v>
       </c>
       <c r="H60">
-        <v>1.16769300560514</v>
+        <v>1.1695286282867701</v>
       </c>
       <c r="I60">
-        <v>1.09399429983121</v>
+        <v>1.10405087275452</v>
       </c>
       <c r="J60">
-        <v>1.1421309796365999</v>
+        <v>1.1447623481312099</v>
       </c>
       <c r="K60">
-        <v>1.1149265222661</v>
+        <v>1.12098898956061</v>
       </c>
       <c r="L60">
-        <v>1.1385283315225301</v>
+        <v>1.1419563483459401</v>
       </c>
       <c r="M60">
         <v>0.97917133004551205</v>
@@ -4896,34 +4900,34 @@
         <v>0.97917133004551205</v>
       </c>
       <c r="O60">
-        <v>0.97151012791739</v>
+        <v>0.97216740561793002</v>
       </c>
       <c r="P60">
         <v>0.97391811434486097</v>
       </c>
       <c r="Q60">
-        <v>0.971980232514432</v>
+        <v>0.97207639950754399</v>
       </c>
       <c r="R60">
-        <v>0.972889485062995</v>
+        <v>0.96972118267970597</v>
       </c>
       <c r="S60">
-        <v>1.01662214403399</v>
+        <v>1.0158760424392801</v>
       </c>
       <c r="T60">
-        <v>1.01662214403399</v>
+        <v>1.0158760424392801</v>
       </c>
       <c r="U60">
-        <v>0.99500144695734805</v>
+        <v>0.99530339102841703</v>
       </c>
       <c r="V60">
-        <v>1.01804344742436</v>
+        <v>1.0163077831821701</v>
       </c>
       <c r="W60">
-        <v>1.0036726582369599</v>
+        <v>1.0029902033040301</v>
       </c>
       <c r="X60">
-        <v>1.011629911</v>
+        <v>1.0121725079999999</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
@@ -4934,34 +4938,34 @@
         <v>1.1106467267442399</v>
       </c>
       <c r="C61">
-        <v>1.0570331923791301</v>
+        <v>1.05765060610944</v>
       </c>
       <c r="D61">
         <v>1.0755231966682799</v>
       </c>
       <c r="E61">
-        <v>1.07079207768662</v>
+        <v>1.07025802998661</v>
       </c>
       <c r="F61">
-        <v>1.08061321113444</v>
+        <v>1.0790518838395999</v>
       </c>
       <c r="G61">
-        <v>1.27081565588797</v>
+        <v>1.2707276253161801</v>
       </c>
       <c r="H61">
-        <v>1.27081565588797</v>
+        <v>1.2707276253161801</v>
       </c>
       <c r="I61">
-        <v>1.1722775470454101</v>
+        <v>1.17171324500036</v>
       </c>
       <c r="J61">
-        <v>1.2278519752978401</v>
+        <v>1.2254527402777</v>
       </c>
       <c r="K61">
-        <v>1.20513909855851</v>
+        <v>1.2036761468842601</v>
       </c>
       <c r="L61">
-        <v>1.22661216152982</v>
+        <v>1.2262332426751801</v>
       </c>
       <c r="M61">
         <v>0.98168729578477998</v>
@@ -4970,34 +4974,34 @@
         <v>0.98168729578477998</v>
       </c>
       <c r="O61">
-        <v>0.97242268997039705</v>
+        <v>0.97304081962332201</v>
       </c>
       <c r="P61">
         <v>0.97354880734698401</v>
       </c>
       <c r="Q61">
-        <v>0.97330410138329904</v>
+        <v>0.973445760770979</v>
       </c>
       <c r="R61">
-        <v>0.97479036726297597</v>
+        <v>0.97271660127533799</v>
       </c>
       <c r="S61">
-        <v>1.0507094244745501</v>
+        <v>1.05306428659295</v>
       </c>
       <c r="T61">
-        <v>1.0507094244745501</v>
+        <v>1.05306428659295</v>
       </c>
       <c r="U61">
-        <v>1.0106123430218401</v>
+        <v>1.01716982064326</v>
       </c>
       <c r="V61">
-        <v>1.0457085430645401</v>
+        <v>1.0456672552492301</v>
       </c>
       <c r="W61">
-        <v>1.0260678241992101</v>
+        <v>1.02825665102547</v>
       </c>
       <c r="X61">
-        <v>1.037724877</v>
+        <v>1.043338973</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
@@ -5008,34 +5012,34 @@
         <v>1.11160249345157</v>
       </c>
       <c r="C62">
-        <v>1.06481739690791</v>
+        <v>1.0653319417117999</v>
       </c>
       <c r="D62">
         <v>1.0821449853224601</v>
       </c>
       <c r="E62">
-        <v>1.07638993875191</v>
+        <v>1.0760236902087501</v>
       </c>
       <c r="F62">
-        <v>1.07941404563203</v>
+        <v>1.0775462777849001</v>
       </c>
       <c r="G62">
-        <v>1.21943152647217</v>
+        <v>1.2229716517706599</v>
       </c>
       <c r="H62">
-        <v>1.21943152647217</v>
+        <v>1.2229716517706599</v>
       </c>
       <c r="I62">
-        <v>1.12943696179722</v>
+        <v>1.1429320478559599</v>
       </c>
       <c r="J62">
-        <v>1.18239792906054</v>
+        <v>1.1897819027774801</v>
       </c>
       <c r="K62">
-        <v>1.15923142633156</v>
+        <v>1.1666667894321601</v>
       </c>
       <c r="L62">
-        <v>1.1786678234544501</v>
+        <v>1.18857034045145</v>
       </c>
       <c r="M62">
         <v>0.974853278505738</v>
@@ -5044,34 +5048,34 @@
         <v>0.974853278505738</v>
       </c>
       <c r="O62">
-        <v>0.96738016776646496</v>
+        <v>0.96770974805093302</v>
       </c>
       <c r="P62">
         <v>0.96835766206601903</v>
       </c>
       <c r="Q62">
-        <v>0.96842646172476099</v>
+        <v>0.96828675242572604</v>
       </c>
       <c r="R62">
-        <v>0.96891692456632095</v>
+        <v>0.96638874154965104</v>
       </c>
       <c r="S62">
-        <v>1.02335148949021</v>
+        <v>1.02888180633943</v>
       </c>
       <c r="T62">
-        <v>1.02335148949021</v>
+        <v>1.02888180633943</v>
       </c>
       <c r="U62">
-        <v>0.98900589181924803</v>
+        <v>1.0042974048742199</v>
       </c>
       <c r="V62">
-        <v>1.0214584237977999</v>
+        <v>1.02737214940931</v>
       </c>
       <c r="W62">
-        <v>1.00255833277954</v>
+        <v>1.01008178138928</v>
       </c>
       <c r="X62">
-        <v>1.0130895550000001</v>
+        <v>1.0229421190000001</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
@@ -5082,34 +5086,34 @@
         <v>1.1593926042072999</v>
       </c>
       <c r="C63">
-        <v>1.11787462385956</v>
+        <v>1.11779573738695</v>
       </c>
       <c r="D63">
         <v>1.13611547111622</v>
       </c>
       <c r="E63">
-        <v>1.11905702465447</v>
+        <v>1.1183707713584301</v>
       </c>
       <c r="F63">
-        <v>1.1228284050948401</v>
+        <v>1.1182696045605001</v>
       </c>
       <c r="G63">
-        <v>1.20082668831252</v>
+        <v>1.2019844647140601</v>
       </c>
       <c r="H63">
-        <v>1.20082668831252</v>
+        <v>1.2019844647140601</v>
       </c>
       <c r="I63">
-        <v>1.1486329200143299</v>
+        <v>1.1551756751123201</v>
       </c>
       <c r="J63">
-        <v>1.2247428558200499</v>
+        <v>1.22040923445047</v>
       </c>
       <c r="K63">
-        <v>1.1520045791204401</v>
+        <v>1.1536772038497101</v>
       </c>
       <c r="L63">
-        <v>1.1702321900009101</v>
+        <v>1.1776488327134</v>
       </c>
       <c r="M63">
         <v>0.98418791716014797</v>
@@ -5118,34 +5122,34 @@
         <v>0.98418791716014797</v>
       </c>
       <c r="O63">
-        <v>0.97925123985958196</v>
+        <v>0.97938845470527303</v>
       </c>
       <c r="P63">
         <v>0.98079890414651205</v>
       </c>
       <c r="Q63">
-        <v>0.97537490059924503</v>
+        <v>0.97524440007242996</v>
       </c>
       <c r="R63">
-        <v>0.97606229677426604</v>
+        <v>0.97325190588211297</v>
       </c>
       <c r="S63">
-        <v>1.01649111303791</v>
+        <v>1.01538277986124</v>
       </c>
       <c r="T63">
-        <v>1.01649111303791</v>
+        <v>1.01538277986124</v>
       </c>
       <c r="U63">
-        <v>0.99279329601337396</v>
+        <v>0.99177620609086503</v>
       </c>
       <c r="V63">
-        <v>1.0367063161232299</v>
+        <v>1.02755720990537</v>
       </c>
       <c r="W63">
-        <v>1.00283059233475</v>
+        <v>0.99816545454948302</v>
       </c>
       <c r="X63">
-        <v>1.0076706900000001</v>
+        <v>1.0066609959999999</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
@@ -5156,34 +5160,34 @@
         <v>1.1213868397234401</v>
       </c>
       <c r="C64">
-        <v>1.0671951274463101</v>
+        <v>1.06901566675041</v>
       </c>
       <c r="D64">
         <v>1.0871944431901801</v>
       </c>
       <c r="E64">
-        <v>1.0807065654875001</v>
+        <v>1.0812245498066499</v>
       </c>
       <c r="F64">
-        <v>1.08405481576783</v>
+        <v>1.0810933044530999</v>
       </c>
       <c r="G64">
-        <v>1.30942738259781</v>
+        <v>1.31191604628598</v>
       </c>
       <c r="H64">
-        <v>1.30942738259781</v>
+        <v>1.31191604628598</v>
       </c>
       <c r="I64">
-        <v>1.1921766119942301</v>
+        <v>1.20611327998534</v>
       </c>
       <c r="J64">
-        <v>1.2650489480960001</v>
+        <v>1.26657989624621</v>
       </c>
       <c r="K64">
-        <v>1.24553533735553</v>
+        <v>1.25023168872367</v>
       </c>
       <c r="L64">
-        <v>1.2562801098008201</v>
+        <v>1.26484355714958</v>
       </c>
       <c r="M64">
         <v>0.98112438199255503</v>
@@ -5192,34 +5196,34 @@
         <v>0.98112438199255503</v>
       </c>
       <c r="O64">
-        <v>0.97175721570890194</v>
+        <v>0.97237291946238302</v>
       </c>
       <c r="P64">
         <v>0.97430294408571205</v>
       </c>
       <c r="Q64">
-        <v>0.97324085507282199</v>
+        <v>0.97334213205814202</v>
       </c>
       <c r="R64">
-        <v>0.97376690067904503</v>
+        <v>0.97081724007351899</v>
       </c>
       <c r="S64">
-        <v>1.1179754294127</v>
+        <v>1.11603134167592</v>
       </c>
       <c r="T64">
-        <v>1.1179754294127</v>
+        <v>1.11603134167592</v>
       </c>
       <c r="U64">
-        <v>1.0476513291421801</v>
+        <v>1.0573000183655701</v>
       </c>
       <c r="V64">
-        <v>1.1069322352594499</v>
+        <v>1.10591911398329</v>
       </c>
       <c r="W64">
-        <v>1.0869163453022701</v>
+        <v>1.08790741718559</v>
       </c>
       <c r="X64">
-        <v>1.0969327230000001</v>
+        <v>1.102333123</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
@@ -5230,34 +5234,34 @@
         <v>1.0467888714168501</v>
       </c>
       <c r="C65">
-        <v>1.02383554720702</v>
+        <v>1.01898971402236</v>
       </c>
       <c r="D65">
-        <v>1.0467888714168501</v>
+        <v>1.0337966965081999</v>
       </c>
       <c r="E65">
-        <v>1.02796849624718</v>
+        <v>1.02246188220503</v>
       </c>
       <c r="F65">
-        <v>1.0290041189129899</v>
+        <v>1.0250264108464699</v>
       </c>
       <c r="G65">
-        <v>1.0458150242333799</v>
+        <v>1.05029624164827</v>
       </c>
       <c r="H65">
-        <v>1.0458150242333799</v>
+        <v>1.05029624164827</v>
       </c>
       <c r="I65">
-        <v>1.0520536624515699</v>
+        <v>1.0566160916132601</v>
       </c>
       <c r="J65">
-        <v>1.0458749890130199</v>
+        <v>1.0464472148369699</v>
       </c>
       <c r="K65">
-        <v>1.0680267759276101</v>
+        <v>1.0711163207649801</v>
       </c>
       <c r="L65">
-        <v>1.04116241043714</v>
+        <v>1.0425090582168799</v>
       </c>
       <c r="M65">
         <v>0.97920684461644403</v>
@@ -5266,478 +5270,478 @@
         <v>0.97920684461644403</v>
       </c>
       <c r="O65">
-        <v>0.96962285341554599</v>
+        <v>0.97247752860853598</v>
       </c>
       <c r="P65">
-        <v>0.97920684461644303</v>
+        <v>0.97826071225528599</v>
       </c>
       <c r="Q65">
-        <v>0.97090288343020104</v>
+        <v>0.97287601817300695</v>
       </c>
       <c r="R65">
-        <v>0.97181712340914495</v>
+        <v>0.97163126878352701</v>
       </c>
       <c r="S65">
-        <v>0.98385939260548105</v>
+        <v>0.98705538565031103</v>
       </c>
       <c r="T65">
-        <v>0.98385939260548105</v>
+        <v>0.98705538565031103</v>
       </c>
       <c r="U65">
-        <v>0.98823343694308396</v>
+        <v>0.99928533923917895</v>
       </c>
       <c r="V65">
-        <v>0.98389986377758198</v>
+        <v>0.99020031562668098</v>
       </c>
       <c r="W65">
-        <v>0.998006921543241</v>
+        <v>1.0052149120821701</v>
       </c>
       <c r="X65">
-        <v>0.98496524799999996</v>
+        <v>0.988558084</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1.0467888714168501</v>
+        <v>1.04951883344956</v>
       </c>
       <c r="B66">
-        <v>1.0467888714168501</v>
+        <v>1.04951883344956</v>
       </c>
       <c r="C66">
-        <v>1.02383554720702</v>
+        <v>1.0145314131729199</v>
       </c>
       <c r="D66">
-        <v>1.0467888714168501</v>
+        <v>1.0347274625803899</v>
       </c>
       <c r="E66">
-        <v>1.02796849624718</v>
+        <v>1.0225840831611399</v>
       </c>
       <c r="F66">
-        <v>1.0290041189129899</v>
+        <v>1.0238286771818901</v>
       </c>
       <c r="G66">
-        <v>1.0458150242333799</v>
+        <v>1.0508790446171301</v>
       </c>
       <c r="H66">
-        <v>1.0458150242333799</v>
+        <v>1.0508790446171301</v>
       </c>
       <c r="I66">
-        <v>1.0520536624515699</v>
+        <v>1.0677876318236099</v>
       </c>
       <c r="J66">
-        <v>1.0458749890130199</v>
+        <v>1.04467004176066</v>
       </c>
       <c r="K66">
-        <v>1.0680267759276101</v>
+        <v>1.07783658014255</v>
       </c>
       <c r="L66">
-        <v>1.04116241043714</v>
+        <v>1.0409716359134</v>
       </c>
       <c r="M66">
-        <v>0.97920684461644403</v>
+        <v>0.97439765247316401</v>
       </c>
       <c r="N66">
-        <v>0.97920684461644403</v>
+        <v>0.97439765247316401</v>
       </c>
       <c r="O66">
-        <v>0.96962285341554599</v>
+        <v>0.96730899998976605</v>
       </c>
       <c r="P66">
-        <v>0.97920684461644303</v>
+        <v>0.97383532759147295</v>
       </c>
       <c r="Q66">
-        <v>0.97090288343020104</v>
+        <v>0.96786579695520603</v>
       </c>
       <c r="R66">
-        <v>0.97181712340914495</v>
+        <v>0.96589184804261596</v>
       </c>
       <c r="S66">
-        <v>0.98385939260548105</v>
+        <v>0.97943724144288902</v>
       </c>
       <c r="T66">
-        <v>0.98385939260548105</v>
+        <v>0.97943724144288902</v>
       </c>
       <c r="U66">
-        <v>0.98823343694308396</v>
+        <v>1.0028834549333301</v>
       </c>
       <c r="V66">
-        <v>0.98389986377758198</v>
+        <v>0.98458592773834497</v>
       </c>
       <c r="W66">
-        <v>0.998006921543241</v>
+        <v>1.0004930534682499</v>
       </c>
       <c r="X66">
-        <v>0.98496524799999996</v>
+        <v>0.97917711200000002</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1.0467888714168501</v>
+        <v>1.03361954444392</v>
       </c>
       <c r="B67">
-        <v>1.0467888714168501</v>
+        <v>1.03361954444392</v>
       </c>
       <c r="C67">
-        <v>1.02383554720702</v>
+        <v>1.00625557332676</v>
       </c>
       <c r="D67">
-        <v>1.0467888714168501</v>
+        <v>1.0207957571689199</v>
       </c>
       <c r="E67">
-        <v>1.02796849624718</v>
+        <v>1.0107303963871901</v>
       </c>
       <c r="F67">
-        <v>1.0290041189129899</v>
+        <v>1.01201112811852</v>
       </c>
       <c r="G67">
-        <v>1.0458150242333799</v>
+        <v>1.0433895818086201</v>
       </c>
       <c r="H67">
-        <v>1.0458150242333799</v>
+        <v>1.0433895818086201</v>
       </c>
       <c r="I67">
-        <v>1.0520536624515699</v>
+        <v>1.0545733778759601</v>
       </c>
       <c r="J67">
-        <v>1.0458749890130199</v>
+        <v>1.03666559704844</v>
       </c>
       <c r="K67">
-        <v>1.0680267759276101</v>
+        <v>1.0707176201042601</v>
       </c>
       <c r="L67">
-        <v>1.04116241043714</v>
+        <v>1.0387241292273499</v>
       </c>
       <c r="M67">
-        <v>0.97920684461644403</v>
+        <v>0.96970999021198201</v>
       </c>
       <c r="N67">
-        <v>0.97920684461644403</v>
+        <v>0.96970999021198201</v>
       </c>
       <c r="O67">
-        <v>0.96962285341554599</v>
+        <v>0.96288269935350301</v>
       </c>
       <c r="P67">
-        <v>0.97920684461644303</v>
+        <v>0.96807550574286105</v>
       </c>
       <c r="Q67">
-        <v>0.97090288343020104</v>
+        <v>0.96444018781640894</v>
       </c>
       <c r="R67">
-        <v>0.97181712340914495</v>
+        <v>0.96362421689753697</v>
       </c>
       <c r="S67">
-        <v>0.98385939260548105</v>
+        <v>0.97339409554593104</v>
       </c>
       <c r="T67">
-        <v>0.98385939260548105</v>
+        <v>0.97339409554593104</v>
       </c>
       <c r="U67">
-        <v>0.98823343694308396</v>
+        <v>0.98354017618391798</v>
       </c>
       <c r="V67">
-        <v>0.98389986377758198</v>
+        <v>0.97252978246696697</v>
       </c>
       <c r="W67">
-        <v>0.998006921543241</v>
+        <v>0.99066921872813596</v>
       </c>
       <c r="X67">
-        <v>0.98496524799999996</v>
+        <v>0.97468513400000001</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>1.0467888714168501</v>
+        <v>1.05797714465242</v>
       </c>
       <c r="B68">
-        <v>1.0467888714168501</v>
+        <v>1.05797714465242</v>
       </c>
       <c r="C68">
-        <v>1.02383554720702</v>
+        <v>1.03103162451193</v>
       </c>
       <c r="D68">
-        <v>1.0467888714168501</v>
+        <v>1.04530601712013</v>
       </c>
       <c r="E68">
-        <v>1.02796849624718</v>
+        <v>1.0314332397136901</v>
       </c>
       <c r="F68">
-        <v>1.0290041189129899</v>
+        <v>1.03457752473614</v>
       </c>
       <c r="G68">
-        <v>1.0458150242333799</v>
+        <v>1.0553738475874701</v>
       </c>
       <c r="H68">
-        <v>1.0458150242333799</v>
+        <v>1.0553738475874701</v>
       </c>
       <c r="I68">
-        <v>1.0520536624515699</v>
+        <v>1.0772741636521099</v>
       </c>
       <c r="J68">
-        <v>1.0458749890130199</v>
+        <v>1.05762125914614</v>
       </c>
       <c r="K68">
-        <v>1.0680267759276101</v>
+        <v>1.0903261990247799</v>
       </c>
       <c r="L68">
-        <v>1.04116241043714</v>
+        <v>1.0473532475278999</v>
       </c>
       <c r="M68">
-        <v>0.97920684461644403</v>
+        <v>0.97384484245668801</v>
       </c>
       <c r="N68">
-        <v>0.97920684461644403</v>
+        <v>0.97384484245668801</v>
       </c>
       <c r="O68">
-        <v>0.96962285341554599</v>
+        <v>0.96718041447750103</v>
       </c>
       <c r="P68">
-        <v>0.97920684461644303</v>
+        <v>0.97226815216713403</v>
       </c>
       <c r="Q68">
-        <v>0.97090288343020104</v>
+        <v>0.96685044163451395</v>
       </c>
       <c r="R68">
-        <v>0.97181712340914495</v>
+        <v>0.96635259213806302</v>
       </c>
       <c r="S68">
-        <v>0.98385939260548105</v>
+        <v>0.971770260303777</v>
       </c>
       <c r="T68">
-        <v>0.98385939260548105</v>
+        <v>0.971770260303777</v>
       </c>
       <c r="U68">
-        <v>0.98823343694308396</v>
+        <v>0.99508493198194703</v>
       </c>
       <c r="V68">
-        <v>0.98389986377758198</v>
+        <v>0.98224038245265</v>
       </c>
       <c r="W68">
-        <v>0.998006921543241</v>
+        <v>0.99582654032842699</v>
       </c>
       <c r="X68">
-        <v>0.98496524799999996</v>
+        <v>0.97228397200000005</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>1.0467888714168501</v>
+        <v>1.0295481576608201</v>
       </c>
       <c r="B69">
-        <v>1.0467888714168501</v>
+        <v>1.0295481576608201</v>
       </c>
       <c r="C69">
-        <v>1.02383554720702</v>
+        <v>1.00422809326929</v>
       </c>
       <c r="D69">
-        <v>1.0467888714168501</v>
+        <v>1.01723005583197</v>
       </c>
       <c r="E69">
-        <v>1.02796849624718</v>
+        <v>1.0054211630519301</v>
       </c>
       <c r="F69">
-        <v>1.0290041189129899</v>
+        <v>1.00717366060299</v>
       </c>
       <c r="G69">
-        <v>1.0458150242333799</v>
+        <v>1.03290656339767</v>
       </c>
       <c r="H69">
-        <v>1.0458150242333799</v>
+        <v>1.03290656339767</v>
       </c>
       <c r="I69">
-        <v>1.0520536624515699</v>
+        <v>1.04455949174677</v>
       </c>
       <c r="J69">
-        <v>1.0458749890130199</v>
+        <v>1.02708381955702</v>
       </c>
       <c r="K69">
-        <v>1.0680267759276101</v>
+        <v>1.05828211990482</v>
       </c>
       <c r="L69">
-        <v>1.04116241043714</v>
+        <v>1.0265669658650101</v>
       </c>
       <c r="M69">
-        <v>0.97920684461644403</v>
+        <v>0.97933054829490696</v>
       </c>
       <c r="N69">
-        <v>0.97920684461644403</v>
+        <v>0.97933054829490696</v>
       </c>
       <c r="O69">
-        <v>0.96962285341554599</v>
+        <v>0.97020884036608002</v>
       </c>
       <c r="P69">
-        <v>0.97920684461644303</v>
+        <v>0.97695049762645703</v>
       </c>
       <c r="Q69">
-        <v>0.97090288343020104</v>
+        <v>0.97075278859487302</v>
       </c>
       <c r="R69">
-        <v>0.97181712340914495</v>
+        <v>0.97010387707017898</v>
       </c>
       <c r="S69">
-        <v>0.98385939260548105</v>
+        <v>0.98293781426444204</v>
       </c>
       <c r="T69">
-        <v>0.98385939260548105</v>
+        <v>0.98293781426444204</v>
       </c>
       <c r="U69">
-        <v>0.98823343694308396</v>
+        <v>0.99654551076119902</v>
       </c>
       <c r="V69">
-        <v>0.98389986377758198</v>
+        <v>0.98362598178574401</v>
       </c>
       <c r="W69">
-        <v>0.998006921543241</v>
+        <v>1.0013825925526301</v>
       </c>
       <c r="X69">
-        <v>0.98496524799999996</v>
+        <v>0.98152668399999998</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>1.0467888714168501</v>
+        <v>1.0269569013531601</v>
       </c>
       <c r="B70">
-        <v>1.0467888714168501</v>
+        <v>1.0269569013531601</v>
       </c>
       <c r="C70">
-        <v>1.02383554720702</v>
+        <v>1.0031356668951801</v>
       </c>
       <c r="D70">
-        <v>1.0467888714168501</v>
+        <v>1.0165925002492899</v>
       </c>
       <c r="E70">
-        <v>1.02796849624718</v>
+        <v>1.0061341909421599</v>
       </c>
       <c r="F70">
-        <v>1.0290041189129899</v>
+        <v>1.0069565680530601</v>
       </c>
       <c r="G70">
-        <v>1.0458150242333799</v>
+        <v>1.0446929657767901</v>
       </c>
       <c r="H70">
-        <v>1.0458150242333799</v>
+        <v>1.0446929657767901</v>
       </c>
       <c r="I70">
-        <v>1.0520536624515699</v>
+        <v>1.0504291568008199</v>
       </c>
       <c r="J70">
-        <v>1.0458749890130199</v>
+        <v>1.04108766500836</v>
       </c>
       <c r="K70">
-        <v>1.0680267759276101</v>
+        <v>1.06750629267652</v>
       </c>
       <c r="L70">
-        <v>1.04116241043714</v>
+        <v>1.0375101526122401</v>
       </c>
       <c r="M70">
-        <v>0.97920684461644403</v>
+        <v>0.98064093348729298</v>
       </c>
       <c r="N70">
-        <v>0.97920684461644403</v>
+        <v>0.98064093348729298</v>
       </c>
       <c r="O70">
-        <v>0.96962285341554599</v>
+        <v>0.96971135316920098</v>
       </c>
       <c r="P70">
-        <v>0.97920684461644303</v>
+        <v>0.97668574290850696</v>
       </c>
       <c r="Q70">
-        <v>0.97090288343020104</v>
+        <v>0.97034382975838596</v>
       </c>
       <c r="R70">
-        <v>0.97181712340914495</v>
+        <v>0.97008487204318095</v>
       </c>
       <c r="S70">
-        <v>0.98385939260548105</v>
+        <v>0.99696367673101405</v>
       </c>
       <c r="T70">
-        <v>0.98385939260548105</v>
+        <v>0.99696367673101405</v>
       </c>
       <c r="U70">
-        <v>0.98823343694308396</v>
+        <v>1.0085629027020899</v>
       </c>
       <c r="V70">
-        <v>0.98389986377758198</v>
+        <v>0.99938451189294197</v>
       </c>
       <c r="W70">
-        <v>0.998006921543241</v>
+        <v>1.01586718649437</v>
       </c>
       <c r="X70">
-        <v>0.98496524799999996</v>
+        <v>0.99543037099999998</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1.04263072567951</v>
+        <v>1.03469024617949</v>
       </c>
       <c r="B71">
-        <v>1.07886197102915</v>
+        <v>1.0731906076423301</v>
       </c>
       <c r="C71">
-        <v>1.04263072567951</v>
+        <v>1.03469024617949</v>
       </c>
       <c r="D71">
-        <v>1.0640630702732601</v>
+        <v>1.0530947479172901</v>
       </c>
       <c r="E71">
-        <v>1.0496604686356701</v>
+        <v>1.0407931633062699</v>
       </c>
       <c r="F71">
-        <v>1.0514662016482801</v>
+        <v>1.03820296885254</v>
       </c>
       <c r="G71">
-        <v>1.1031949963643399</v>
+        <v>1.1019459477920699</v>
       </c>
       <c r="H71">
-        <v>1.17458707868602</v>
+        <v>1.1786177436162399</v>
       </c>
       <c r="I71">
-        <v>1.1031949963643399</v>
+        <v>1.1019459477920699</v>
       </c>
       <c r="J71">
-        <v>1.1395486892386799</v>
+        <v>1.14065047644371</v>
       </c>
       <c r="K71">
-        <v>1.1098057527130101</v>
+        <v>1.1115375538407399</v>
       </c>
       <c r="L71">
-        <v>1.1619643022113599</v>
+        <v>1.17874594594231</v>
       </c>
       <c r="M71">
-        <v>0.98317503389596705</v>
+        <v>0.98078340842343803</v>
       </c>
       <c r="N71">
-        <v>0.98806598465415596</v>
+        <v>0.98848303574078</v>
       </c>
       <c r="O71">
-        <v>0.98317503389596705</v>
+        <v>0.98078340842343803</v>
       </c>
       <c r="P71">
-        <v>0.98564087610040096</v>
+        <v>0.98312666061142795</v>
       </c>
       <c r="Q71">
-        <v>0.98328936773753595</v>
+        <v>0.98114399829721999</v>
       </c>
       <c r="R71">
-        <v>0.98339082273464995</v>
+        <v>0.97854255717081295</v>
       </c>
       <c r="S71">
-        <v>1.0084545592062599</v>
+        <v>1.00661776906189</v>
       </c>
       <c r="T71">
-        <v>1.0503825371862401</v>
+        <v>1.05104627212615</v>
       </c>
       <c r="U71">
-        <v>1.0084545592062599</v>
+        <v>1.00661776906189</v>
       </c>
       <c r="V71">
-        <v>1.0331609347525099</v>
+        <v>1.02917353523587</v>
       </c>
       <c r="W71">
-        <v>1.0105677645233699</v>
+        <v>1.00887065442483</v>
       </c>
       <c r="X71">
-        <v>1.0460333020000001</v>
+        <v>1.0560686500000001</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
@@ -5748,16 +5752,16 @@
         <v>1.1053584553447999</v>
       </c>
       <c r="C72">
-        <v>1.06653533507799</v>
+        <v>1.0669140336165499</v>
       </c>
       <c r="D72">
         <v>1.0830911475415701</v>
       </c>
       <c r="E72">
-        <v>1.0747162898753899</v>
+        <v>1.07460995608414</v>
       </c>
       <c r="F72">
-        <v>1.08169787157459</v>
+        <v>1.0730570687773899</v>
       </c>
       <c r="G72">
         <v>1.1948856311582201</v>
@@ -5766,16 +5770,16 @@
         <v>1.2375262230216599</v>
       </c>
       <c r="I72">
-        <v>1.1560503794522401</v>
+        <v>1.1516144389629901</v>
       </c>
       <c r="J72">
         <v>1.1948856311582201</v>
       </c>
       <c r="K72">
-        <v>1.1738780240432301</v>
+        <v>1.1729801947474301</v>
       </c>
       <c r="L72">
-        <v>1.22729970786539</v>
+        <v>1.23293697208204</v>
       </c>
       <c r="M72">
         <v>0.97820833805229401</v>
@@ -5784,16 +5788,16 @@
         <v>0.98123128445285801</v>
       </c>
       <c r="O72">
-        <v>0.97790887052457098</v>
+        <v>0.97790240360723601</v>
       </c>
       <c r="P72">
         <v>0.97820833805229401</v>
       </c>
       <c r="Q72">
-        <v>0.97769755853498796</v>
+        <v>0.977870287227394</v>
       </c>
       <c r="R72">
-        <v>0.978326906896825</v>
+        <v>0.97423181983405405</v>
       </c>
       <c r="S72">
         <v>1.0297576659165499</v>
@@ -5802,90 +5806,90 @@
         <v>1.05286937851478</v>
       </c>
       <c r="U72">
-        <v>1.0063038478067801</v>
+        <v>1.0072322193100101</v>
       </c>
       <c r="V72">
         <v>1.0297576659165499</v>
       </c>
       <c r="W72">
-        <v>1.0149590611775301</v>
+        <v>1.0166504979211901</v>
       </c>
       <c r="X72">
-        <v>1.050943701</v>
+        <v>1.0586963650000001</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>1.04713557980773</v>
+        <v>1.02531641407137</v>
       </c>
       <c r="B73">
-        <v>1.04713557980773</v>
+        <v>1.03695763776533</v>
       </c>
       <c r="C73">
-        <v>1.0293122982145899</v>
+        <v>1.01137895361435</v>
       </c>
       <c r="D73">
-        <v>1.04713557980773</v>
+        <v>1.02531641407137</v>
       </c>
       <c r="E73">
-        <v>1.0331800255839401</v>
+        <v>1.0112054023916699</v>
       </c>
       <c r="F73">
-        <v>1.03088931239871</v>
+        <v>1.01407250590082</v>
       </c>
       <c r="G73">
-        <v>1.0510556056849401</v>
+        <v>1.0421309385322901</v>
       </c>
       <c r="H73">
-        <v>1.0510556057231899</v>
+        <v>1.0376505428049001</v>
       </c>
       <c r="I73">
-        <v>1.0642005605959901</v>
+        <v>1.05357616332668</v>
       </c>
       <c r="J73">
-        <v>1.0510556056849401</v>
+        <v>1.0421309385322901</v>
       </c>
       <c r="K73">
-        <v>1.06777392372485</v>
+        <v>1.06959125212408</v>
       </c>
       <c r="L73">
-        <v>1.0495742165695201</v>
+        <v>1.0420872072057901</v>
       </c>
       <c r="M73">
-        <v>0.98656238000590302</v>
+        <v>0.98813765416910804</v>
       </c>
       <c r="N73">
-        <v>0.98656238000590302</v>
+        <v>0.99069406519151404</v>
       </c>
       <c r="O73">
-        <v>0.98353619457000496</v>
+        <v>0.98033849381298199</v>
       </c>
       <c r="P73">
-        <v>0.98656238000590302</v>
+        <v>0.98813765416910804</v>
       </c>
       <c r="Q73">
-        <v>0.98134446603173597</v>
+        <v>0.98003562741050898</v>
       </c>
       <c r="R73">
-        <v>0.98224283262539702</v>
+        <v>0.98018472091637998</v>
       </c>
       <c r="S73">
-        <v>0.99491872432601403</v>
+        <v>0.99715850985244203</v>
       </c>
       <c r="T73">
-        <v>0.99491872403569004</v>
+        <v>0.992218700940804</v>
       </c>
       <c r="U73">
-        <v>1.00471806464417</v>
+        <v>1.00315838454923</v>
       </c>
       <c r="V73">
-        <v>0.99491872432601403</v>
+        <v>0.99715850985244203</v>
       </c>
       <c r="W73">
-        <v>1.00250134341625</v>
+        <v>1.0071934349143401</v>
       </c>
       <c r="X73">
-        <v>0.99828349000000005</v>
+        <v>0.99742950500000005</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
@@ -5896,16 +5900,16 @@
         <v>1.11918831271304</v>
       </c>
       <c r="C74">
-        <v>1.0870370162310301</v>
+        <v>1.08756109835657</v>
       </c>
       <c r="D74">
         <v>1.1016104545327501</v>
       </c>
       <c r="E74">
-        <v>1.0951024104899401</v>
+        <v>1.0955132405724901</v>
       </c>
       <c r="F74">
-        <v>1.1019245977996801</v>
+        <v>1.0953327918437801</v>
       </c>
       <c r="G74">
         <v>1.29324960797116</v>
@@ -5914,16 +5918,16 @@
         <v>1.29324960797116</v>
       </c>
       <c r="I74">
-        <v>1.21621493796953</v>
+        <v>1.2041155265280601</v>
       </c>
       <c r="J74">
         <v>1.24926005222209</v>
       </c>
       <c r="K74">
-        <v>1.2384904536791199</v>
+        <v>1.2346181074812601</v>
       </c>
       <c r="L74">
-        <v>1.28655038235607</v>
+        <v>1.2906805736768201</v>
       </c>
       <c r="M74">
         <v>0.98577561952941495</v>
@@ -5932,16 +5936,16 @@
         <v>0.98577561952941495</v>
       </c>
       <c r="O74">
-        <v>0.98383949520351899</v>
+        <v>0.98390446840109702</v>
       </c>
       <c r="P74">
         <v>0.98345711216993503</v>
       </c>
       <c r="Q74">
-        <v>0.98337887398897095</v>
+        <v>0.983529409668919</v>
       </c>
       <c r="R74">
-        <v>0.98391154315967999</v>
+        <v>0.98020373953126005</v>
       </c>
       <c r="S74">
         <v>1.0902185473667001</v>
@@ -5950,16 +5954,16 @@
         <v>1.0902185473667001</v>
       </c>
       <c r="U74">
-        <v>1.0444162318341601</v>
+        <v>1.0424407666037701</v>
       </c>
       <c r="V74">
         <v>1.0650209979407701</v>
       </c>
       <c r="W74">
-        <v>1.0567830566454</v>
+        <v>1.0572653800362899</v>
       </c>
       <c r="X74">
-        <v>1.093889055</v>
+        <v>1.098289643</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.35">
@@ -5970,16 +5974,16 @@
         <v>1.09601019627112</v>
       </c>
       <c r="C75">
-        <v>1.0685013331761599</v>
+        <v>1.06719892831286</v>
       </c>
       <c r="D75">
         <v>1.0791743391439601</v>
       </c>
       <c r="E75">
-        <v>1.07373568609615</v>
+        <v>1.0727727513069301</v>
       </c>
       <c r="F75">
-        <v>1.0812271073544599</v>
+        <v>1.0742520881761799</v>
       </c>
       <c r="G75">
         <v>1.1915499278617401</v>
@@ -5988,16 +5992,16 @@
         <v>1.1915499278617401</v>
       </c>
       <c r="I75">
-        <v>1.1229867743678601</v>
+        <v>1.1220809567535599</v>
       </c>
       <c r="J75">
         <v>1.15587718920043</v>
       </c>
       <c r="K75">
-        <v>1.13857354591431</v>
+        <v>1.13912190129146</v>
       </c>
       <c r="L75">
-        <v>1.1896555107289799</v>
+        <v>1.19740811135437</v>
       </c>
       <c r="M75">
         <v>0.98353050168300604</v>
@@ -6006,16 +6010,16 @@
         <v>0.98353050168300604</v>
       </c>
       <c r="O75">
-        <v>0.98168716968342096</v>
+        <v>0.98117798819558799</v>
       </c>
       <c r="P75">
         <v>0.98132639522836096</v>
       </c>
       <c r="Q75">
-        <v>0.98097631239091798</v>
+        <v>0.98073025738776698</v>
       </c>
       <c r="R75">
-        <v>0.98194550330408303</v>
+        <v>0.97941167249648098</v>
       </c>
       <c r="S75">
         <v>1.02827686421139</v>
@@ -6024,16 +6028,16 @@
         <v>1.02827686421139</v>
       </c>
       <c r="U75">
-        <v>0.99359072331075105</v>
+        <v>0.99370369297346595</v>
       </c>
       <c r="V75">
         <v>1.01242483050235</v>
       </c>
       <c r="W75">
-        <v>1.00004630969839</v>
+        <v>1.00176404236338</v>
       </c>
       <c r="X75">
-        <v>1.0294558920000001</v>
+        <v>1.0376067179999999</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
@@ -6044,16 +6048,16 @@
         <v>1.08380779240646</v>
       </c>
       <c r="C76">
-        <v>1.05542190761523</v>
+        <v>1.0565394918534401</v>
       </c>
       <c r="D76">
         <v>1.06847613443837</v>
       </c>
       <c r="E76">
-        <v>1.0626671559109699</v>
+        <v>1.06294834136813</v>
       </c>
       <c r="F76">
-        <v>1.06589640221189</v>
+        <v>1.0594492268785201</v>
       </c>
       <c r="G76">
         <v>1.3030707093488201</v>
@@ -6062,16 +6066,16 @@
         <v>1.3030707093488201</v>
       </c>
       <c r="I76">
-        <v>1.20381112196649</v>
+        <v>1.1997842848084399</v>
       </c>
       <c r="J76">
         <v>1.25835833844798</v>
       </c>
       <c r="K76">
-        <v>1.2489924918208</v>
+        <v>1.2462496682944899</v>
       </c>
       <c r="L76">
-        <v>1.2758863350929299</v>
+        <v>1.2763490298783899</v>
       </c>
       <c r="M76">
         <v>0.97672138258163099</v>
@@ -6080,16 +6084,16 @@
         <v>0.97672138258163099</v>
       </c>
       <c r="O76">
-        <v>0.97602384720381496</v>
+        <v>0.97638134792258202</v>
       </c>
       <c r="P76">
         <v>0.97544404265487095</v>
       </c>
       <c r="Q76">
-        <v>0.97486151393749199</v>
+        <v>0.97518580707261804</v>
       </c>
       <c r="R76">
-        <v>0.97510446508322002</v>
+        <v>0.97268294480622497</v>
       </c>
       <c r="S76">
         <v>1.12361774004638</v>
@@ -6098,16 +6102,16 @@
         <v>1.12361774004638</v>
       </c>
       <c r="U76">
-        <v>1.0489356251425199</v>
+        <v>1.04609958157676</v>
       </c>
       <c r="V76">
         <v>1.0887075554799199</v>
       </c>
       <c r="W76">
-        <v>1.0812399266175501</v>
+        <v>1.0815866789098401</v>
       </c>
       <c r="X76">
-        <v>1.1108564860000001</v>
+        <v>1.1147976180000001</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
@@ -6118,16 +6122,16 @@
         <v>1.10040179562645</v>
       </c>
       <c r="C77">
-        <v>1.0653568165426499</v>
+        <v>1.0665011881761499</v>
       </c>
       <c r="D77">
         <v>1.0807258900412799</v>
       </c>
       <c r="E77">
-        <v>1.0743311736884</v>
+        <v>1.0743204582828301</v>
       </c>
       <c r="F77">
-        <v>1.0809272413828599</v>
+        <v>1.07526424506926</v>
       </c>
       <c r="G77">
         <v>1.3677322891360599</v>
@@ -6136,16 +6140,16 @@
         <v>1.3677322891360599</v>
       </c>
       <c r="I77">
-        <v>1.26181251519134</v>
+        <v>1.25385465748358</v>
       </c>
       <c r="J77">
         <v>1.31804028935457</v>
       </c>
       <c r="K77">
-        <v>1.31272114321457</v>
+        <v>1.3101545666107</v>
       </c>
       <c r="L77">
-        <v>1.3393589416694001</v>
+        <v>1.3389732502662299</v>
       </c>
       <c r="M77">
         <v>0.980716967600615</v>
@@ -6154,16 +6158,16 @@
         <v>0.980716967600615</v>
       </c>
       <c r="O77">
-        <v>0.97559633484479602</v>
+        <v>0.97596833873765398</v>
       </c>
       <c r="P77">
         <v>0.97718985062467001</v>
       </c>
       <c r="Q77">
-        <v>0.97660756044614605</v>
+        <v>0.97682148475990704</v>
       </c>
       <c r="R77">
-        <v>0.97774880322550695</v>
+        <v>0.97527252690498101</v>
       </c>
       <c r="S77">
         <v>1.1877349181796899</v>
@@ -6172,16 +6176,16 @@
         <v>1.1877349181796899</v>
       </c>
       <c r="U77">
-        <v>1.1008321239018499</v>
+        <v>1.09434133798782</v>
       </c>
       <c r="V77">
         <v>1.14749005653573</v>
       </c>
       <c r="W77">
-        <v>1.1429725533758099</v>
+        <v>1.1415941513872301</v>
       </c>
       <c r="X77">
-        <v>1.1716803149999999</v>
+        <v>1.173569131</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -6192,16 +6196,16 @@
         <v>1.09000575916287</v>
       </c>
       <c r="C78">
-        <v>1.05707948588853</v>
+        <v>1.0582726074628599</v>
       </c>
       <c r="D78">
         <v>1.07251882691653</v>
       </c>
       <c r="E78">
-        <v>1.0652199700948399</v>
+        <v>1.0652657957796099</v>
       </c>
       <c r="F78">
-        <v>1.0739841937572301</v>
+        <v>1.0665347331914099</v>
       </c>
       <c r="G78">
         <v>1.29314699643944</v>
@@ -6210,16 +6214,16 @@
         <v>1.29314699643944</v>
       </c>
       <c r="I78">
-        <v>1.19737496659943</v>
+        <v>1.19951041027233</v>
       </c>
       <c r="J78">
         <v>1.25077590784979</v>
       </c>
       <c r="K78">
-        <v>1.23769600084308</v>
+        <v>1.2391298050261601</v>
       </c>
       <c r="L78">
-        <v>1.2704856458998699</v>
+        <v>1.27860885516374</v>
       </c>
       <c r="M78">
         <v>0.98211663867277399</v>
@@ -6228,16 +6232,16 @@
         <v>0.98211663867277399</v>
       </c>
       <c r="O78">
-        <v>0.97703536179653205</v>
+        <v>0.97717644960546002</v>
       </c>
       <c r="P78">
         <v>0.97835339425815804</v>
       </c>
       <c r="Q78">
-        <v>0.97790053031081003</v>
+        <v>0.97803240280024095</v>
       </c>
       <c r="R78">
-        <v>0.97930549273463796</v>
+        <v>0.97616381116800599</v>
       </c>
       <c r="S78">
         <v>1.10851208298133</v>
@@ -6246,16 +6250,16 @@
         <v>1.10851208298133</v>
       </c>
       <c r="U78">
-        <v>1.03858441732143</v>
+        <v>1.0382666977344699</v>
       </c>
       <c r="V78">
         <v>1.0762867685660999</v>
       </c>
       <c r="W78">
-        <v>1.0658154258602399</v>
+        <v>1.0667902252881101</v>
       </c>
       <c r="X78">
-        <v>1.094820109</v>
+        <v>1.104421648</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.35">
@@ -6266,16 +6270,16 @@
         <v>1.0874234019675999</v>
       </c>
       <c r="C79">
-        <v>1.0561907105233499</v>
+        <v>1.05480982598424</v>
       </c>
       <c r="D79">
         <v>1.06878969884285</v>
       </c>
       <c r="E79">
-        <v>1.06129542157271</v>
+        <v>1.0610515268241401</v>
       </c>
       <c r="F79">
-        <v>1.0671053830128501</v>
+        <v>1.05839832867254</v>
       </c>
       <c r="G79">
         <v>1.13275058118669</v>
@@ -6284,16 +6288,16 @@
         <v>1.13275058118669</v>
       </c>
       <c r="I79">
-        <v>1.08097033244605</v>
+        <v>1.0793972882951499</v>
       </c>
       <c r="J79">
         <v>1.10070422699361</v>
       </c>
       <c r="K79">
-        <v>1.0813396422796799</v>
+        <v>1.08130842179547</v>
       </c>
       <c r="L79">
-        <v>1.1215172898971399</v>
+        <v>1.1330865323455099</v>
       </c>
       <c r="M79">
         <v>0.98105896800699299</v>
@@ -6302,16 +6306,16 @@
         <v>0.98105896800699299</v>
       </c>
       <c r="O79">
-        <v>0.97751369247767195</v>
+        <v>0.97708973343442695</v>
       </c>
       <c r="P79">
         <v>0.97765032261200202</v>
       </c>
       <c r="Q79">
-        <v>0.97771538746433995</v>
+        <v>0.97768925635451398</v>
       </c>
       <c r="R79">
-        <v>0.97843497922349298</v>
+        <v>0.97492348428097397</v>
       </c>
       <c r="S79">
         <v>0.99195986068974096</v>
@@ -6320,16 +6324,16 @@
         <v>0.99195986068974096</v>
       </c>
       <c r="U79">
-        <v>0.97786388243886102</v>
+        <v>0.97906629095695596</v>
       </c>
       <c r="V79">
         <v>0.983008866549406</v>
       </c>
       <c r="W79">
-        <v>0.97603581557314201</v>
+        <v>0.97752428403588898</v>
       </c>
       <c r="X79">
-        <v>0.99137571199999996</v>
+        <v>0.99869566399999998</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
@@ -6340,16 +6344,16 @@
         <v>1.1130340445187099</v>
       </c>
       <c r="C80">
-        <v>1.0774912907794401</v>
+        <v>1.07840832519421</v>
       </c>
       <c r="D80">
         <v>1.0946763565184401</v>
       </c>
       <c r="E80">
-        <v>1.0878508865002701</v>
+        <v>1.0879064302033501</v>
       </c>
       <c r="F80">
-        <v>1.09503647110868</v>
+        <v>1.08648001530975</v>
       </c>
       <c r="G80">
         <v>1.2087674870994101</v>
@@ -6358,16 +6362,16 @@
         <v>1.2087674870994101</v>
       </c>
       <c r="I80">
-        <v>1.13792209099707</v>
+        <v>1.1369892855183099</v>
       </c>
       <c r="J80">
         <v>1.17304054305799</v>
       </c>
       <c r="K80">
-        <v>1.1498970113706299</v>
+        <v>1.15277459418501</v>
       </c>
       <c r="L80">
-        <v>1.2018132909568899</v>
+        <v>1.2081439104952501</v>
       </c>
       <c r="M80">
         <v>0.987424381177886</v>
@@ -6376,16 +6380,16 @@
         <v>0.987424381177886</v>
       </c>
       <c r="O80">
-        <v>0.98533829461558997</v>
+        <v>0.98527554096936498</v>
       </c>
       <c r="P80">
         <v>0.98506353445026196</v>
       </c>
       <c r="Q80">
-        <v>0.98547171947825096</v>
+        <v>0.98558522960018702</v>
       </c>
       <c r="R80">
-        <v>0.98586361799787503</v>
+        <v>0.98140902262336704</v>
       </c>
       <c r="S80">
         <v>1.02512013365809</v>
@@ -6394,16 +6398,16 @@
         <v>1.02512013365809</v>
       </c>
       <c r="U80">
-        <v>0.99184735552723102</v>
+        <v>0.99594740536317095</v>
       </c>
       <c r="V80">
         <v>1.00757483116688</v>
       </c>
       <c r="W80">
-        <v>0.99611303062989298</v>
+        <v>0.99904584804591801</v>
       </c>
       <c r="X80">
-        <v>1.026387714</v>
+        <v>1.0336289750000001</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -6414,16 +6418,16 @@
         <v>1.1228691576871399</v>
       </c>
       <c r="C81">
-        <v>1.08826413435681</v>
+        <v>1.08809480154868</v>
       </c>
       <c r="D81">
         <v>1.10297616539073</v>
       </c>
       <c r="E81">
-        <v>1.09496525504221</v>
+        <v>1.09478806706683</v>
       </c>
       <c r="F81">
-        <v>1.09798781797911</v>
+        <v>1.08942303615321</v>
       </c>
       <c r="G81">
         <v>1.2947816755442401</v>
@@ -6432,16 +6436,16 @@
         <v>1.2947816755442401</v>
       </c>
       <c r="I81">
-        <v>1.2078172437060599</v>
+        <v>1.2060206175377199</v>
       </c>
       <c r="J81">
         <v>1.25017983268804</v>
       </c>
       <c r="K81">
-        <v>1.23532429095796</v>
+        <v>1.23542881457652</v>
       </c>
       <c r="L81">
-        <v>1.2864688558502499</v>
+        <v>1.29174493735431</v>
       </c>
       <c r="M81">
         <v>0.98643585323719196</v>
@@ -6450,16 +6454,16 @@
         <v>0.98643585323719196</v>
       </c>
       <c r="O81">
-        <v>0.97924983705802304</v>
+        <v>0.97839187642700898</v>
       </c>
       <c r="P81">
         <v>0.98035719121883802</v>
       </c>
       <c r="Q81">
-        <v>0.98057547770737896</v>
+        <v>0.98033813680755</v>
       </c>
       <c r="R81">
-        <v>0.98159196866743603</v>
+        <v>0.97697944533953196</v>
       </c>
       <c r="S81">
         <v>1.07129116278244</v>
@@ -6468,16 +6472,16 @@
         <v>1.07129116278244</v>
       </c>
       <c r="U81">
-        <v>1.0205963863647101</v>
+        <v>1.0230201870459801</v>
       </c>
       <c r="V81">
         <v>1.0398956858802899</v>
       </c>
       <c r="W81">
-        <v>1.03241046384607</v>
+        <v>1.03475271831058</v>
       </c>
       <c r="X81">
-        <v>1.0737472619999999</v>
+        <v>1.0804563629999999</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
@@ -6488,16 +6492,16 @@
         <v>1.09572996486898</v>
       </c>
       <c r="C82">
-        <v>1.0673377776336499</v>
+        <v>1.06676237295779</v>
       </c>
       <c r="D82">
         <v>1.07782579726056</v>
       </c>
       <c r="E82">
-        <v>1.0717937420877299</v>
+        <v>1.0712311766889999</v>
       </c>
       <c r="F82">
-        <v>1.07767334545286</v>
+        <v>1.06885299111806</v>
       </c>
       <c r="G82">
         <v>1.22192646909279</v>
@@ -6506,16 +6510,16 @@
         <v>1.22192646909279</v>
       </c>
       <c r="I82">
-        <v>1.1619562654223801</v>
+        <v>1.1594714450260799</v>
       </c>
       <c r="J82">
         <v>1.19191905632969</v>
       </c>
       <c r="K82">
-        <v>1.1799337791865701</v>
+        <v>1.17774018704494</v>
       </c>
       <c r="L82">
-        <v>1.21847424848858</v>
+        <v>1.22182596541796</v>
       </c>
       <c r="M82">
         <v>0.98431942590057198</v>
@@ -6524,16 +6528,16 @@
         <v>0.98431942590057198</v>
       </c>
       <c r="O82">
-        <v>0.98146403815240502</v>
+        <v>0.98086060473346703</v>
       </c>
       <c r="P82">
         <v>0.98146466927596998</v>
       </c>
       <c r="Q82">
-        <v>0.98194411295833295</v>
+        <v>0.98185739377041004</v>
       </c>
       <c r="R82">
-        <v>0.982173476298287</v>
+        <v>0.97809509477755796</v>
       </c>
       <c r="S82">
         <v>1.0476194813536099</v>
@@ -6542,16 +6546,16 @@
         <v>1.0476194813536099</v>
       </c>
       <c r="U82">
-        <v>1.01377789843545</v>
+        <v>1.01893423954815</v>
       </c>
       <c r="V82">
         <v>1.0298416623887501</v>
       </c>
       <c r="W82">
-        <v>1.02031293759113</v>
+        <v>1.0235105895338299</v>
       </c>
       <c r="X82">
-        <v>1.0504921840000001</v>
+        <v>1.0570326649999999</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.35">
@@ -6562,16 +6566,16 @@
         <v>1.09837885306759</v>
       </c>
       <c r="C83">
-        <v>1.06205053833598</v>
+        <v>1.06366990264954</v>
       </c>
       <c r="D83">
         <v>1.0770533194533001</v>
       </c>
       <c r="E83">
-        <v>1.0697142513143201</v>
+        <v>1.06959417005332</v>
       </c>
       <c r="F83">
-        <v>1.0744211464301301</v>
+        <v>1.0675188917035501</v>
       </c>
       <c r="G83">
         <v>1.1831990178735701</v>
@@ -6580,16 +6584,16 @@
         <v>1.1831990178735701</v>
       </c>
       <c r="I83">
-        <v>1.11330097983888</v>
+        <v>1.12146047686557</v>
       </c>
       <c r="J83">
         <v>1.1509534324535799</v>
       </c>
       <c r="K83">
-        <v>1.1276177204668301</v>
+        <v>1.1324024349914601</v>
       </c>
       <c r="L83">
-        <v>1.1729999669575799</v>
+        <v>1.18556707876376</v>
       </c>
       <c r="M83">
         <v>0.97939849473824703</v>
@@ -6598,16 +6602,16 @@
         <v>0.97939849473824703</v>
       </c>
       <c r="O83">
-        <v>0.97529187722111699</v>
+        <v>0.97575128501259301</v>
       </c>
       <c r="P83">
         <v>0.97640413654160196</v>
       </c>
       <c r="Q83">
-        <v>0.97542650049817203</v>
+        <v>0.97575665423479796</v>
       </c>
       <c r="R83">
-        <v>0.97588421321811203</v>
+        <v>0.97173983804615305</v>
       </c>
       <c r="S83">
         <v>1.03890308993531</v>
@@ -6616,16 +6620,16 @@
         <v>1.03890308993531</v>
       </c>
       <c r="U83">
-        <v>1.00392414652328</v>
+        <v>1.0112294869159799</v>
       </c>
       <c r="V83">
         <v>1.02233117251794</v>
       </c>
       <c r="W83">
-        <v>1.01004186731719</v>
+        <v>1.0138726609480999</v>
       </c>
       <c r="X83">
-        <v>1.03715606</v>
+        <v>1.0469857950000001</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
@@ -6636,16 +6640,16 @@
         <v>1.09854654378075</v>
       </c>
       <c r="C84">
-        <v>1.06507912892872</v>
+        <v>1.0682072109554299</v>
       </c>
       <c r="D84">
         <v>1.08401155860739</v>
       </c>
       <c r="E84">
-        <v>1.07578080595037</v>
+        <v>1.0762649441610399</v>
       </c>
       <c r="F84">
-        <v>1.0827284138611</v>
+        <v>1.0766587755229999</v>
       </c>
       <c r="G84">
         <v>1.1933621065562201</v>
@@ -6654,16 +6658,16 @@
         <v>1.1933621065562201</v>
       </c>
       <c r="I84">
-        <v>1.1327367313638199</v>
+        <v>1.11889062790303</v>
       </c>
       <c r="J84">
         <v>1.15930280053483</v>
       </c>
       <c r="K84">
-        <v>1.1382705418274801</v>
+        <v>1.1350159091140799</v>
       </c>
       <c r="L84">
-        <v>1.1885505675647099</v>
+        <v>1.19328691224646</v>
       </c>
       <c r="M84">
         <v>0.98317883388914595</v>
@@ -6672,16 +6676,16 @@
         <v>0.98317883388914595</v>
       </c>
       <c r="O84">
-        <v>0.98180484308743998</v>
+        <v>0.98340986160791999</v>
       </c>
       <c r="P84">
         <v>0.98346783878263699</v>
       </c>
       <c r="Q84">
-        <v>0.98171232816442999</v>
+        <v>0.98236063987254096</v>
       </c>
       <c r="R84">
-        <v>0.98163607462574898</v>
+        <v>0.97854666046340799</v>
       </c>
       <c r="S84">
         <v>1.02254997080625</v>
@@ -6690,16 +6694,16 @@
         <v>1.02254997080625</v>
       </c>
       <c r="U84">
-        <v>1.00071686071062</v>
+        <v>0.99796718469094703</v>
       </c>
       <c r="V84">
         <v>1.01012549123657</v>
       </c>
       <c r="W84">
-        <v>1.00025714370425</v>
+        <v>1.0008193817254101</v>
       </c>
       <c r="X84">
-        <v>1.0236795139999999</v>
+        <v>1.0296798680000001</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -6710,16 +6714,16 @@
         <v>1.10568211921681</v>
       </c>
       <c r="C85">
-        <v>1.07433659156502</v>
+        <v>1.07506593280114</v>
       </c>
       <c r="D85">
         <v>1.0887794471304699</v>
       </c>
       <c r="E85">
-        <v>1.08247301984732</v>
+        <v>1.0827133440560901</v>
       </c>
       <c r="F85">
-        <v>1.0864716877731699</v>
+        <v>1.0811111853770099</v>
       </c>
       <c r="G85">
         <v>1.1729707071012301</v>
@@ -6728,16 +6732,16 @@
         <v>1.1729707071012301</v>
       </c>
       <c r="I85">
-        <v>1.11647948984097</v>
+        <v>1.11349460670718</v>
       </c>
       <c r="J85">
         <v>1.1430050776709799</v>
       </c>
       <c r="K85">
-        <v>1.1262066213159001</v>
+        <v>1.1220727252621601</v>
       </c>
       <c r="L85">
-        <v>1.16833136391434</v>
+        <v>1.1680839550682001</v>
       </c>
       <c r="M85">
         <v>0.97750641320518405</v>
@@ -6746,16 +6750,16 @@
         <v>0.97750641320518405</v>
       </c>
       <c r="O85">
-        <v>0.97703963497115798</v>
+        <v>0.97758387470965902</v>
       </c>
       <c r="P85">
         <v>0.976546182578924</v>
       </c>
       <c r="Q85">
-        <v>0.97596023905262996</v>
+        <v>0.97623553753057601</v>
       </c>
       <c r="R85">
-        <v>0.97605754497633801</v>
+        <v>0.973307641211417</v>
       </c>
       <c r="S85">
         <v>1.0110480988458701</v>
@@ -6764,16 +6768,16 @@
         <v>1.0110480988458701</v>
       </c>
       <c r="U85">
-        <v>0.99145668094469896</v>
+        <v>0.99335538254773403</v>
       </c>
       <c r="V85">
         <v>1.0053474738019701</v>
       </c>
       <c r="W85">
-        <v>0.99208934382508596</v>
+        <v>0.993417174198301</v>
       </c>
       <c r="X85">
-        <v>1.011147273</v>
+        <v>1.0158030140000001</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.35">
@@ -6784,16 +6788,16 @@
         <v>1.1617396385798699</v>
       </c>
       <c r="C86">
-        <v>1.14116927186886</v>
+        <v>1.14061968323798</v>
       </c>
       <c r="D86">
         <v>1.15135298163456</v>
       </c>
       <c r="E86">
-        <v>1.13763997619783</v>
+        <v>1.13749916144126</v>
       </c>
       <c r="F86">
-        <v>1.1401275970943301</v>
+        <v>1.1325189155880999</v>
       </c>
       <c r="G86">
         <v>1.2275315547344401</v>
@@ -6802,16 +6806,16 @@
         <v>1.2275315547344401</v>
       </c>
       <c r="I86">
-        <v>1.17855372108345</v>
+        <v>1.17155444165675</v>
       </c>
       <c r="J86">
         <v>1.2228535559945699</v>
       </c>
       <c r="K86">
-        <v>1.1658958504039301</v>
+        <v>1.1651875120675801</v>
       </c>
       <c r="L86">
-        <v>1.2228321657869199</v>
+        <v>1.2265923303206101</v>
       </c>
       <c r="M86">
         <v>0.97887882437051299</v>
@@ -6820,16 +6824,16 @@
         <v>0.97887882437051299</v>
       </c>
       <c r="O86">
-        <v>0.98234703590974404</v>
+        <v>0.98212509780438195</v>
       </c>
       <c r="P86">
         <v>0.98027101200908195</v>
       </c>
       <c r="Q86">
-        <v>0.976376482976263</v>
+        <v>0.97644839848059595</v>
       </c>
       <c r="R86">
-        <v>0.97631285258446399</v>
+        <v>0.97322420431580203</v>
       </c>
       <c r="S86">
         <v>1.01835922440184</v>
@@ -6838,16 +6842,16 @@
         <v>1.01835922440184</v>
       </c>
       <c r="U86">
-        <v>0.996966713860723</v>
+        <v>0.99830680407053196</v>
       </c>
       <c r="V86">
         <v>1.01784844356014</v>
       </c>
       <c r="W86">
-        <v>0.99139939089420404</v>
+        <v>0.99372315364291297</v>
       </c>
       <c r="X86">
-        <v>1.018270118</v>
+        <v>1.0235636450000001</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -6858,16 +6862,16 @@
         <v>1.1220301374655499</v>
       </c>
       <c r="C87">
-        <v>1.0836597341598599</v>
+        <v>1.08470130435051</v>
       </c>
       <c r="D87">
         <v>1.1012035544571299</v>
       </c>
       <c r="E87">
-        <v>1.09476967730469</v>
+        <v>1.09460371061607</v>
       </c>
       <c r="F87">
-        <v>1.1019087178959199</v>
+        <v>1.09563982319606</v>
       </c>
       <c r="G87">
         <v>1.2322705789841499</v>
@@ -6876,16 +6880,16 @@
         <v>1.2322705789841499</v>
       </c>
       <c r="I87">
-        <v>1.1531040697072401</v>
+        <v>1.1490533299461001</v>
       </c>
       <c r="J87">
         <v>1.1951042918520201</v>
       </c>
       <c r="K87">
-        <v>1.17264264760805</v>
+        <v>1.17086942066233</v>
       </c>
       <c r="L87">
-        <v>1.2228770771083299</v>
+        <v>1.22637698969843</v>
       </c>
       <c r="M87">
         <v>0.98282514782453501</v>
@@ -6894,16 +6898,16 @@
         <v>0.98282514782453501</v>
       </c>
       <c r="O87">
-        <v>0.979979792133713</v>
+        <v>0.98047345133257802</v>
       </c>
       <c r="P87">
         <v>0.98118830593944295</v>
       </c>
       <c r="Q87">
-        <v>0.97966268283200297</v>
+        <v>0.97991986637338502</v>
       </c>
       <c r="R87">
-        <v>0.980087001655782</v>
+        <v>0.97654904490017902</v>
       </c>
       <c r="S87">
         <v>1.05049094327665</v>
@@ -6912,16 +6916,16 @@
         <v>1.05049094327665</v>
       </c>
       <c r="U87">
-        <v>1.0146494001805899</v>
+        <v>1.0146147023283401</v>
       </c>
       <c r="V87">
         <v>1.03402116588065</v>
       </c>
       <c r="W87">
-        <v>1.02056413524843</v>
+        <v>1.0209997611745301</v>
       </c>
       <c r="X87">
-        <v>1.051407864</v>
+        <v>1.0584938779999999</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -6932,16 +6936,16 @@
         <v>1.04713557980773</v>
       </c>
       <c r="C88">
-        <v>1.0293122982145899</v>
+        <v>1.02573645687114</v>
       </c>
       <c r="D88">
-        <v>1.04713557980773</v>
+        <v>1.03926805188049</v>
       </c>
       <c r="E88">
-        <v>1.0331800255839401</v>
+        <v>1.03092989864913</v>
       </c>
       <c r="F88">
-        <v>1.03088931239871</v>
+        <v>1.03227343161712</v>
       </c>
       <c r="G88">
         <v>1.0510556057231899</v>
@@ -6950,16 +6954,16 @@
         <v>1.0510556057231899</v>
       </c>
       <c r="I88">
-        <v>1.0642005605959901</v>
+        <v>1.0643077045564999</v>
       </c>
       <c r="J88">
-        <v>1.0510556056849401</v>
+        <v>1.06005564061716</v>
       </c>
       <c r="K88">
-        <v>1.06777392372485</v>
+        <v>1.0797033891172401</v>
       </c>
       <c r="L88">
-        <v>1.0495742165695301</v>
+        <v>1.05860821514529</v>
       </c>
       <c r="M88">
         <v>0.98656238000590302</v>
@@ -6968,16 +6972,16 @@
         <v>0.98656238000590302</v>
       </c>
       <c r="O88">
-        <v>0.98353619457000496</v>
+        <v>0.98342027303947999</v>
       </c>
       <c r="P88">
-        <v>0.98656238000590302</v>
+        <v>0.98630212093950898</v>
       </c>
       <c r="Q88">
-        <v>0.98134446603173597</v>
+        <v>0.98240435418820005</v>
       </c>
       <c r="R88">
-        <v>0.98224283262539702</v>
+        <v>0.98275341540364503</v>
       </c>
       <c r="S88">
         <v>0.99491872403568904</v>
@@ -6986,386 +6990,386 @@
         <v>0.99491872403568904</v>
       </c>
       <c r="U88">
-        <v>1.00471806464417</v>
+        <v>1.00177040287258</v>
       </c>
       <c r="V88">
-        <v>0.99491872432601403</v>
+        <v>1.0023538124551701</v>
       </c>
       <c r="W88">
-        <v>1.00250134341625</v>
+        <v>1.00816437481806</v>
       </c>
       <c r="X88">
-        <v>0.99828349000000005</v>
+        <v>1.0042828850000001</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>1.04713557980773</v>
+        <v>1.05143731494056</v>
       </c>
       <c r="B89">
-        <v>1.04713557980773</v>
+        <v>1.05143731494056</v>
       </c>
       <c r="C89">
-        <v>1.0293122982145899</v>
+        <v>1.01894247248026</v>
       </c>
       <c r="D89">
-        <v>1.04713557980773</v>
+        <v>1.0384728716498299</v>
       </c>
       <c r="E89">
-        <v>1.0331800255839401</v>
+        <v>1.0263973943117499</v>
       </c>
       <c r="F89">
-        <v>1.03088931239871</v>
+        <v>1.0276435730959099</v>
       </c>
       <c r="G89">
-        <v>1.0510556057231899</v>
+        <v>1.04990791965172</v>
       </c>
       <c r="H89">
-        <v>1.0510556057231899</v>
+        <v>1.04990791965172</v>
       </c>
       <c r="I89">
-        <v>1.0642005605959901</v>
+        <v>1.0707429058825999</v>
       </c>
       <c r="J89">
-        <v>1.0510556056849401</v>
+        <v>1.0694278347250299</v>
       </c>
       <c r="K89">
-        <v>1.06777392372485</v>
+        <v>1.0780966412830799</v>
       </c>
       <c r="L89">
-        <v>1.0495742165695301</v>
+        <v>1.0511122623696501</v>
       </c>
       <c r="M89">
-        <v>0.98656238000590302</v>
+        <v>0.98871604794764301</v>
       </c>
       <c r="N89">
-        <v>0.98656238000590302</v>
+        <v>0.98871604794764301</v>
       </c>
       <c r="O89">
-        <v>0.98353619457000496</v>
+        <v>0.97945022736322096</v>
       </c>
       <c r="P89">
-        <v>0.98656238000590302</v>
+        <v>0.98681823818198</v>
       </c>
       <c r="Q89">
-        <v>0.98134446603173597</v>
+        <v>0.980630035947055</v>
       </c>
       <c r="R89">
-        <v>0.98224283262539702</v>
+        <v>0.980515399440955</v>
       </c>
       <c r="S89">
-        <v>0.99491872403568904</v>
+        <v>0.99507570568219805</v>
       </c>
       <c r="T89">
-        <v>0.99491872403568904</v>
+        <v>0.99507570568219805</v>
       </c>
       <c r="U89">
-        <v>1.00471806464417</v>
+        <v>1.01963955575635</v>
       </c>
       <c r="V89">
-        <v>0.99491872432601403</v>
+        <v>1.0069205641580701</v>
       </c>
       <c r="W89">
-        <v>1.00250134341625</v>
+        <v>1.0117063372341999</v>
       </c>
       <c r="X89">
-        <v>0.99828349000000005</v>
+        <v>0.99926484199999999</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>1.04713557980773</v>
+        <v>1.0461746595322601</v>
       </c>
       <c r="B90">
-        <v>1.04713557980773</v>
+        <v>1.0461746595322601</v>
       </c>
       <c r="C90">
-        <v>1.0293122982145899</v>
+        <v>1.0265928685077801</v>
       </c>
       <c r="D90">
-        <v>1.04713557980773</v>
+        <v>1.0374105988547699</v>
       </c>
       <c r="E90">
-        <v>1.0331800255839401</v>
+        <v>1.02935395808075</v>
       </c>
       <c r="F90">
-        <v>1.03088931239871</v>
+        <v>1.0304740093707601</v>
       </c>
       <c r="G90">
-        <v>1.0510556057231899</v>
+        <v>1.0705831022062899</v>
       </c>
       <c r="H90">
-        <v>1.0510556057231899</v>
+        <v>1.0705831022062899</v>
       </c>
       <c r="I90">
-        <v>1.0642005605959901</v>
+        <v>1.08151175690212</v>
       </c>
       <c r="J90">
-        <v>1.0510556056849401</v>
+        <v>1.0809716552122</v>
       </c>
       <c r="K90">
-        <v>1.06777392372485</v>
+        <v>1.0998493718026401</v>
       </c>
       <c r="L90">
-        <v>1.0495742165695301</v>
+        <v>1.07237479750136</v>
       </c>
       <c r="M90">
-        <v>0.98656238000590302</v>
+        <v>0.98272856043157897</v>
       </c>
       <c r="N90">
-        <v>0.98656238000590302</v>
+        <v>0.98272856043157897</v>
       </c>
       <c r="O90">
-        <v>0.98353619457000496</v>
+        <v>0.97693629843258301</v>
       </c>
       <c r="P90">
-        <v>0.98656238000590302</v>
+        <v>0.98234738993870596</v>
       </c>
       <c r="Q90">
-        <v>0.98134446603173597</v>
+        <v>0.97679117148621697</v>
       </c>
       <c r="R90">
-        <v>0.98224283262539702</v>
+        <v>0.97593105151561899</v>
       </c>
       <c r="S90">
-        <v>0.99491872403568904</v>
+        <v>1.0009748256766</v>
       </c>
       <c r="T90">
-        <v>0.99491872403568904</v>
+        <v>1.0009748256766</v>
       </c>
       <c r="U90">
-        <v>1.00471806464417</v>
+        <v>1.00937460492203</v>
       </c>
       <c r="V90">
-        <v>0.99491872432601403</v>
+        <v>1.0102702764612399</v>
       </c>
       <c r="W90">
-        <v>1.00250134341625</v>
+        <v>1.01419667831505</v>
       </c>
       <c r="X90">
-        <v>0.99828349000000005</v>
+        <v>1.0046771910000001</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>1.04713557980773</v>
+        <v>1.0806379196426801</v>
       </c>
       <c r="B91">
-        <v>1.04713557980773</v>
+        <v>1.0806379196426801</v>
       </c>
       <c r="C91">
-        <v>1.0293122982145899</v>
+        <v>1.05349819313649</v>
       </c>
       <c r="D91">
-        <v>1.04713557980773</v>
+        <v>1.06921618162291</v>
       </c>
       <c r="E91">
-        <v>1.0331800255839401</v>
+        <v>1.0544826431737699</v>
       </c>
       <c r="F91">
-        <v>1.03088931239871</v>
+        <v>1.0578347981558001</v>
       </c>
       <c r="G91">
-        <v>1.0510556057231899</v>
+        <v>1.0807226656509801</v>
       </c>
       <c r="H91">
-        <v>1.0510556057231899</v>
+        <v>1.0807226656509801</v>
       </c>
       <c r="I91">
-        <v>1.0642005605959901</v>
+        <v>1.0892697948657399</v>
       </c>
       <c r="J91">
-        <v>1.0510556056849401</v>
+        <v>1.08139180000369</v>
       </c>
       <c r="K91">
-        <v>1.06777392372485</v>
+        <v>1.1054732274024801</v>
       </c>
       <c r="L91">
-        <v>1.0495742165695301</v>
+        <v>1.0798675970512901</v>
       </c>
       <c r="M91">
-        <v>0.98656238000590302</v>
+        <v>0.99228415875915799</v>
       </c>
       <c r="N91">
-        <v>0.98656238000590302</v>
+        <v>0.99228415875915799</v>
       </c>
       <c r="O91">
-        <v>0.98353619457000496</v>
+        <v>0.98161222572865903</v>
       </c>
       <c r="P91">
-        <v>0.98656238000590302</v>
+        <v>0.98978767388998501</v>
       </c>
       <c r="Q91">
-        <v>0.98134446603173597</v>
+        <v>0.98273645098941098</v>
       </c>
       <c r="R91">
-        <v>0.98224283262539702</v>
+        <v>0.98347016408213594</v>
       </c>
       <c r="S91">
-        <v>0.99491872403568904</v>
+        <v>0.99951819364407501</v>
       </c>
       <c r="T91">
-        <v>0.99491872403568904</v>
+        <v>0.99951819364407501</v>
       </c>
       <c r="U91">
-        <v>1.00471806464417</v>
+        <v>1.0041929813363899</v>
       </c>
       <c r="V91">
-        <v>0.99491872432601403</v>
+        <v>1.0009925268250099</v>
       </c>
       <c r="W91">
-        <v>1.00250134341625</v>
+        <v>1.0092119004498099</v>
       </c>
       <c r="X91">
-        <v>0.99828349000000005</v>
+        <v>1.000628595</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>1.04713557980773</v>
+        <v>1.02822522677392</v>
       </c>
       <c r="B92">
-        <v>1.04713557980773</v>
+        <v>1.02822522677392</v>
       </c>
       <c r="C92">
-        <v>1.0293122982145899</v>
+        <v>1.00275815076507</v>
       </c>
       <c r="D92">
-        <v>1.04713557980773</v>
+        <v>1.0173931683491</v>
       </c>
       <c r="E92">
-        <v>1.0331800255839401</v>
+        <v>1.00445095561951</v>
       </c>
       <c r="F92">
-        <v>1.03088931239871</v>
+        <v>1.00644857403027</v>
       </c>
       <c r="G92">
-        <v>1.0510556057231899</v>
+        <v>1.0458044242193401</v>
       </c>
       <c r="H92">
-        <v>1.0510556057231899</v>
+        <v>1.0458044242193401</v>
       </c>
       <c r="I92">
-        <v>1.0642005605959901</v>
+        <v>1.05016245159624</v>
       </c>
       <c r="J92">
-        <v>1.0510556056849401</v>
+        <v>1.04092216952127</v>
       </c>
       <c r="K92">
-        <v>1.06777392372485</v>
+        <v>1.0704674476964899</v>
       </c>
       <c r="L92">
-        <v>1.0495742165695301</v>
+        <v>1.0491396490115601</v>
       </c>
       <c r="M92">
-        <v>0.98656238000590302</v>
+        <v>0.98694281443064802</v>
       </c>
       <c r="N92">
-        <v>0.98656238000590302</v>
+        <v>0.98694281443064802</v>
       </c>
       <c r="O92">
-        <v>0.98353619457000496</v>
+        <v>0.97536374906791301</v>
       </c>
       <c r="P92">
-        <v>0.98656238000590302</v>
+        <v>0.98399537439842499</v>
       </c>
       <c r="Q92">
-        <v>0.98134446603173597</v>
+        <v>0.97604216077720696</v>
       </c>
       <c r="R92">
-        <v>0.98224283262539702</v>
+        <v>0.97619784372352703</v>
       </c>
       <c r="S92">
-        <v>0.99491872403568904</v>
+        <v>0.99971744423804998</v>
       </c>
       <c r="T92">
-        <v>0.99491872403568904</v>
+        <v>0.99971744423804998</v>
       </c>
       <c r="U92">
-        <v>1.00471806464417</v>
+        <v>1.0049486192075201</v>
       </c>
       <c r="V92">
-        <v>0.99491872432601403</v>
+        <v>1.00000679356095</v>
       </c>
       <c r="W92">
-        <v>1.00250134341625</v>
+        <v>1.0056289595944901</v>
       </c>
       <c r="X92">
-        <v>0.99828349000000005</v>
+        <v>1.0014631759999999</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>1.04713557980773</v>
+        <v>1.03233211535387</v>
       </c>
       <c r="B93">
-        <v>1.04713557980773</v>
+        <v>1.03233211535387</v>
       </c>
       <c r="C93">
-        <v>1.0293122982145899</v>
+        <v>1.01429964980506</v>
       </c>
       <c r="D93">
-        <v>1.04713557980773</v>
+        <v>1.0227043622016501</v>
       </c>
       <c r="E93">
-        <v>1.0331800255839401</v>
+        <v>1.0162538446146401</v>
       </c>
       <c r="F93">
-        <v>1.03088931239871</v>
+        <v>1.0192461364024601</v>
       </c>
       <c r="G93">
-        <v>1.0510556057231899</v>
+        <v>1.03760107102544</v>
       </c>
       <c r="H93">
-        <v>1.0510556057231899</v>
+        <v>1.03760107102544</v>
       </c>
       <c r="I93">
-        <v>1.0642005605959901</v>
+        <v>1.0518135788240299</v>
       </c>
       <c r="J93">
-        <v>1.0510556056849401</v>
+        <v>1.03696807697059</v>
       </c>
       <c r="K93">
-        <v>1.06777392372485</v>
+        <v>1.06807904697621</v>
       </c>
       <c r="L93">
-        <v>1.0495742165695301</v>
+        <v>1.0433064244297601</v>
       </c>
       <c r="M93">
-        <v>0.98656238000590302</v>
+        <v>0.98881030411886695</v>
       </c>
       <c r="N93">
-        <v>0.98656238000590302</v>
+        <v>0.98881030411886695</v>
       </c>
       <c r="O93">
-        <v>0.98353619457000496</v>
+        <v>0.97828148607054299</v>
       </c>
       <c r="P93">
-        <v>0.98656238000590302</v>
+        <v>0.98502994809878197</v>
       </c>
       <c r="Q93">
-        <v>0.98134446603173597</v>
+        <v>0.97857959184843202</v>
       </c>
       <c r="R93">
-        <v>0.98224283262539702</v>
+        <v>0.97975441001918795</v>
       </c>
       <c r="S93">
-        <v>0.99491872403568904</v>
+        <v>0.99580105643107897</v>
       </c>
       <c r="T93">
-        <v>0.99491872403568904</v>
+        <v>0.99580105643107897</v>
       </c>
       <c r="U93">
-        <v>1.00471806464417</v>
+        <v>1.0013612282711699</v>
       </c>
       <c r="V93">
-        <v>0.99491872432601403</v>
+        <v>0.99315357997248999</v>
       </c>
       <c r="W93">
-        <v>1.00250134341625</v>
+        <v>1.0043535522320699</v>
       </c>
       <c r="X93">
-        <v>0.99828349000000005</v>
+        <v>0.99828983000000004</v>
       </c>
     </row>
   </sheetData>
